--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>534</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1419</v>
+        <v>2635.5</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="24">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6964.59</v>
+        <v>7757.47</v>
       </c>
     </row>
     <row r="29">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2771.17</v>
+        <v>2883.86</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2025.7</v>
+        <v>2131.87</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2476.61</v>
+        <v>2114.15</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1864.25</v>
+        <v>1460.17</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2398.76</v>
+        <v>1994.68</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2906.84</v>
+        <v>2461.17</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3678.17</v>
+        <v>2926.59</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6619.29</v>
+        <v>8220.99</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4582.94</v>
+        <v>5172.85</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6435.28</v>
+        <v>5988.63</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5943.64</v>
+        <v>5345.46</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7415.85</v>
+        <v>6817.67</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9604.639999999999</v>
+        <v>8964.879999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>11470.85</v>
+        <v>9913.01</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>710000</v>
+        <v>841500</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>36531</v>
+        <v>78502.60000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>25.05</v>
+        <v>61.81</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4.5</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28654.5</v>
+        <v>48989.7</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>34260.24</v>
+        <v>44661.8</v>
       </c>
     </row>
     <row r="51">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>69437.17999999999</v>
+        <v>138006.82</v>
       </c>
     </row>
     <row r="58">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>796.75</v>
+        <v>902.96</v>
       </c>
     </row>
     <row r="59">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1034.95</v>
+        <v>1141.16</v>
       </c>
     </row>
     <row r="60">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1069.6</v>
+        <v>1066.91</v>
       </c>
     </row>
     <row r="61">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>898.3</v>
+        <v>895.61</v>
       </c>
     </row>
     <row r="62">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>619.8</v>
+        <v>617.11</v>
       </c>
     </row>
     <row r="63">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1678.45</v>
+        <v>1626.26</v>
       </c>
     </row>
     <row r="64">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1598.65</v>
+        <v>1546.46</v>
       </c>
     </row>
     <row r="65">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>750.3200000000001</v>
+        <v>968.03</v>
       </c>
     </row>
     <row r="66">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1088.08</v>
+        <v>1295.2</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1261.58</v>
+        <v>1243.35</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>962.58</v>
+        <v>944.35</v>
       </c>
     </row>
     <row r="69">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>738.97</v>
+        <v>720.73</v>
       </c>
     </row>
     <row r="70">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1459.38</v>
+        <v>1441.15</v>
       </c>
     </row>
     <row r="71">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1434.58</v>
+        <v>1480.7</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3134.26</v>
+        <v>5330.27</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>176.05</v>
+        <v>287.76</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>7580.71</v>
+        <v>12091.98</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>161.75</v>
+        <v>504.29</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>224.96</v>
+        <v>697.65</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4223.1</v>
+        <v>7650.83</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>874.6</v>
+        <v>1510.79</v>
       </c>
     </row>
     <row r="79">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="80">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>25.54</v>
+        <v>28.01</v>
       </c>
     </row>
     <row r="84">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>89.44</v>
+        <v>272.31</v>
       </c>
     </row>
     <row r="86">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1124.86</v>
+        <v>3986.61</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5450.12</v>
+        <v>8677.1</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>4544.11</v>
+        <v>8470.120000000001</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>557.48</v>
+        <v>898.15</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5044.35</v>
+        <v>7799.57</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>687.49</v>
+        <v>1176.32</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>11836.35</v>
+        <v>17226.34</v>
       </c>
     </row>
     <row r="107">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>11.17</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="113">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1477.75</v>
+        <v>1478.73</v>
       </c>
     </row>
     <row r="114">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>90.31999999999999</v>
+        <v>420.32</v>
       </c>
     </row>
     <row r="122">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>90.31999999999999</v>
+        <v>420.32</v>
       </c>
     </row>
     <row r="123">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1047.05</v>
+        <v>1377.05</v>
       </c>
     </row>
     <row r="128">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>18.16</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>99.02</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>218.28</v>
+        <v>392.69</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>649.3200000000001</v>
+        <v>1522.87</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>60</v>
+        <v>246.04</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>343.82</v>
+        <v>843.04</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>818.3</v>
+        <v>2047.84</v>
       </c>
     </row>
     <row r="135">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="140">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1488.07</v>
+        <v>1525.44</v>
       </c>
     </row>
     <row r="143">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2053.65</v>
+        <v>2091.03</v>
       </c>
     </row>
     <row r="144">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2216.37</v>
+        <v>2253.74</v>
       </c>
     </row>
     <row r="148">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3146.61</v>
+        <v>3183.98</v>
       </c>
     </row>
     <row r="149">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1306.07</v>
+        <v>1343.44</v>
       </c>
     </row>
     <row r="150">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1621.82</v>
+        <v>1659.19</v>
       </c>
     </row>
     <row r="151">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1712.74</v>
+        <v>1750.11</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2634.97</v>
+        <v>2672.35</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>4752</v>
+        <v>8744</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>868.5599999999999</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>566.88</v>
+        <v>895.76</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>237.6</v>
+        <v>335.34</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2506.5</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>4917.5</v>
+        <v>7902</v>
       </c>
     </row>
     <row r="163">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.54</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="168">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="169">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>77.48999999999999</v>
+        <v>106.37</v>
       </c>
     </row>
     <row r="171">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>77.48999999999999</v>
+        <v>93.98999999999999</v>
       </c>
     </row>
     <row r="172">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>127.32</v>
+        <v>123.2</v>
       </c>
     </row>
     <row r="175">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>177.26</v>
+        <v>173.14</v>
       </c>
     </row>
     <row r="176">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>103.89</v>
+        <v>116.27</v>
       </c>
     </row>
     <row r="177">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>77.48999999999999</v>
+        <v>106.37</v>
       </c>
     </row>
     <row r="178">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>77.48999999999999</v>
+        <v>93.98999999999999</v>
       </c>
     </row>
     <row r="179">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>127.32</v>
+        <v>123.2</v>
       </c>
     </row>
     <row r="182">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>177.26</v>
+        <v>173.14</v>
       </c>
     </row>
     <row r="183">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>103.89</v>
+        <v>116.27</v>
       </c>
     </row>
     <row r="184">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1472.06</v>
+        <v>3879.68</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>6689</v>
+        <v>11996</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1409</v>
+        <v>1878.75</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1045</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2634</v>
+        <v>8822.5</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>3282.8</v>
+        <v>8531</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1815.7</v>
+        <v>5938.5</v>
       </c>
     </row>
     <row r="191">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>202.48</v>
+        <v>490.02</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>185.87</v>
+        <v>368.85</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>707.16</v>
+        <v>1151.6</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>26.46</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>320.8</v>
+        <v>673.95</v>
       </c>
     </row>
     <row r="217">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1957.92</v>
+        <v>3073.1</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>312.77</v>
+        <v>584.4400000000001</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>45.83</v>
+        <v>125.52</v>
       </c>
     </row>
     <row r="220">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>15.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>87.51000000000001</v>
+        <v>177.07</v>
       </c>
     </row>
     <row r="226">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>414.12</v>
+        <v>670.02</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>18126</v>
+        <v>39968</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>489.97</v>
+        <v>894.58</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>327.48</v>
+        <v>630</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1173.84</v>
+        <v>1841.6</v>
       </c>
     </row>
     <row r="245">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>576.77</v>
+        <v>2714.01</v>
       </c>
     </row>
     <row r="247">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>5.82</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="254">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>9492.860000000001</v>
+        <v>16205.5</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>1560</v>
+        <v>8434.5</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>3686.38</v>
+        <v>7654.06</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>2784.5</v>
+        <v>4814.5</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>405.37</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="273">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>1859.82</v>
+        <v>3434.4</v>
       </c>
     </row>
     <row r="274">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1636.58</v>
+        <v>4086.7</v>
       </c>
     </row>
     <row r="275">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>7.56</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="276">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>3.68</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="280">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1553.08</v>
+        <v>1554.4</v>
       </c>
     </row>
     <row r="282">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>35.7</v>
+        <v>60.78</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>105.45</v>
+        <v>352.38</v>
       </c>
     </row>
     <row r="298">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>15.36</v>
+        <v>50.04</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>59.77</v>
+        <v>75.12</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>7.37</v>
+        <v>32.96</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>161</v>
+        <v>528</v>
       </c>
     </row>
     <row r="303">
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>0.66</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="309">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>4431.16</v>
+        <v>5210.2</v>
       </c>
     </row>
     <row r="311">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>3560.17</v>
+        <v>4330.8</v>
       </c>
     </row>
     <row r="312">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3703.51</v>
+        <v>3877.02</v>
       </c>
     </row>
     <row r="313">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>4158.71</v>
+        <v>4581.81</v>
       </c>
     </row>
     <row r="314">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>3988.86</v>
+        <v>4411.96</v>
       </c>
     </row>
     <row r="315">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>4803.59</v>
+        <v>5222.56</v>
       </c>
     </row>
     <row r="316">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>4700.01</v>
+        <v>5449.15</v>
       </c>
     </row>
     <row r="317">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>5455.1</v>
+        <v>6333.14</v>
       </c>
     </row>
     <row r="318">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>4294.76</v>
+        <v>5164.38</v>
       </c>
     </row>
     <row r="319">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>4528.84</v>
+        <v>4702.36</v>
       </c>
     </row>
     <row r="320">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>5174.89</v>
+        <v>5597.99</v>
       </c>
     </row>
     <row r="321">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>4930.79</v>
+        <v>5353.89</v>
       </c>
     </row>
     <row r="322">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>5926.69</v>
+        <v>6345.66</v>
       </c>
     </row>
     <row r="323">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>5971.94</v>
+        <v>6820.08</v>
       </c>
     </row>
     <row r="324">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1530</v>
+        <v>2771.3</v>
       </c>
     </row>
     <row r="325">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>296.79</v>
+        <v>547.34</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>180.78</v>
+        <v>264.5</v>
       </c>
     </row>
     <row r="327">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>228.46</v>
+        <v>384.75</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>249.25</v>
+        <v>428.44</v>
       </c>
     </row>
     <row r="330">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>167.26</v>
+        <v>266.1</v>
       </c>
     </row>
     <row r="331">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="336">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>4.14</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="337">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>0</v>
+        <v>275.3</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>128.16</v>
+        <v>174.7</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>26.52</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>129.84</v>
+        <v>191.2</v>
       </c>
     </row>
     <row r="358">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>4199.7</v>
+        <v>20491.6</v>
       </c>
     </row>
     <row r="381">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>1297.5</v>
+        <v>30090.43</v>
       </c>
     </row>
     <row r="382">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>1146.18</v>
+        <v>2512.29</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>3724.87</v>
+        <v>24575.42</v>
       </c>
     </row>
     <row r="384">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>158.65</v>
+        <v>10742.5</v>
       </c>
     </row>
     <row r="385">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>13640</v>
+        <v>50461.71</v>
       </c>
     </row>
     <row r="386">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>2844.22</v>
+        <v>12343.3</v>
       </c>
     </row>
     <row r="387">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>25.32</v>
+        <v>51.68</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>14.96</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>10.62</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="412">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>28.02</v>
+        <v>40.41</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>126.17</v>
+        <v>246.1</v>
       </c>
     </row>
     <row r="415">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>192.16</v>
+        <v>217.04</v>
       </c>
     </row>
     <row r="423">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>162.87</v>
+        <v>187.74</v>
       </c>
     </row>
     <row r="424">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>270.54</v>
+        <v>295.41</v>
       </c>
     </row>
     <row r="428">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>270.54</v>
+        <v>295.41</v>
       </c>
     </row>
     <row r="429">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>192.16</v>
+        <v>217.04</v>
       </c>
     </row>
     <row r="430">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>162.87</v>
+        <v>187.74</v>
       </c>
     </row>
     <row r="431">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>270.54</v>
+        <v>295.41</v>
       </c>
     </row>
     <row r="435">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>270.54</v>
+        <v>295.41</v>
       </c>
     </row>
     <row r="436">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>537.7</v>
+        <v>905.6900000000001</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>1030.29</v>
+        <v>1759.67</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>1157.94</v>
+        <v>1916.8</v>
       </c>
     </row>
     <row r="439">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>54.06</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>59.44</v>
+        <v>111.4</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>2062.2</v>
+        <v>3420.2</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>361.27</v>
+        <v>1251.06</v>
       </c>
     </row>
     <row r="443">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2883.86</v>
+        <v>3169.5</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2131.87</v>
+        <v>2417.52</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2114.15</v>
+        <v>2399.8</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1460.17</v>
+        <v>1745.81</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1994.68</v>
+        <v>2280.32</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2461.17</v>
+        <v>2746.82</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2926.59</v>
+        <v>3212.23</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8220.99</v>
+        <v>8506.629999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5172.85</v>
+        <v>5657.49</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5988.63</v>
+        <v>6274.27</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5345.46</v>
+        <v>5631.11</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6817.67</v>
+        <v>7103.32</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8964.879999999999</v>
+        <v>9250.530000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9913.01</v>
+        <v>10198.65</v>
       </c>
     </row>
     <row r="44">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>287.76</v>
+        <v>315.14</v>
       </c>
     </row>
     <row r="74">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>8677.1</v>
+        <v>8870.76</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>8470.120000000001</v>
+        <v>8615.120000000001</v>
       </c>
     </row>
     <row r="103">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6.54</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="109">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>196.2</v>
+        <v>205.72</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>392.69</v>
+        <v>397.84</v>
       </c>
     </row>
     <row r="131">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="138">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1400</v>
+        <v>1485.76</v>
       </c>
     </row>
     <row r="158">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1.9</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="221">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>19.1</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="222">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>39968</v>
+        <v>40007.14</v>
       </c>
     </row>
     <row r="242">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>8434.5</v>
+        <v>11458.5</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>7654.06</v>
+        <v>7675.99</v>
       </c>
     </row>
     <row r="271">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>7.05</v>
+        <v>550.37</v>
       </c>
     </row>
     <row r="277">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>2.35</v>
+        <v>18.55</v>
       </c>
     </row>
     <row r="278">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>352.38</v>
+        <v>386.24</v>
       </c>
     </row>
     <row r="298">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="306">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>4330.8</v>
+        <v>5271.3</v>
       </c>
     </row>
     <row r="312">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>5164.38</v>
+        <v>6401.88</v>
       </c>
     </row>
     <row r="319">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>547.34</v>
+        <v>688.84</v>
       </c>
     </row>
     <row r="326">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="333">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>11.05</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="334">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>30090.43</v>
+        <v>30996.93</v>
       </c>
     </row>
     <row r="382">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>0</v>
+        <v>10489.1</v>
       </c>
     </row>
     <row r="389">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>51.68</v>
+        <v>54.16</v>
       </c>
     </row>
     <row r="410">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>298</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>770</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="19">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2635.5</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="24">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2979.02</v>
       </c>
     </row>
     <row r="27">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3169.5</v>
+        <v>3484.4</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2417.52</v>
+        <v>3090.08</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2399.8</v>
+        <v>3199.24</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1745.81</v>
+        <v>2060.71</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2280.32</v>
+        <v>2595.22</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2746.82</v>
+        <v>3061.72</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3212.23</v>
+        <v>3527.13</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8506.629999999999</v>
+        <v>8821.530000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5657.49</v>
+        <v>6978.06</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6274.27</v>
+        <v>7920.71</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5631.11</v>
+        <v>5946.01</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7103.32</v>
+        <v>7418.21</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9250.530000000001</v>
+        <v>9565.43</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10198.65</v>
+        <v>10513.55</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>841500</v>
+        <v>945000</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>78502.60000000001</v>
+        <v>88416.35000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>61.81</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>36000</v>
+        <v>48818</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>20.92</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>48989.7</v>
+        <v>55237.94</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>44661.8</v>
+        <v>49441.92</v>
       </c>
     </row>
     <row r="51">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>138006.82</v>
+        <v>172331.08</v>
       </c>
     </row>
     <row r="58">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>902.96</v>
+        <v>885.98</v>
       </c>
     </row>
     <row r="59">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1141.16</v>
+        <v>1124.18</v>
       </c>
     </row>
     <row r="60">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1066.91</v>
+        <v>1149.05</v>
       </c>
     </row>
     <row r="61">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>895.61</v>
+        <v>888.52</v>
       </c>
     </row>
     <row r="62">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>617.11</v>
+        <v>610.02</v>
       </c>
     </row>
     <row r="63">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1626.26</v>
+        <v>1609.28</v>
       </c>
     </row>
     <row r="64">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1546.46</v>
+        <v>1529.48</v>
       </c>
     </row>
     <row r="65">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>968.03</v>
+        <v>949.76</v>
       </c>
     </row>
     <row r="66">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1295.2</v>
+        <v>1276.93</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1243.35</v>
+        <v>1286.95</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>944.35</v>
+        <v>942.58</v>
       </c>
     </row>
     <row r="69">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>720.73</v>
+        <v>718.96</v>
       </c>
     </row>
     <row r="70">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1441.15</v>
+        <v>1439.38</v>
       </c>
     </row>
     <row r="71">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1480.7</v>
+        <v>1478.93</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>5330.27</v>
+        <v>5955.15</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>315.14</v>
+        <v>384.87</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>12091.98</v>
+        <v>13632.4</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>504.29</v>
+        <v>752.35</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>697.65</v>
+        <v>854.6</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>7650.83</v>
+        <v>8557.450000000001</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1510.79</v>
+        <v>1731.62</v>
       </c>
     </row>
     <row r="79">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="80">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>272.31</v>
+        <v>360.49</v>
       </c>
     </row>
     <row r="86">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3986.61</v>
+        <v>5310.47</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>8870.76</v>
+        <v>10017.1</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>8615.120000000001</v>
+        <v>10420.14</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>898.15</v>
+        <v>1027.6</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>7799.57</v>
+        <v>8669.33</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1176.32</v>
+        <v>1339.61</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>17226.34</v>
+        <v>19445.54</v>
       </c>
     </row>
     <row r="107">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6.85</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="109">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1982.75</v>
+        <v>1983.21</v>
       </c>
     </row>
     <row r="110">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>36.9</v>
+        <v>38.83</v>
       </c>
     </row>
     <row r="111">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>31.46</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="113">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1478.73</v>
+        <v>1479.24</v>
       </c>
     </row>
     <row r="114">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>90.31999999999999</v>
+        <v>153.85</v>
       </c>
     </row>
     <row r="115">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>90.31999999999999</v>
+        <v>153.85</v>
       </c>
     </row>
     <row r="116">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>72.8</v>
+        <v>136.32</v>
       </c>
     </row>
     <row r="117">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>97.55</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="119">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>502.55</v>
+        <v>520.7</v>
       </c>
     </row>
     <row r="120">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>403.55</v>
+        <v>434.08</v>
       </c>
     </row>
     <row r="121">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>420.32</v>
+        <v>450.85</v>
       </c>
     </row>
     <row r="122">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>420.32</v>
+        <v>450.85</v>
       </c>
     </row>
     <row r="123">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>196.55</v>
+        <v>359.08</v>
       </c>
     </row>
     <row r="124">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>584.3</v>
+        <v>592.55</v>
       </c>
     </row>
     <row r="126">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1434.8</v>
+        <v>1452.95</v>
       </c>
     </row>
     <row r="127">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1377.05</v>
+        <v>1374.58</v>
       </c>
     </row>
     <row r="128">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>18.16</v>
+        <v>28.14</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>205.72</v>
+        <v>241.06</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>397.84</v>
+        <v>450.2</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1522.87</v>
+        <v>1730.65</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>246.04</v>
+        <v>277.06</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>843.04</v>
+        <v>995.35</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2047.84</v>
+        <v>2589.76</v>
       </c>
     </row>
     <row r="135">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="138">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1525.44</v>
+        <v>1517.97</v>
       </c>
     </row>
     <row r="143">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2091.03</v>
+        <v>2083.55</v>
       </c>
     </row>
     <row r="144">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>2413.84</v>
+        <v>2443.74</v>
       </c>
     </row>
     <row r="145">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2253.74</v>
+        <v>2246.27</v>
       </c>
     </row>
     <row r="148">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3183.98</v>
+        <v>3176.51</v>
       </c>
     </row>
     <row r="149">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1343.44</v>
+        <v>1335.97</v>
       </c>
     </row>
     <row r="150">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1659.19</v>
+        <v>1651.72</v>
       </c>
     </row>
     <row r="151">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1744.62</v>
+        <v>1774.52</v>
       </c>
     </row>
     <row r="152">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1750.11</v>
+        <v>1742.64</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2672.35</v>
+        <v>2664.87</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>8744</v>
+        <v>9677.5</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1485.76</v>
+        <v>1762.3</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>895.76</v>
+        <v>1007.7</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>335.34</v>
+        <v>377.2</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1685</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3656</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>7902</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="163">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>106.37</v>
+        <v>102.24</v>
       </c>
     </row>
     <row r="171">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>93.98999999999999</v>
+        <v>89.87</v>
       </c>
     </row>
     <row r="172">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>83.27</v>
+        <v>95.64</v>
       </c>
     </row>
     <row r="173">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>116.27</v>
+        <v>112.14</v>
       </c>
     </row>
     <row r="177">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>106.37</v>
+        <v>102.24</v>
       </c>
     </row>
     <row r="178">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>93.98999999999999</v>
+        <v>89.87</v>
       </c>
     </row>
     <row r="179">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>83.27</v>
+        <v>95.64</v>
       </c>
     </row>
     <row r="180">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>116.27</v>
+        <v>112.14</v>
       </c>
     </row>
     <row r="184">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>3879.68</v>
+        <v>4888.72</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>11996</v>
+        <v>13674</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1878.75</v>
+        <v>2901.25</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>3768</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>8822.5</v>
+        <v>10531</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>8531</v>
+        <v>10464.5</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>5938.5</v>
+        <v>7965.63</v>
       </c>
     </row>
     <row r="191">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>490.02</v>
+        <v>608.48</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>368.85</v>
+        <v>415.96</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1151.6</v>
+        <v>1281.74</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>46.5</v>
+        <v>51.81</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>673.95</v>
+        <v>772.71</v>
       </c>
     </row>
     <row r="217">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>3073.1</v>
+        <v>3399.89</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>584.4400000000001</v>
+        <v>698.67</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>125.52</v>
+        <v>165.08</v>
       </c>
     </row>
     <row r="220">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>3.42</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="221">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>20.22</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="222">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>177.07</v>
+        <v>221.8</v>
       </c>
     </row>
     <row r="226">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>670.02</v>
+        <v>711.9400000000001</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>40007.14</v>
+        <v>45109.24</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>894.58</v>
+        <v>1194.51</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>630</v>
+        <v>767.3200000000001</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1841.6</v>
+        <v>2108.15</v>
       </c>
     </row>
     <row r="245">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>2714.01</v>
+        <v>3756.05</v>
       </c>
     </row>
     <row r="247">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>19.38</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="254">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>16205.5</v>
+        <v>18514</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>11458.5</v>
+        <v>15275</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>7675.99</v>
+        <v>9256.780000000001</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>4814.5</v>
+        <v>5408.12</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>1132</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="273">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>3434.4</v>
+        <v>3951.34</v>
       </c>
     </row>
     <row r="274">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>4086.7</v>
+        <v>4925.94</v>
       </c>
     </row>
     <row r="275">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>15.54</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="276">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>550.37</v>
+        <v>1166.15</v>
       </c>
     </row>
     <row r="277">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>18.55</v>
+        <v>39.91</v>
       </c>
     </row>
     <row r="278">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0.6</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="279">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1554.4</v>
+        <v>1555.28</v>
       </c>
     </row>
     <row r="282">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>60.78</v>
+        <v>70.68000000000001</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>386.24</v>
+        <v>461.99</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>50.04</v>
+        <v>62.83</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>75.12</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>32.96</v>
+        <v>41.95</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>528</v>
+        <v>710</v>
       </c>
     </row>
     <row r="303">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>2.52</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="306">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>5210.2</v>
+        <v>5445.96</v>
       </c>
     </row>
     <row r="311">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>5271.3</v>
+        <v>5036.8</v>
       </c>
     </row>
     <row r="312">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3877.02</v>
+        <v>5219.13</v>
       </c>
     </row>
     <row r="313">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>4581.81</v>
+        <v>4538.1</v>
       </c>
     </row>
     <row r="314">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>4411.96</v>
+        <v>4368.25</v>
       </c>
     </row>
     <row r="315">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>5222.56</v>
+        <v>5178.86</v>
       </c>
     </row>
     <row r="316">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>5449.15</v>
+        <v>5684.9</v>
       </c>
     </row>
     <row r="317">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>6333.14</v>
+        <v>6560.64</v>
       </c>
     </row>
     <row r="318">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>6401.88</v>
+        <v>6010.64</v>
       </c>
     </row>
     <row r="319">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>4702.36</v>
+        <v>6217.72</v>
       </c>
     </row>
     <row r="320">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>5597.99</v>
+        <v>5554.28</v>
       </c>
     </row>
     <row r="321">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>5353.89</v>
+        <v>5310.18</v>
       </c>
     </row>
     <row r="322">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>6345.66</v>
+        <v>6301.96</v>
       </c>
     </row>
     <row r="323">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>6820.08</v>
+        <v>7047.58</v>
       </c>
     </row>
     <row r="324">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>2771.3</v>
+        <v>3117.63</v>
       </c>
     </row>
     <row r="325">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>688.84</v>
+        <v>944.98</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>264.5</v>
+        <v>297.22</v>
       </c>
     </row>
     <row r="327">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>384.75</v>
+        <v>430.7</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>428.44</v>
+        <v>483.12</v>
       </c>
     </row>
     <row r="330">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>266.1</v>
+        <v>319.78</v>
       </c>
     </row>
     <row r="331">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1.94</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="333">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>11.7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="334">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="335">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>275.3</v>
+        <v>303.93</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>174.7</v>
+        <v>193.05</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>36.9</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>191.2</v>
+        <v>211.2</v>
       </c>
     </row>
     <row r="358">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>20491.6</v>
+        <v>25404.7</v>
       </c>
     </row>
     <row r="381">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>30996.93</v>
+        <v>35867.41</v>
       </c>
     </row>
     <row r="382">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>2512.29</v>
+        <v>2854.82</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>24575.42</v>
+        <v>28479.05</v>
       </c>
     </row>
     <row r="384">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>10742.5</v>
+        <v>13218</v>
       </c>
     </row>
     <row r="385">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>50461.71</v>
+        <v>57365.9</v>
       </c>
     </row>
     <row r="386">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>12343.3</v>
+        <v>15622.68</v>
       </c>
     </row>
     <row r="387">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>10489.1</v>
+        <v>15945.15</v>
       </c>
     </row>
     <row r="389">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>5.54</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>54.16</v>
+        <v>62.67</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>22.47</v>
+        <v>37.51</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>17.2</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="412">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>40.41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>246.1</v>
+        <v>295.12</v>
       </c>
     </row>
     <row r="415">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>905.6900000000001</v>
+        <v>1050.08</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>1759.67</v>
+        <v>1986.26</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>1916.8</v>
+        <v>2165.54</v>
       </c>
     </row>
     <row r="439">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>92.90000000000001</v>
+        <v>103.18</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>111.4</v>
+        <v>129.13</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>3420.2</v>
+        <v>3774.87</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>1251.06</v>
+        <v>1687.44</v>
       </c>
     </row>
     <row r="443">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>519</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="17">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4198</v>
+        <v>21461</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>15679.5</v>
       </c>
     </row>
     <row r="20">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3046</v>
+        <v>54692</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2979.02</v>
+        <v>12352.16</v>
       </c>
     </row>
     <row r="27">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3484.4</v>
+        <v>3324.19</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3090.08</v>
+        <v>2572.21</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3199.24</v>
+        <v>2887.57</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2060.71</v>
+        <v>2325.09</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2595.22</v>
+        <v>2859.6</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3061.72</v>
+        <v>2734.92</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3527.13</v>
+        <v>3366.92</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8821.530000000001</v>
+        <v>8801.120000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6978.06</v>
+        <v>5852.48</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7920.71</v>
+        <v>7167.68</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5946.01</v>
+        <v>6616.01</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7418.21</v>
+        <v>8247.42</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9565.43</v>
+        <v>9537.629999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10513.55</v>
+        <v>10493.14</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>945000</v>
+        <v>1152328.9</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>88416.35000000001</v>
+        <v>114205.4</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>71.84</v>
+        <v>102.63</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>48818</v>
+        <v>76116</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>26.9</v>
+        <v>46.48</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>55237.94</v>
+        <v>73075.5</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>49441.92</v>
+        <v>98183.38</v>
       </c>
     </row>
     <row r="51">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>172331.08</v>
+        <v>206707.58</v>
       </c>
     </row>
     <row r="58">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>885.98</v>
+        <v>787.05</v>
       </c>
     </row>
     <row r="59">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1124.18</v>
+        <v>1173.75</v>
       </c>
     </row>
     <row r="60">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1149.05</v>
+        <v>1363.62</v>
       </c>
     </row>
     <row r="61">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>888.52</v>
+        <v>1164.3</v>
       </c>
     </row>
     <row r="62">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>610.02</v>
+        <v>855.9</v>
       </c>
     </row>
     <row r="63">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1609.28</v>
+        <v>1361.85</v>
       </c>
     </row>
     <row r="64">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1529.48</v>
+        <v>1282.05</v>
       </c>
     </row>
     <row r="65">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1276.93</v>
+        <v>1722.43</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1286.95</v>
+        <v>2128.45</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>942.58</v>
+        <v>1784.08</v>
       </c>
     </row>
     <row r="69">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>718.96</v>
+        <v>867.46</v>
       </c>
     </row>
     <row r="70">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>5955.15</v>
+        <v>7894.54</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>384.87</v>
+        <v>611.08</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>13632.4</v>
+        <v>18325.68</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>752.35</v>
+        <v>2062.37</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>854.6</v>
+        <v>1345.77</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>8557.450000000001</v>
+        <v>1689.51</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1731.62</v>
+        <v>2355.37</v>
       </c>
     </row>
     <row r="79">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>24.5</v>
+        <v>52.52</v>
       </c>
     </row>
     <row r="83">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>28.01</v>
+        <v>35.21</v>
       </c>
     </row>
     <row r="84">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>360.49</v>
+        <v>448.6</v>
       </c>
     </row>
     <row r="86">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>5310.47</v>
+        <v>8287.6</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>10017.1</v>
+        <v>11619.94</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>10420.14</v>
+        <v>16024.05</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1027.6</v>
+        <v>1387.74</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>8669.33</v>
+        <v>12445.83</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1339.61</v>
+        <v>909.47</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>19445.54</v>
+        <v>26203.72</v>
       </c>
     </row>
     <row r="107">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>7.2</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="109">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1983.21</v>
+        <v>1984.63</v>
       </c>
     </row>
     <row r="110">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>38.83</v>
+        <v>62.36</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="112">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>32.1</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="113">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1479.24</v>
+        <v>1487.7</v>
       </c>
     </row>
     <row r="114">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>153.85</v>
+        <v>132.05</v>
       </c>
     </row>
     <row r="115">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>153.85</v>
+        <v>132.05</v>
       </c>
     </row>
     <row r="116">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>136.32</v>
+        <v>139.27</v>
       </c>
     </row>
     <row r="117">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>128.9</v>
+        <v>195.37</v>
       </c>
     </row>
     <row r="118">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>105.8</v>
+        <v>145.87</v>
       </c>
     </row>
     <row r="119">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>520.7</v>
+        <v>559.12</v>
       </c>
     </row>
     <row r="120">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>434.08</v>
+        <v>428.77</v>
       </c>
     </row>
     <row r="121">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>450.85</v>
+        <v>473.6</v>
       </c>
     </row>
     <row r="122">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>450.85</v>
+        <v>518.15</v>
       </c>
     </row>
     <row r="123">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>359.08</v>
+        <v>451.12</v>
       </c>
     </row>
     <row r="124">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>615.65</v>
+        <v>820.72</v>
       </c>
     </row>
     <row r="125">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>592.55</v>
+        <v>726.67</v>
       </c>
     </row>
     <row r="126">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1452.95</v>
+        <v>1511.17</v>
       </c>
     </row>
     <row r="127">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1374.58</v>
+        <v>1389.07</v>
       </c>
     </row>
     <row r="128">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>28.14</v>
+        <v>60.49</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>241.06</v>
+        <v>351.58</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>450.2</v>
+        <v>597.26</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1730.65</v>
+        <v>2434.72</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>277.06</v>
+        <v>386.06</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>995.35</v>
+        <v>1145.94</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2589.76</v>
+        <v>4262.81</v>
       </c>
     </row>
     <row r="135">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.62</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="138">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1517.97</v>
+        <v>1505.4</v>
       </c>
     </row>
     <row r="143">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2083.55</v>
+        <v>2230.48</v>
       </c>
     </row>
     <row r="144">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>2443.74</v>
+        <v>2590.66</v>
       </c>
     </row>
     <row r="145">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2122.86</v>
+        <v>2449.39</v>
       </c>
     </row>
     <row r="146">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1954.6</v>
+        <v>2281.13</v>
       </c>
     </row>
     <row r="147">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2246.27</v>
+        <v>2518.01</v>
       </c>
     </row>
     <row r="148">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3176.51</v>
+        <v>3163.93</v>
       </c>
     </row>
     <row r="149">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1335.97</v>
+        <v>1207.15</v>
       </c>
     </row>
     <row r="150">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1651.72</v>
+        <v>1622.6</v>
       </c>
     </row>
     <row r="151">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1774.52</v>
+        <v>1745.4</v>
       </c>
     </row>
     <row r="152">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1503.14</v>
+        <v>1653.62</v>
       </c>
     </row>
     <row r="153">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1384.64</v>
+        <v>1535.11</v>
       </c>
     </row>
     <row r="154">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1742.64</v>
+        <v>1755.08</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2664.87</v>
+        <v>2536.05</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>9677.5</v>
+        <v>12526.5</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1762.3</v>
+        <v>2599.02</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1007.7</v>
+        <v>1349.86</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>377.2</v>
+        <v>586.23</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2085</v>
+        <v>3569.57</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>4147</v>
+        <v>5687.79</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>8820</v>
+        <v>10668</v>
       </c>
     </row>
     <row r="163">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>102.24</v>
+        <v>110.49</v>
       </c>
     </row>
     <row r="171">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>89.87</v>
+        <v>98.12</v>
       </c>
     </row>
     <row r="172">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>95.64</v>
+        <v>116.27</v>
       </c>
     </row>
     <row r="173">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>99.77</v>
+        <v>120.39</v>
       </c>
     </row>
     <row r="174">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>123.2</v>
+        <v>143.82</v>
       </c>
     </row>
     <row r="175">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>173.14</v>
+        <v>185.51</v>
       </c>
     </row>
     <row r="176">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>112.14</v>
+        <v>120.39</v>
       </c>
     </row>
     <row r="177">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>102.24</v>
+        <v>110.49</v>
       </c>
     </row>
     <row r="178">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>89.87</v>
+        <v>98.12</v>
       </c>
     </row>
     <row r="179">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>95.64</v>
+        <v>116.27</v>
       </c>
     </row>
     <row r="180">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>99.77</v>
+        <v>120.39</v>
       </c>
     </row>
     <row r="181">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>123.2</v>
+        <v>143.82</v>
       </c>
     </row>
     <row r="182">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>173.14</v>
+        <v>185.51</v>
       </c>
     </row>
     <row r="183">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>112.14</v>
+        <v>120.39</v>
       </c>
     </row>
     <row r="184">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>4888.72</v>
+        <v>7796.81</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>13674</v>
+        <v>17842</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2901.25</v>
+        <v>8083.94</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>4508</v>
+        <v>10765.5</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>10531</v>
+        <v>16346.5</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>10464.5</v>
+        <v>16541</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>7965.63</v>
+        <v>13621.93</v>
       </c>
     </row>
     <row r="191">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>608.48</v>
+        <v>975.15</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>415.96</v>
+        <v>538.63</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1281.74</v>
+        <v>1807.89</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>51.81</v>
+        <v>67.76000000000001</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>772.71</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="217">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>3399.89</v>
+        <v>1091.72</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>698.67</v>
+        <v>1075.91</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>165.08</v>
+        <v>204.35</v>
       </c>
     </row>
     <row r="220">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>5.01</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="221">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>22.56</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="222">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>22</v>
+        <v>29.53</v>
       </c>
     </row>
     <row r="224">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>221.8</v>
+        <v>224.93</v>
       </c>
     </row>
     <row r="226">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>711.9400000000001</v>
+        <v>973.39</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>45109.24</v>
+        <v>66372.5</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1194.51</v>
+        <v>2077.26</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>767.3200000000001</v>
+        <v>7439.46</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>2108.15</v>
+        <v>2745.36</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>453</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>3756.05</v>
+        <v>6837.73</v>
       </c>
     </row>
     <row r="247">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>26.16</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="254">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>18514</v>
+        <v>25416</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>15275</v>
+        <v>26674.5</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>9256.780000000001</v>
+        <v>14508.19</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>5408.12</v>
+        <v>7266.04</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>1326</v>
+        <v>7103.92</v>
       </c>
     </row>
     <row r="273">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>3951.34</v>
+        <v>3910.32</v>
       </c>
     </row>
     <row r="274">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>4925.94</v>
+        <v>7323.47</v>
       </c>
     </row>
     <row r="275">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>19.18</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="276">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1166.15</v>
+        <v>2300.93</v>
       </c>
     </row>
     <row r="277">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>39.91</v>
+        <v>78.27</v>
       </c>
     </row>
     <row r="278">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0.91</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="279">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>4.8</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="280">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="281">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1555.28</v>
+        <v>1556.09</v>
       </c>
     </row>
     <row r="282">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>70.68000000000001</v>
+        <v>101.54</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>461.99</v>
+        <v>690.23</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>11.24</v>
+        <v>55.12</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>62.83</v>
+        <v>92.93000000000001</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>78.97</v>
+        <v>44.05</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>41.95</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>710</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="303">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>5.38</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="306">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>5445.96</v>
+        <v>5158.82</v>
       </c>
     </row>
     <row r="311">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>5036.8</v>
+        <v>4757.92</v>
       </c>
     </row>
     <row r="312">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>5219.13</v>
+        <v>4907.25</v>
       </c>
     </row>
     <row r="313">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>4538.1</v>
+        <v>5003.09</v>
       </c>
     </row>
     <row r="314">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>4368.25</v>
+        <v>4716.67</v>
       </c>
     </row>
     <row r="315">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>5178.86</v>
+        <v>5296.48</v>
       </c>
     </row>
     <row r="316">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>5684.9</v>
+        <v>5678.27</v>
       </c>
     </row>
     <row r="317">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>6560.64</v>
+        <v>6353.87</v>
       </c>
     </row>
     <row r="318">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>6010.64</v>
+        <v>5822.02</v>
       </c>
     </row>
     <row r="319">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>6217.72</v>
+        <v>5996.1</v>
       </c>
     </row>
     <row r="320">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>5554.28</v>
+        <v>6307.54</v>
       </c>
     </row>
     <row r="321">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>5310.18</v>
+        <v>5917.17</v>
       </c>
     </row>
     <row r="322">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>6301.96</v>
+        <v>6528.48</v>
       </c>
     </row>
     <row r="323">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>7047.58</v>
+        <v>7220.32</v>
       </c>
     </row>
     <row r="324">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>3117.63</v>
+        <v>4161.88</v>
       </c>
     </row>
     <row r="325">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>944.98</v>
+        <v>1650.33</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>297.22</v>
+        <v>372.19</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>430.7</v>
+        <v>531.65</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>483.12</v>
+        <v>211.4</v>
       </c>
     </row>
     <row r="330">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>319.78</v>
+        <v>447.54</v>
       </c>
     </row>
     <row r="331">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>3.03</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="333">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>14</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="334">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1.62</v>
+        <v>18.35</v>
       </c>
     </row>
     <row r="335">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>303.93</v>
+        <v>388.78</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>193.05</v>
+        <v>251.58</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>41.03</v>
+        <v>49.53</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>211.2</v>
+        <v>251.16</v>
       </c>
     </row>
     <row r="358">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>25404.7</v>
+        <v>43052.55</v>
       </c>
     </row>
     <row r="381">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>35867.41</v>
+        <v>51060.53</v>
       </c>
     </row>
     <row r="382">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>2854.82</v>
+        <v>5225.63</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>28479.05</v>
+        <v>38653.17</v>
       </c>
     </row>
     <row r="384">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>13218</v>
+        <v>19776.5</v>
       </c>
     </row>
     <row r="385">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>57365.9</v>
+        <v>77871.7</v>
       </c>
     </row>
     <row r="386">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>15622.68</v>
+        <v>26571.96</v>
       </c>
     </row>
     <row r="387">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>15945.15</v>
+        <v>21312.6</v>
       </c>
     </row>
     <row r="389">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>8.4</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>62.67</v>
+        <v>87.84</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>37.51</v>
+        <v>86.41</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>19.14</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>45</v>
+        <v>62.14</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>295.12</v>
+        <v>422.22</v>
       </c>
     </row>
     <row r="415">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>1050.08</v>
+        <v>1467.05</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>1986.26</v>
+        <v>3110.49</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>2165.54</v>
+        <v>3046.84</v>
       </c>
     </row>
     <row r="439">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>103.18</v>
+        <v>135.94</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>129.13</v>
+        <v>174.51</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>3774.87</v>
+        <v>4479.82</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>1687.44</v>
+        <v>3114.72</v>
       </c>
     </row>
     <row r="443">
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="449">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Partido o Movimiento Político</t>
+          <t>Binomio Presidencial</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3324.19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2572.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2887.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -532,13 +532,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.38</v>
+        <v>2325.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.38</v>
+        <v>2859.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.38</v>
+        <v>2734.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.38</v>
+        <v>3366.92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8801.120000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>5852.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7167.68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12.38</v>
+        <v>6616.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.38</v>
+        <v>8247.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12.38</v>
+        <v>9537.629999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12.38</v>
+        <v>10493.14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -752,13 +752,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1500</v>
+        <v>1152328.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>114205.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21461</v>
+        <v>102.63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15679.5</v>
+        <v>76116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>46.48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>73075.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>54692</v>
+        <v>98183.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -918,7 +918,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -932,13 +932,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>16688.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -952,13 +952,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12352.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -978,7 +978,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -992,13 +992,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7757.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>206707.58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3324.19</v>
+        <v>787.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1052,13 +1052,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2572.21</v>
+        <v>1173.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2887.57</v>
+        <v>1363.62</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2325.09</v>
+        <v>1164.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2859.6</v>
+        <v>855.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2734.92</v>
+        <v>1361.85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3366.92</v>
+        <v>1282.05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8801.120000000001</v>
+        <v>949.76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1192,13 +1192,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5852.48</v>
+        <v>1722.43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7167.68</v>
+        <v>2128.45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1232,13 +1232,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6616.01</v>
+        <v>1784.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>8247.42</v>
+        <v>867.46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9537.629999999999</v>
+        <v>1439.38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10493.14</v>
+        <v>1478.93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1152328.9</v>
+        <v>7894.54</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>114205.4</v>
+        <v>611.08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1352,13 +1352,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>102.63</v>
+        <v>18325.68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1372,13 +1372,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>76116</v>
+        <v>2062.37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>46.48</v>
+        <v>1345.77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1412,13 +1412,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>73075.5</v>
+        <v>1689.51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1432,13 +1432,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>98183.38</v>
+        <v>2355.37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1492,13 +1492,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>52.52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>35.21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1552,13 +1552,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>62.88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>206707.58</v>
+        <v>448.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1592,13 +1592,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>787.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1173.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1632,13 +1632,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1363.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1164.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1672,13 +1672,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>855.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1692,13 +1692,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1361.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1712,13 +1712,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1282.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>949.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1722.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1772,13 +1772,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2128.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1792,13 +1792,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1784.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1812,13 +1812,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>867.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1832,13 +1832,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1439.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1478.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>7894.54</v>
+        <v>25416</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1892,13 +1892,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>611.08</v>
+        <v>26674.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1912,13 +1912,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>18325.68</v>
+        <v>14508.19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1932,13 +1932,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2062.37</v>
+        <v>7266.04</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1345.77</v>
+        <v>7103.92</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1972,13 +1972,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1689.51</v>
+        <v>3910.32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1992,13 +1992,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2355.37</v>
+        <v>7323.47</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2012,13 +2012,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.5</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2032,13 +2032,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4.9</v>
+        <v>2300.93</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2052,13 +2052,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>20.7</v>
+        <v>78.27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>52.52</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2092,13 +2092,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>35.21</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2112,13 +2112,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>62.88</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2132,13 +2132,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>448.6</v>
+        <v>1556.09</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2158,7 +2158,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2178,7 +2178,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2218,7 +2218,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2238,7 +2238,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2258,7 +2258,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2278,7 +2278,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2298,7 +2298,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2318,7 +2318,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2338,7 +2338,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2358,7 +2358,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2378,7 +2378,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2398,7 +2398,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2418,7 +2418,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2438,7 +2438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2478,7 +2478,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2498,7 +2498,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2518,7 +2518,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2538,7 +2538,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2678,7 +2678,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2698,7 +2698,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2718,7 +2718,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2738,7 +2738,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2758,7 +2758,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2778,7 +2778,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2798,7 +2798,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2818,7 +2818,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2838,7 +2838,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2858,7 +2858,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2898,7 +2898,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2918,7 +2918,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2938,7 +2938,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2958,7 +2958,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2978,7 +2978,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2998,7 +2998,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3018,7 +3018,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3038,7 +3038,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3058,7 +3058,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3078,7 +3078,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3118,7 +3118,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3138,7 +3138,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3158,7 +3158,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3178,7 +3178,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3198,7 +3198,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3218,7 +3218,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3238,7 +3238,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3278,7 +3278,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3298,7 +3298,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3338,7 +3338,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3358,7 +3358,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3378,7 +3378,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3398,7 +3398,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3418,7 +3418,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3438,7 +3438,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3458,7 +3458,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3478,7 +3478,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3498,7 +3498,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3518,7 +3518,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3538,7 +3538,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3558,7 +3558,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3578,7 +3578,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3598,7 +3598,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3618,7 +3618,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3638,7 +3638,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3658,7 +3658,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3678,7 +3678,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3698,7 +3698,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3718,7 +3718,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3738,7 +3738,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3758,7 +3758,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3778,7 +3778,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3798,7 +3798,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3818,7 +3818,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>110.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3852,13 +3852,13 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>98.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3872,13 +3872,13 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>116.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3892,13 +3892,13 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>120.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3912,13 +3912,13 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>143.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>185.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3952,13 +3952,13 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>120.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3972,13 +3972,13 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>110.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>98.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4012,13 +4012,13 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>116.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4032,13 +4032,13 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>120.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>143.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4072,13 +4072,13 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>185.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>120.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4112,13 +4112,13 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>7796.81</v>
+        <v>975.15</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>17842</v>
+        <v>538.63</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>8083.94</v>
+        <v>1807.89</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4172,13 +4172,13 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>10765.5</v>
+        <v>67.76000000000001</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4192,13 +4192,13 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>16346.5</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4212,13 +4212,13 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>16541</v>
+        <v>1091.72</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4232,13 +4232,13 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>13621.93</v>
+        <v>1075.91</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>204.35</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4272,13 +4272,13 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4292,13 +4292,13 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4318,7 +4318,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4332,13 +4332,13 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>29.53</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4352,13 +4352,13 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2841.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>224.93</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4398,7 +4398,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4418,7 +4418,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4438,7 +4438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4458,7 +4458,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4478,7 +4478,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4498,7 +4498,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4518,7 +4518,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4538,7 +4538,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4558,7 +4558,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4578,7 +4578,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4598,7 +4598,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4618,7 +4618,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4638,7 +4638,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4658,7 +4658,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4672,13 +4672,13 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>975.15</v>
+        <v>101.54</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4692,13 +4692,13 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>538.63</v>
+        <v>690.23</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4712,13 +4712,13 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1807.89</v>
+        <v>55.12</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4732,13 +4732,13 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>67.76000000000001</v>
+        <v>92.93000000000001</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4752,13 +4752,13 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1092</v>
+        <v>44.05</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4772,13 +4772,13 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1091.72</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4792,13 +4792,13 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1075.91</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>204.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4832,13 +4832,13 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>8.380000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>28.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4878,7 +4878,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4892,13 +4892,13 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>29.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4912,13 +4912,13 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4932,13 +4932,13 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>224.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4952,13 +4952,13 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>110.49</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4972,13 +4972,13 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>98.12</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4992,13 +4992,13 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>116.27</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5012,13 +5012,13 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>120.39</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>143.82</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5052,13 +5052,13 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>185.51</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5072,13 +5072,13 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>120.39</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5092,13 +5092,13 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>110.49</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5112,13 +5112,13 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>98.12</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5132,13 +5132,13 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>116.27</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5152,13 +5152,13 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>120.39</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5172,13 +5172,13 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>143.82</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5192,13 +5192,13 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>185.51</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5212,13 +5212,13 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>120.39</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>973.39</v>
+        <v>7796.81</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>66372.5</v>
+        <v>17842</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5272,13 +5272,13 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2077.26</v>
+        <v>8083.94</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5292,13 +5292,13 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>7439.46</v>
+        <v>10765.5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5312,13 +5312,13 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>2745.36</v>
+        <v>16346.5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5332,13 +5332,13 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>453</v>
+        <v>16541</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5352,13 +5352,13 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>6837.73</v>
+        <v>13621.93</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5378,7 +5378,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5398,7 +5398,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5418,7 +5418,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5438,7 +5438,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5458,7 +5458,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>2841.33</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5492,13 +5492,13 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>32.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5518,7 +5518,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5538,7 +5538,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5558,7 +5558,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -5578,7 +5578,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5598,7 +5598,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5618,7 +5618,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -5638,7 +5638,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5658,7 +5658,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -5678,7 +5678,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -5698,7 +5698,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5718,7 +5718,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5738,7 +5738,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5758,7 +5758,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -5778,7 +5778,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -5792,13 +5792,13 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>25416</v>
+        <v>973.39</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5812,13 +5812,13 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>26674.5</v>
+        <v>66372.5</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>14508.19</v>
+        <v>2077.26</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5852,13 +5852,13 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>7266.04</v>
+        <v>7439.46</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -5872,13 +5872,13 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>7103.92</v>
+        <v>2745.36</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -5892,13 +5892,13 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>3910.32</v>
+        <v>453</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>7323.47</v>
+        <v>6837.73</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>22.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -5952,13 +5952,13 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>2300.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>78.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -5992,13 +5992,13 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6012,13 +6012,13 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>12.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6032,13 +6032,13 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6052,13 +6052,13 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1556.09</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>5158.82</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6092,13 +6092,13 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>4757.92</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6112,13 +6112,13 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>4907.25</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>5003.09</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6152,13 +6152,13 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>4716.67</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6172,13 +6172,13 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>5296.48</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6192,13 +6192,13 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>5678.27</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6212,13 +6212,13 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>6353.87</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>0</v>
+        <v>5822.02</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6252,13 +6252,13 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>0</v>
+        <v>5996.1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6272,13 +6272,13 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>6307.54</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6292,13 +6292,13 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>5917.17</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>6528.48</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6332,13 +6332,13 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>7220.32</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>101.54</v>
+        <v>4161.88</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>690.23</v>
+        <v>1650.33</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6392,13 +6392,13 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>55.12</v>
+        <v>372.19</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -6412,13 +6412,13 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>92.93000000000001</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>44.05</v>
+        <v>531.65</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -6452,13 +6452,13 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>70.40000000000001</v>
+        <v>211.4</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1086</v>
+        <v>447.54</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -6498,7 +6498,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -6512,13 +6512,13 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -6532,13 +6532,13 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>11.4</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>18.35</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -6592,13 +6592,13 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -6612,13 +6612,13 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>230.35</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -6632,13 +6632,13 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>5158.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -6652,13 +6652,13 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>4757.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>4907.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -6692,13 +6692,13 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>5003.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -6712,13 +6712,13 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>4716.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>5296.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -6752,13 +6752,13 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>5678.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -6772,13 +6772,13 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>6353.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>5822.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -6812,13 +6812,13 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>5996.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>6307.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>5917.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -6872,13 +6872,13 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>6528.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -6892,13 +6892,13 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>7220.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>4161.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -6932,13 +6932,13 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>1650.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -6952,13 +6952,13 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>372.19</v>
+        <v>388.78</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>15.04</v>
+        <v>251.58</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>531.65</v>
+        <v>49.53</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>211.4</v>
+        <v>251.16</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7032,13 +7032,13 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>447.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7058,7 +7058,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7072,13 +7072,13 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7092,13 +7092,13 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>20.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7112,13 +7112,13 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>18.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>5.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7172,13 +7172,13 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>230.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7198,7 +7198,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7218,7 +7218,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7238,7 +7238,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7258,7 +7258,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7278,7 +7278,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -7298,7 +7298,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -7318,7 +7318,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -7338,7 +7338,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -7358,7 +7358,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -7378,7 +7378,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -7398,7 +7398,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -7418,7 +7418,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -7438,7 +7438,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -7458,7 +7458,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -7472,13 +7472,13 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>43052.55</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -7492,13 +7492,13 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>0</v>
+        <v>51060.53</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -7512,13 +7512,13 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>388.78</v>
+        <v>5225.63</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -7532,13 +7532,13 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>251.58</v>
+        <v>38653.17</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>49.53</v>
+        <v>19776.5</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -7572,13 +7572,13 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>251.16</v>
+        <v>77871.7</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -7592,13 +7592,13 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>0</v>
+        <v>26571.96</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -7618,7 +7618,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -7632,13 +7632,13 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>0</v>
+        <v>21312.6</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -7652,13 +7652,13 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -7678,7 +7678,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -7698,7 +7698,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -7718,7 +7718,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -7738,7 +7738,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -7758,7 +7758,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -7778,7 +7778,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -7798,7 +7798,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -7812,13 +7812,13 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>0</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -7832,13 +7832,13 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -7852,13 +7852,13 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>0</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -7898,7 +7898,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -7918,7 +7918,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -7938,7 +7938,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -7952,13 +7952,13 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>0</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -7972,13 +7972,13 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>0</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -7992,13 +7992,13 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>0</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -8012,13 +8012,13 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>0</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -8032,13 +8032,13 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>43052.55</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -8052,13 +8052,13 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>51060.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -8072,13 +8072,13 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>5225.63</v>
+        <v>21461</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -8092,13 +8092,13 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>38653.17</v>
+        <v>15679.5</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>19776.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -8132,13 +8132,13 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>77871.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -8152,13 +8152,13 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>26571.96</v>
+        <v>54692</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -8172,13 +8172,13 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -8192,13 +8192,13 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>21312.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -8212,13 +8212,13 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>16688.2</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -8232,13 +8232,13 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>0</v>
+        <v>12352.16</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -8258,7 +8258,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -8272,13 +8272,13 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>0</v>
+        <v>7757.47</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -8298,7 +8298,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -8318,7 +8318,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -8338,7 +8338,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -8358,7 +8358,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -8378,7 +8378,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -8398,7 +8398,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -8418,7 +8418,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -8438,7 +8438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -8458,7 +8458,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -8478,7 +8478,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -8498,7 +8498,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -8518,7 +8518,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -8538,7 +8538,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -8558,7 +8558,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -8578,7 +8578,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -8598,7 +8598,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -8618,7 +8618,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -8638,7 +8638,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -8658,7 +8658,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -8678,7 +8678,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -8698,7 +8698,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -8718,7 +8718,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -8738,7 +8738,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -8758,7 +8758,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -8778,7 +8778,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -8798,7 +8798,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -8818,7 +8818,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -8838,7 +8838,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -8858,7 +8858,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -8878,7 +8878,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -8898,7 +8898,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -8918,7 +8918,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -8938,7 +8938,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -8958,7 +8958,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -8978,7 +8978,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -8998,7 +8998,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -9018,7 +9018,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -9038,7 +9038,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -9058,7 +9058,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -9078,7 +9078,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -9098,7 +9098,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -9118,7 +9118,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -9138,7 +9138,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -9158,7 +9158,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -9178,7 +9178,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -9198,7 +9198,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -9218,7 +9218,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -9238,7 +9238,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -9258,7 +9258,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -9278,7 +9278,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -9298,7 +9298,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -9318,7 +9318,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -9338,7 +9338,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -9358,7 +9358,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -9378,7 +9378,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -9398,7 +9398,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3324.19</v>
+        <v>3572.71</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2572.21</v>
+        <v>3069.16</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2887.57</v>
+        <v>3417.78</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2325.09</v>
+        <v>3229.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2859.6</v>
+        <v>3764.3</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2734.92</v>
+        <v>3639.63</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3366.92</v>
+        <v>4271.63</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8801.120000000001</v>
+        <v>9049.639999999999</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5852.48</v>
+        <v>6765.27</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7167.68</v>
+        <v>8113.72</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6616.01</v>
+        <v>8636.049999999999</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8247.42</v>
+        <v>10167.79</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9537.629999999999</v>
+        <v>11458.01</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10493.14</v>
+        <v>12712.51</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1152328.9</v>
+        <v>1261328.9</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>114205.4</v>
+        <v>124601.9</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>102.63</v>
+        <v>113.16</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>76116</v>
+        <v>90115</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>46.48</v>
+        <v>53.73</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>73075.5</v>
+        <v>79308.5</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>98183.38</v>
+        <v>108841.35</v>
       </c>
     </row>
     <row r="23">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7894.54</v>
+        <v>8449.07</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>611.08</v>
+        <v>663.97</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>18325.68</v>
+        <v>19772.44</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2062.37</v>
+        <v>2430.83</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1345.77</v>
+        <v>1592.86</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1689.51</v>
+        <v>1864.03</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2355.37</v>
+        <v>2558.08</v>
       </c>
     </row>
     <row r="51">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>52.52</v>
+        <v>62.22</v>
       </c>
     </row>
     <row r="55">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>35.21</v>
+        <v>38.09</v>
       </c>
     </row>
     <row r="56">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25416</v>
+        <v>28894.5</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>26674.5</v>
+        <v>30614</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>14508.19</v>
+        <v>16121.19</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7266.04</v>
+        <v>7847.59</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>7103.92</v>
+        <v>10678</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3910.32</v>
+        <v>4409.92</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7323.47</v>
+        <v>8404.35</v>
       </c>
     </row>
     <row r="79">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>12.99</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="84">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.61</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1556.09</v>
+        <v>1557.34</v>
       </c>
     </row>
     <row r="86">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>8287.6</v>
+        <v>9554.969999999999</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>11619.94</v>
+        <v>12753.35</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>16024.05</v>
+        <v>17526.95</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1387.74</v>
+        <v>1510.65</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>12445.83</v>
+        <v>13847.61</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>909.47</v>
+        <v>1057.45</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>26203.72</v>
+        <v>28642.02</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>82.7</v>
+        <v>86.70999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>62.36</v>
+        <v>68.22</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>5.49</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="112">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>38.2</v>
+        <v>41.76</v>
       </c>
     </row>
     <row r="113">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1487.7</v>
+        <v>1525.32</v>
       </c>
     </row>
     <row r="114">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>139.27</v>
+        <v>134.32</v>
       </c>
     </row>
     <row r="117">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>195.37</v>
+        <v>190.42</v>
       </c>
     </row>
     <row r="118">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>145.87</v>
+        <v>140.92</v>
       </c>
     </row>
     <row r="119">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>559.12</v>
+        <v>554.17</v>
       </c>
     </row>
     <row r="120">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>428.77</v>
+        <v>448.57</v>
       </c>
     </row>
     <row r="121">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>451.12</v>
+        <v>446.17</v>
       </c>
     </row>
     <row r="124">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>820.72</v>
+        <v>815.77</v>
       </c>
     </row>
     <row r="125">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>726.67</v>
+        <v>721.72</v>
       </c>
     </row>
     <row r="126">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1511.17</v>
+        <v>1506.22</v>
       </c>
     </row>
     <row r="127">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1389.07</v>
+        <v>1408.87</v>
       </c>
     </row>
     <row r="128">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>60.49</v>
+        <v>69.11</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>351.58</v>
+        <v>389.66</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>597.26</v>
+        <v>653.46</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2434.72</v>
+        <v>2666.95</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>386.06</v>
+        <v>422.79</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1145.94</v>
+        <v>1205.75</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>4262.81</v>
+        <v>4368.01</v>
       </c>
     </row>
     <row r="135">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2449.39</v>
+        <v>2636.76</v>
       </c>
     </row>
     <row r="146">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2281.13</v>
+        <v>2601.67</v>
       </c>
     </row>
     <row r="147">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2518.01</v>
+        <v>2838.55</v>
       </c>
     </row>
     <row r="148">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3163.93</v>
+        <v>3484.48</v>
       </c>
     </row>
     <row r="149">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1653.62</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="153">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1535.11</v>
+        <v>1855.65</v>
       </c>
     </row>
     <row r="154">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1755.08</v>
+        <v>2075.62</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2536.05</v>
+        <v>2856.59</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>12526.5</v>
+        <v>12588.03</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2599.02</v>
+        <v>2689.44</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1349.86</v>
+        <v>1361.58</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>586.23</v>
+        <v>663.1799999999999</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3569.57</v>
+        <v>4086.24</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>5687.79</v>
+        <v>6234.37</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>10668</v>
+        <v>11592.9</v>
       </c>
     </row>
     <row r="163">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.15</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="170">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>975.15</v>
+        <v>1085.33</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>538.63</v>
+        <v>576.9</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1807.89</v>
+        <v>1982.09</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>67.76000000000001</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1092</v>
+        <v>1158.3</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1091.72</v>
+        <v>1518.72</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1075.91</v>
+        <v>1160.19</v>
       </c>
     </row>
     <row r="191">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>204.35</v>
+        <v>205.29</v>
       </c>
     </row>
     <row r="192">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>29.53</v>
+        <v>32.52</v>
       </c>
     </row>
     <row r="196">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>224.93</v>
+        <v>229.07</v>
       </c>
     </row>
     <row r="198">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>101.54</v>
+        <v>112.18</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>690.23</v>
+        <v>769.35</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>55.12</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>92.93000000000001</v>
+        <v>103.32</v>
       </c>
     </row>
     <row r="216">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>70.40000000000001</v>
+        <v>80.28</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1086</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="219">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>116.27</v>
+        <v>113.79</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>120.39</v>
+        <v>117.92</v>
       </c>
     </row>
     <row r="230">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>143.82</v>
+        <v>141.35</v>
       </c>
     </row>
     <row r="231">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>185.51</v>
+        <v>183.04</v>
       </c>
     </row>
     <row r="232">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>120.39</v>
+        <v>130.29</v>
       </c>
     </row>
     <row r="233">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>116.27</v>
+        <v>113.79</v>
       </c>
     </row>
     <row r="236">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>120.39</v>
+        <v>117.92</v>
       </c>
     </row>
     <row r="237">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>143.82</v>
+        <v>141.35</v>
       </c>
     </row>
     <row r="238">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>185.51</v>
+        <v>183.04</v>
       </c>
     </row>
     <row r="239">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>120.39</v>
+        <v>130.29</v>
       </c>
     </row>
     <row r="240">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>7796.81</v>
+        <v>8681.9</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>17842</v>
+        <v>19482</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>8083.94</v>
+        <v>9582.33</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>10765.5</v>
+        <v>13632</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>16346.5</v>
+        <v>18242.5</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>16541</v>
+        <v>17135</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>13621.93</v>
+        <v>15834.3</v>
       </c>
     </row>
     <row r="247">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>973.39</v>
+        <v>1012.38</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>66372.5</v>
+        <v>71963.08</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>2077.26</v>
+        <v>2473.08</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>7439.46</v>
+        <v>10419.89</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2745.36</v>
+        <v>2906.59</v>
       </c>
     </row>
     <row r="273">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>6837.73</v>
+        <v>7058.07</v>
       </c>
     </row>
     <row r="275">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>4161.88</v>
+        <v>4522.98</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>1650.33</v>
+        <v>1918.7</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>372.19</v>
+        <v>403.13</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>15.04</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>531.65</v>
+        <v>581.91</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>211.4</v>
+        <v>241.74</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>447.54</v>
+        <v>600.49</v>
       </c>
     </row>
     <row r="303">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="304">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>18.35</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="307">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>388.78</v>
+        <v>417.3</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>251.58</v>
+        <v>270.45</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>49.53</v>
+        <v>53.62</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>251.16</v>
+        <v>271.74</v>
       </c>
     </row>
     <row r="330">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>43052.55</v>
+        <v>49622.99</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>51060.53</v>
+        <v>51713.44</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>5225.63</v>
+        <v>5487.92</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>38653.17</v>
+        <v>43001.02</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>19776.5</v>
+        <v>22716</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>77871.7</v>
+        <v>84807.31</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>26571.96</v>
+        <v>28471.55</v>
       </c>
     </row>
     <row r="359">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>1500</v>
+        <v>1921.5</v>
       </c>
     </row>
     <row r="381">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>21461</v>
+        <v>27277</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>15679.5</v>
+        <v>20682.5</v>
       </c>
     </row>
     <row r="384">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>54692</v>
+        <v>62261</v>
       </c>
     </row>
     <row r="387">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>87.84</v>
+        <v>96.27</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>86.41</v>
+        <v>100.38</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>25.68</v>
+        <v>28.94</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>6.04</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>62.14</v>
+        <v>72.02</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>422.22</v>
+        <v>467.6</v>
       </c>
     </row>
     <row r="415">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>1467.05</v>
+        <v>1586.89</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>3110.49</v>
+        <v>3404.63</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>3046.84</v>
+        <v>3388.73</v>
       </c>
     </row>
     <row r="439">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>135.94</v>
+        <v>146.7</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>174.51</v>
+        <v>194.66</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>4479.82</v>
+        <v>4828.27</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>3114.72</v>
+        <v>3440.92</v>
       </c>
     </row>
     <row r="443">
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="449">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3572.71</v>
+        <v>3870.71</v>
       </c>
     </row>
     <row r="3">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9049.639999999999</v>
+        <v>10642.64</v>
       </c>
     </row>
     <row r="10">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1261328.9</v>
+        <v>1365370.16</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>124601.9</v>
+        <v>134856.7</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>113.16</v>
+        <v>123.37</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>90115</v>
+        <v>98782.5</v>
       </c>
     </row>
     <row r="20">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>79308.5</v>
+        <v>80120.82000000001</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>108841.35</v>
+        <v>119437.35</v>
       </c>
     </row>
     <row r="23">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8449.07</v>
+        <v>9097.620000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>663.97</v>
+        <v>677.16</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>19772.44</v>
+        <v>21373.96</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2430.83</v>
+        <v>2849.16</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1592.86</v>
+        <v>1783.1</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1864.03</v>
+        <v>2022.88</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2558.08</v>
+        <v>2792.31</v>
       </c>
     </row>
     <row r="51">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>28894.5</v>
+        <v>31525.45</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>30614</v>
+        <v>32918</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>16121.19</v>
+        <v>17344</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7847.59</v>
+        <v>8288.4</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>10678</v>
+        <v>13879</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4409.92</v>
+        <v>4891.26</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8404.35</v>
+        <v>8965.879999999999</v>
       </c>
     </row>
     <row r="79">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1557.34</v>
+        <v>1558.55</v>
       </c>
     </row>
     <row r="86">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>9554.969999999999</v>
+        <v>11011.22</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>12753.35</v>
+        <v>14830.06</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>17526.95</v>
+        <v>19129.88</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1510.65</v>
+        <v>1676.89</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>13847.61</v>
+        <v>15417.48</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1057.45</v>
+        <v>1242.03</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>28642.02</v>
+        <v>31346.99</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>86.70999999999999</v>
+        <v>91.18000000000001</v>
       </c>
     </row>
     <row r="108">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>7.86</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="109">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>41.76</v>
+        <v>45.35</v>
       </c>
     </row>
     <row r="113">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1525.32</v>
+        <v>1550.61</v>
       </c>
     </row>
     <row r="114">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>69.11</v>
+        <v>83.05</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>389.66</v>
+        <v>427.69</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>653.46</v>
+        <v>679.26</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2666.95</v>
+        <v>2910.85</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>422.79</v>
+        <v>452.45</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1205.75</v>
+        <v>1354.35</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>4368.01</v>
+        <v>4960.52</v>
       </c>
     </row>
     <row r="135">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>12588.03</v>
+        <v>13630.71</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2689.44</v>
+        <v>2890.7</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1361.58</v>
+        <v>1400.64</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>663.1799999999999</v>
+        <v>742.95</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4086.24</v>
+        <v>4222.74</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>6234.37</v>
+        <v>6806.72</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>11592.9</v>
+        <v>12536.96</v>
       </c>
     </row>
     <row r="163">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="165">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="170">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1085.33</v>
+        <v>1185.66</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>576.9</v>
+        <v>680.75</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1982.09</v>
+        <v>2151.42</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>73.05</v>
+        <v>78.23999999999999</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1158.3</v>
+        <v>1330.62</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1518.72</v>
+        <v>1858.22</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1160.19</v>
+        <v>1289.89</v>
       </c>
     </row>
     <row r="191">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>205.29</v>
+        <v>206.63</v>
       </c>
     </row>
     <row r="192">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>229.07</v>
+        <v>232.53</v>
       </c>
     </row>
     <row r="198">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>112.18</v>
+        <v>122.64</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>769.35</v>
+        <v>814.92</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>59.85</v>
+        <v>77.42</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>103.32</v>
+        <v>116.72</v>
       </c>
     </row>
     <row r="216">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>80.28</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1274</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="219">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="221">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>8681.9</v>
+        <v>9817.84</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>19482</v>
+        <v>21416.5</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>9582.33</v>
+        <v>11408.16</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>13632</v>
+        <v>16317.5</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>18242.5</v>
+        <v>18626</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>17135</v>
+        <v>18836.5</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>15834.3</v>
+        <v>17117.95</v>
       </c>
     </row>
     <row r="247">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1012.38</v>
+        <v>1106.3</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>71963.08</v>
+        <v>77552.37</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>2473.08</v>
+        <v>2850.4</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>10419.89</v>
+        <v>11205.12</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2906.59</v>
+        <v>3146.78</v>
       </c>
     </row>
     <row r="273">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>7058.07</v>
+        <v>8192.57</v>
       </c>
     </row>
     <row r="275">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>5158.82</v>
+        <v>5403.85</v>
       </c>
     </row>
     <row r="283">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>5003.09</v>
+        <v>5012.99</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>4716.67</v>
+        <v>4961.7</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>5296.48</v>
+        <v>5541.51</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>5678.27</v>
+        <v>5923.29</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6353.87</v>
+        <v>6673.15</v>
       </c>
     </row>
     <row r="290">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>6307.54</v>
+        <v>6317.44</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>5917.17</v>
+        <v>6236.45</v>
       </c>
     </row>
     <row r="294">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>6528.48</v>
+        <v>6847.76</v>
       </c>
     </row>
     <row r="295">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>7220.32</v>
+        <v>7539.59</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>4522.98</v>
+        <v>4871.92</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>1918.7</v>
+        <v>2187.88</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>403.13</v>
+        <v>436.26</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>21.43</v>
+        <v>27.76</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>581.91</v>
+        <v>624.22</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>241.74</v>
+        <v>266.58</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>600.49</v>
+        <v>810.33</v>
       </c>
     </row>
     <row r="303">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="304">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>4.2</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="305">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="325">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>417.3</v>
+        <v>446.4</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>270.45</v>
+        <v>289.12</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>53.62</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>271.74</v>
+        <v>291.45</v>
       </c>
     </row>
     <row r="330">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>49622.99</v>
+        <v>57849.74</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>51713.44</v>
+        <v>57236.49</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>5487.92</v>
+        <v>6597.05</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>43001.02</v>
+        <v>47432.38</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>22716</v>
+        <v>25587</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>84807.31</v>
+        <v>91051.45</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>28471.55</v>
+        <v>32260.94</v>
       </c>
     </row>
     <row r="359">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>1921.5</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="381">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>27277</v>
+        <v>32951</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>20682.5</v>
+        <v>21044</v>
       </c>
     </row>
     <row r="384">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>62261</v>
+        <v>69404</v>
       </c>
     </row>
     <row r="387">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>14.4</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>96.27</v>
+        <v>102.61</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>100.38</v>
+        <v>114.99</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>28.94</v>
+        <v>32.05</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>7.67</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>72.02</v>
+        <v>86.65000000000001</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>467.6</v>
+        <v>507.76</v>
       </c>
     </row>
     <row r="415">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>1586.89</v>
+        <v>1806.95</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>3404.63</v>
+        <v>3689.41</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>3388.73</v>
+        <v>3726.08</v>
       </c>
     </row>
     <row r="439">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>146.7</v>
+        <v>158.4</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>194.66</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>4828.27</v>
+        <v>5196.54</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>3440.92</v>
+        <v>3818.42</v>
       </c>
     </row>
     <row r="443">
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="449">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3870.71</v>
+        <v>3646.96</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3069.16</v>
+        <v>3143.41</v>
       </c>
     </row>
     <row r="4">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10642.64</v>
+        <v>9971.389999999999</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6765.27</v>
+        <v>7687.02</v>
       </c>
     </row>
     <row r="11">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1365370.16</v>
+        <v>1470370.16</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>134856.7</v>
+        <v>144882.08</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>123.37</v>
+        <v>133.56</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>98782.5</v>
+        <v>106380</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>53.73</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80120.82000000001</v>
+        <v>87301.89999999999</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>119437.35</v>
+        <v>130145.44</v>
       </c>
     </row>
     <row r="23">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9097.620000000001</v>
+        <v>9733.73</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>677.16</v>
+        <v>800.46</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>21373.96</v>
+        <v>21530.96</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2849.16</v>
+        <v>3287.86</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1783.1</v>
+        <v>1985.32</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2022.88</v>
+        <v>2178.76</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2792.31</v>
+        <v>2984.87</v>
       </c>
     </row>
     <row r="51">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>31525.45</v>
+        <v>34033.76</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>32918</v>
+        <v>36799.28</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>17344</v>
+        <v>19069.5</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8288.4</v>
+        <v>8730.74</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13879</v>
+        <v>17007.5</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4891.26</v>
+        <v>5311.26</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8965.879999999999</v>
+        <v>9773.67</v>
       </c>
     </row>
     <row r="79">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>78.27</v>
+        <v>78.29000000000001</v>
       </c>
     </row>
     <row r="82">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1.87</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1558.55</v>
+        <v>1559.68</v>
       </c>
     </row>
     <row r="86">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>11011.22</v>
+        <v>12516.23</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>14830.06</v>
+        <v>18291.07</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>19129.88</v>
+        <v>21384.7</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1676.89</v>
+        <v>1842.07</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>15417.48</v>
+        <v>16949.27</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1242.03</v>
+        <v>1445.26</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>31346.99</v>
+        <v>34169.74</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>91.18000000000001</v>
+        <v>95.69</v>
       </c>
     </row>
     <row r="108">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>9.82</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="109">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>45.35</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="113">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1550.61</v>
+        <v>1576.36</v>
       </c>
     </row>
     <row r="114">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>83.05</v>
+        <v>98.27</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>427.69</v>
+        <v>481.48</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>679.26</v>
+        <v>737.91</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2910.85</v>
+        <v>3157.04</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>452.45</v>
+        <v>485.77</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1354.35</v>
+        <v>1449.93</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>4960.52</v>
+        <v>5141.29</v>
       </c>
     </row>
     <row r="135">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>13630.71</v>
+        <v>14606.06</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2890.7</v>
+        <v>3212.66</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1400.64</v>
+        <v>1533.7</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>742.95</v>
+        <v>824.8200000000001</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4222.74</v>
+        <v>4824.8</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>6806.72</v>
+        <v>7391.55</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>12536.96</v>
+        <v>13485.27</v>
       </c>
     </row>
     <row r="163">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="165">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>58.9</v>
+        <v>59.24</v>
       </c>
     </row>
     <row r="166">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.77</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="170">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1185.66</v>
+        <v>1291.77</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>680.75</v>
+        <v>732.71</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2151.42</v>
+        <v>2339.19</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>78.23999999999999</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1330.62</v>
+        <v>1449.7</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1858.22</v>
+        <v>2240.63</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1289.89</v>
+        <v>1453.87</v>
       </c>
     </row>
     <row r="191">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>206.63</v>
+        <v>208.01</v>
       </c>
     </row>
     <row r="192">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>232.53</v>
+        <v>236.21</v>
       </c>
     </row>
     <row r="198">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>122.64</v>
+        <v>136.76</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>814.92</v>
+        <v>874.84</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>77.42</v>
+        <v>93.16</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>116.72</v>
+        <v>130.14</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>44.05</v>
+        <v>47.34</v>
       </c>
     </row>
     <row r="217">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1460</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="219">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0.15</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="221">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>9817.84</v>
+        <v>11086.51</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>21416.5</v>
+        <v>23267</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>11408.16</v>
+        <v>11415.9</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>16317.5</v>
+        <v>17566.5</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>18626</v>
+        <v>20662</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>18836.5</v>
+        <v>21201.5</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>17117.95</v>
+        <v>19188.54</v>
       </c>
     </row>
     <row r="247">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1106.3</v>
+        <v>1209.27</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>77552.37</v>
+        <v>83176.71000000001</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>2850.4</v>
+        <v>3242.46</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>11205.12</v>
+        <v>14286.31</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>3146.78</v>
+        <v>3329.77</v>
       </c>
     </row>
     <row r="273">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>8192.57</v>
+        <v>9265.73</v>
       </c>
     </row>
     <row r="275">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>5403.85</v>
+        <v>5420.35</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>4757.92</v>
+        <v>4774.42</v>
       </c>
     </row>
     <row r="284">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>5923.29</v>
+        <v>5939.79</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6673.15</v>
+        <v>6689.65</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>5822.02</v>
+        <v>5838.52</v>
       </c>
     </row>
     <row r="291">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>7539.59</v>
+        <v>7556.09</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>4871.92</v>
+        <v>5102.17</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2187.88</v>
+        <v>2411.6</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>436.26</v>
+        <v>472.38</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>27.76</v>
+        <v>34.44</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>624.22</v>
+        <v>666.55</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>266.58</v>
+        <v>289.84</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>810.33</v>
+        <v>1014.19</v>
       </c>
     </row>
     <row r="303">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="304">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>5.01</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="305">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>20.65</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="306">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>11.92</v>
+        <v>17.63</v>
       </c>
     </row>
     <row r="325">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>446.4</v>
+        <v>474.64</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>289.12</v>
+        <v>308.89</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>57.6</v>
+        <v>61.92</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>291.45</v>
+        <v>311.68</v>
       </c>
     </row>
     <row r="330">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>57849.74</v>
+        <v>64585.83</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>57236.49</v>
+        <v>62084.45</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>6597.05</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>47432.38</v>
+        <v>51684.7</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>25587</v>
+        <v>28432</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>91051.45</v>
+        <v>94596.94</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>32260.94</v>
+        <v>35747.73</v>
       </c>
     </row>
     <row r="359">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>2324</v>
+        <v>2758.5</v>
       </c>
     </row>
     <row r="381">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>32951</v>
+        <v>38820.5</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>21044</v>
+        <v>28830</v>
       </c>
     </row>
     <row r="384">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>69404</v>
+        <v>75657.5</v>
       </c>
     </row>
     <row r="387">
@@ -8298,7 +8298,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -8318,7 +8318,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -8338,7 +8338,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -8358,7 +8358,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -8378,7 +8378,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -8398,7 +8398,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -8418,7 +8418,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -8438,7 +8438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -8458,7 +8458,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -8478,7 +8478,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -8498,7 +8498,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -8518,7 +8518,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -8538,7 +8538,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -8558,7 +8558,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -8578,7 +8578,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -8592,13 +8592,13 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>19.72</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -8612,13 +8612,13 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>102.61</v>
+        <v>113.36</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>114.99</v>
+        <v>129.02</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -8652,13 +8652,13 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>32.05</v>
+        <v>35.24</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -8672,13 +8672,13 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>9.26</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -8692,13 +8692,13 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>86.65000000000001</v>
+        <v>101.36</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -8712,13 +8712,13 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>507.76</v>
+        <v>560.01</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -8738,7 +8738,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -8758,7 +8758,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -8778,7 +8778,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -8798,7 +8798,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -8818,7 +8818,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -8838,7 +8838,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>1806.95</v>
+        <v>1956.59</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>3689.41</v>
+        <v>3976.2</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>3726.08</v>
+        <v>4008.44</v>
       </c>
     </row>
     <row r="439">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>158.4</v>
+        <v>169.15</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>215.5</v>
+        <v>236.44</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>5196.54</v>
+        <v>5500.42</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>3818.42</v>
+        <v>4170.92</v>
       </c>
     </row>
     <row r="443">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3646.96</v>
+        <v>4553.85</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3143.41</v>
+        <v>4050.3</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3417.78</v>
+        <v>4459.9</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3229.79</v>
+        <v>3259.87</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3764.3</v>
+        <v>4233.98</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3639.63</v>
+        <v>4296.68</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4271.63</v>
+        <v>4953.43</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9971.389999999999</v>
+        <v>11520.33</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7687.02</v>
+        <v>9985.459999999999</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8113.72</v>
+        <v>11168.34</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8636.049999999999</v>
+        <v>8666.129999999999</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10167.79</v>
+        <v>10937.27</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11458.01</v>
+        <v>13039.61</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12712.51</v>
+        <v>14318.87</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1470370.16</v>
+        <v>1576790.7</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>144882.08</v>
+        <v>154759.24</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>133.56</v>
+        <v>1427.06</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>106380</v>
+        <v>115232.5</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60.8</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>87301.89999999999</v>
+        <v>92645.16</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>130145.44</v>
+        <v>140696.05</v>
       </c>
     </row>
     <row r="23">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9733.73</v>
+        <v>10217.11</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>800.46</v>
+        <v>912.98</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>21530.96</v>
+        <v>21678.34</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3287.86</v>
+        <v>3371.05</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1985.32</v>
+        <v>2107.29</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2178.76</v>
+        <v>2324.76</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2984.87</v>
+        <v>3108.23</v>
       </c>
     </row>
     <row r="51">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>20.7</v>
+        <v>24.57</v>
       </c>
     </row>
     <row r="54">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>34033.76</v>
+        <v>36392.1</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>36799.28</v>
+        <v>41110.56</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>19069.5</v>
+        <v>20343.5</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8730.74</v>
+        <v>9263.24</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>17007.5</v>
+        <v>20378.5</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5311.26</v>
+        <v>5745.54</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>9773.67</v>
+        <v>10288.17</v>
       </c>
     </row>
     <row r="79">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>78.29000000000001</v>
+        <v>78.31</v>
       </c>
     </row>
     <row r="82">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>12516.23</v>
+        <v>12768.41</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>18291.07</v>
+        <v>20037.12</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>21384.7</v>
+        <v>23813.57</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1842.07</v>
+        <v>1989.28</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>16949.27</v>
+        <v>17459.01</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1445.26</v>
+        <v>1556.6</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>34169.74</v>
+        <v>34885.09</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>95.69</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="108">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>12.56</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="109">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>68.22</v>
+        <v>72.69</v>
       </c>
     </row>
     <row r="111">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>132.05</v>
+        <v>144.42</v>
       </c>
     </row>
     <row r="115">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>132.05</v>
+        <v>144.42</v>
       </c>
     </row>
     <row r="116">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>134.32</v>
+        <v>146.7</v>
       </c>
     </row>
     <row r="117">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>448.57</v>
+        <v>460.95</v>
       </c>
     </row>
     <row r="121">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>473.6</v>
+        <v>510.72</v>
       </c>
     </row>
     <row r="122">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>518.15</v>
+        <v>555.27</v>
       </c>
     </row>
     <row r="123">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>446.17</v>
+        <v>483.3</v>
       </c>
     </row>
     <row r="124">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1408.87</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="128">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>98.27</v>
+        <v>110.38</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>481.48</v>
+        <v>506.89</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>737.91</v>
+        <v>798.72</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3157.04</v>
+        <v>3343.11</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>485.77</v>
+        <v>515.2</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1449.93</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>5141.29</v>
+        <v>5240.93</v>
       </c>
     </row>
     <row r="135">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>14606.06</v>
+        <v>14767.91</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>3212.66</v>
+        <v>3327.92</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1533.7</v>
+        <v>1558.35</v>
       </c>
     </row>
     <row r="159">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>7391.55</v>
+        <v>7580.05</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>13485.27</v>
+        <v>14396.27</v>
       </c>
     </row>
     <row r="163">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.36</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="165">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>59.24</v>
+        <v>60.68</v>
       </c>
     </row>
     <row r="166">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1.11</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="170">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1291.77</v>
+        <v>1393.87</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>732.71</v>
+        <v>739.16</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2339.19</v>
+        <v>2535.08</v>
       </c>
     </row>
     <row r="187">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1449.7</v>
+        <v>1502.71</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2240.63</v>
+        <v>2623.32</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1453.87</v>
+        <v>1562.52</v>
       </c>
     </row>
     <row r="191">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>208.01</v>
+        <v>209.43</v>
       </c>
     </row>
     <row r="192">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="195">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>136.76</v>
+        <v>152.12</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>874.84</v>
+        <v>937.54</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>93.16</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>130.14</v>
+        <v>143.64</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>47.34</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="217">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>90.2</v>
+        <v>101.53</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1647</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="219">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0.44</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="221">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>110.49</v>
+        <v>147.87</v>
       </c>
     </row>
     <row r="227">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>98.12</v>
+        <v>135.49</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>113.79</v>
+        <v>151.17</v>
       </c>
     </row>
     <row r="229">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>130.29</v>
+        <v>167.67</v>
       </c>
     </row>
     <row r="233">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>110.49</v>
+        <v>147.87</v>
       </c>
     </row>
     <row r="234">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>98.12</v>
+        <v>135.49</v>
       </c>
     </row>
     <row r="235">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>113.79</v>
+        <v>151.17</v>
       </c>
     </row>
     <row r="236">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>130.29</v>
+        <v>167.67</v>
       </c>
     </row>
     <row r="240">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>11086.51</v>
+        <v>12098.73</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>23267</v>
+        <v>23529</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>11415.9</v>
+        <v>13211.74</v>
       </c>
     </row>
     <row r="243">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>21201.5</v>
+        <v>21467</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>19188.54</v>
+        <v>19546.45</v>
       </c>
     </row>
     <row r="247">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1209.27</v>
+        <v>1280.43</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>83176.71000000001</v>
+        <v>83190.73</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>3242.46</v>
+        <v>3598.84</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>14286.31</v>
+        <v>17174.37</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>3329.77</v>
+        <v>3366.56</v>
       </c>
     </row>
     <row r="273">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>9265.73</v>
+        <v>10187.56</v>
       </c>
     </row>
     <row r="275">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>5420.35</v>
+        <v>5482.22</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>4774.42</v>
+        <v>4836.29</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>4907.25</v>
+        <v>4985.62</v>
       </c>
     </row>
     <row r="285">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>5939.79</v>
+        <v>5985.17</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6689.65</v>
+        <v>6776.27</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>5838.52</v>
+        <v>5925.14</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5996.1</v>
+        <v>6099.22</v>
       </c>
     </row>
     <row r="292">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>7556.09</v>
+        <v>7626.22</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>5102.17</v>
+        <v>5451.67</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2411.6</v>
+        <v>2673.51</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>472.38</v>
+        <v>504.09</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>34.44</v>
+        <v>37.74</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>666.55</v>
+        <v>676.36</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>289.84</v>
+        <v>307.85</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1014.19</v>
+        <v>1217.37</v>
       </c>
     </row>
     <row r="303">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="304">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>6.24</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="305">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>21.48</v>
+        <v>22.63</v>
       </c>
     </row>
     <row r="306">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>17.63</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="325">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>3.37</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>474.64</v>
+        <v>504.72</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>308.89</v>
+        <v>333.36</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>61.92</v>
+        <v>66.98</v>
       </c>
     </row>
     <row r="329">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>64585.83</v>
+        <v>70450.50999999999</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>62084.45</v>
+        <v>66568.56</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>7500</v>
+        <v>7899.31</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>51684.7</v>
+        <v>53457.2</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>28432</v>
+        <v>30876.5</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>94596.94</v>
+        <v>97876.72</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>35747.73</v>
+        <v>36681.6</v>
       </c>
     </row>
     <row r="359">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>2758.5</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="381">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>38820.5</v>
+        <v>40222.5</v>
       </c>
     </row>
     <row r="383">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>75657.5</v>
+        <v>75932.5</v>
       </c>
     </row>
     <row r="387">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>25.28</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>113.36</v>
+        <v>125.18</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>129.02</v>
+        <v>140.38</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>35.24</v>
+        <v>36.41</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>12.95</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>101.36</v>
+        <v>111.64</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>560.01</v>
+        <v>578.59</v>
       </c>
     </row>
     <row r="415">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>1956.59</v>
+        <v>2059.69</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>3976.2</v>
+        <v>4260.58</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>4008.44</v>
+        <v>4288.52</v>
       </c>
     </row>
     <row r="439">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>5500.42</v>
+        <v>5591.91</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>4170.92</v>
+        <v>4705.02</v>
       </c>
     </row>
     <row r="443">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="447">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4553.85</v>
+        <v>4490.9</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4050.3</v>
+        <v>3987.34</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4459.9</v>
+        <v>4846.27</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3259.87</v>
+        <v>5156.28</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4233.98</v>
+        <v>4228.53</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4296.68</v>
+        <v>4291.24</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4953.43</v>
+        <v>4952.94</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11520.33</v>
+        <v>11457.37</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9985.459999999999</v>
+        <v>9672.67</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11168.34</v>
+        <v>12552.88</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8666.129999999999</v>
+        <v>13008.21</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10937.27</v>
+        <v>10931.83</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13039.61</v>
+        <v>13034.16</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14318.87</v>
+        <v>14318.37</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1576790.7</v>
+        <v>1576817.55</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>154759.24</v>
+        <v>159775.86</v>
       </c>
     </row>
     <row r="18">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>115232.5</v>
+        <v>115331.5</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>68.2</v>
+        <v>74.88</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>92645.16</v>
+        <v>97804.66</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>140696.05</v>
+        <v>146616.55</v>
       </c>
     </row>
     <row r="23">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>11914.02</v>
       </c>
     </row>
     <row r="27">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10217.11</v>
+        <v>10763.03</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>912.98</v>
+        <v>1062.86</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>21678.34</v>
+        <v>23450.64</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3371.05</v>
+        <v>3807.72</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2107.29</v>
+        <v>2287.64</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2324.76</v>
+        <v>2486.96</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3108.23</v>
+        <v>3251.39</v>
       </c>
     </row>
     <row r="51">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>24.57</v>
+        <v>29.64</v>
       </c>
     </row>
     <row r="54">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>36392.1</v>
+        <v>38321.56</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>41110.56</v>
+        <v>44242.06</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>20343.5</v>
+        <v>22021.79</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9263.24</v>
+        <v>9725.139999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>20378.5</v>
+        <v>23838.5</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5745.54</v>
+        <v>6245.17</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>10288.17</v>
+        <v>10898.24</v>
       </c>
     </row>
     <row r="79">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>78.31</v>
+        <v>78.33</v>
       </c>
     </row>
     <row r="82">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>16.4</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="84">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>12768.41</v>
+        <v>14003.74</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>20037.12</v>
+        <v>21729.04</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>23813.57</v>
+        <v>26104.75</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1989.28</v>
+        <v>2149.99</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>17459.01</v>
+        <v>18455.94</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1556.6</v>
+        <v>1692.67</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>34885.09</v>
+        <v>35710.13</v>
       </c>
     </row>
     <row r="107">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>21.68</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="109">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>72.69</v>
+        <v>87.05</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>7.44</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="112">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>144.42</v>
+        <v>154.32</v>
       </c>
     </row>
     <row r="115">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>144.42</v>
+        <v>154.32</v>
       </c>
     </row>
     <row r="116">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>146.7</v>
+        <v>156.6</v>
       </c>
     </row>
     <row r="117">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>190.42</v>
+        <v>212.7</v>
       </c>
     </row>
     <row r="118">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>460.95</v>
+        <v>458.47</v>
       </c>
     </row>
     <row r="121">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>510.72</v>
+        <v>520.62</v>
       </c>
     </row>
     <row r="122">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>555.27</v>
+        <v>565.17</v>
       </c>
     </row>
     <row r="123">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>483.3</v>
+        <v>493.2</v>
       </c>
     </row>
     <row r="124">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>815.77</v>
+        <v>838.05</v>
       </c>
     </row>
     <row r="125">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1446</v>
+        <v>1443.52</v>
       </c>
     </row>
     <row r="128">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>110.38</v>
+        <v>121.67</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>506.89</v>
+        <v>546.76</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>798.72</v>
+        <v>860.4</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3343.11</v>
+        <v>3383.55</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>515.2</v>
+        <v>527.3200000000001</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1601</v>
+        <v>1682.5</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>5240.93</v>
+        <v>5789.26</v>
       </c>
     </row>
     <row r="135">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1505.4</v>
+        <v>1893.46</v>
       </c>
     </row>
     <row r="143">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2230.48</v>
+        <v>2685.05</v>
       </c>
     </row>
     <row r="144">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>2590.66</v>
+        <v>3045.23</v>
       </c>
     </row>
     <row r="145">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2636.76</v>
+        <v>3091.33</v>
       </c>
     </row>
     <row r="146">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2601.67</v>
+        <v>2780.75</v>
       </c>
     </row>
     <row r="147">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2838.55</v>
+        <v>3017.63</v>
       </c>
     </row>
     <row r="148">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3484.48</v>
+        <v>3872.54</v>
       </c>
     </row>
     <row r="149">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1207.15</v>
+        <v>1595.21</v>
       </c>
     </row>
     <row r="150">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1622.6</v>
+        <v>2077.16</v>
       </c>
     </row>
     <row r="151">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1745.4</v>
+        <v>2199.96</v>
       </c>
     </row>
     <row r="152">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1841</v>
+        <v>2295.56</v>
       </c>
     </row>
     <row r="153">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1855.65</v>
+        <v>2034.74</v>
       </c>
     </row>
     <row r="154">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2075.62</v>
+        <v>2254.7</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2856.59</v>
+        <v>3244.66</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>14767.91</v>
+        <v>15808.36</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>3327.92</v>
+        <v>3535.73</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1558.35</v>
+        <v>1771.09</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>824.8200000000001</v>
+        <v>879.04</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4824.8</v>
+        <v>4976.36</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>7580.05</v>
+        <v>8161.53</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>14396.27</v>
+        <v>15341.3</v>
       </c>
     </row>
     <row r="163">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="165">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>60.68</v>
+        <v>61.96</v>
       </c>
     </row>
     <row r="166">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1393.87</v>
+        <v>1452.21</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>739.16</v>
+        <v>795.15</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2535.08</v>
+        <v>2553.09</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>83.3</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1502.71</v>
+        <v>1647.17</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2623.32</v>
+        <v>2691.99</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1562.52</v>
+        <v>1588.8</v>
       </c>
     </row>
     <row r="191">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="195">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>32.52</v>
+        <v>34.32</v>
       </c>
     </row>
     <row r="196">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>152.12</v>
+        <v>155.69</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>937.54</v>
+        <v>1002.52</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>110.3</v>
+        <v>122.32</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>143.64</v>
+        <v>153.37</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>49.75</v>
+        <v>52.22</v>
       </c>
     </row>
     <row r="217">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0.72</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="221">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="224">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>147.87</v>
+        <v>180.29</v>
       </c>
     </row>
     <row r="227">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>135.49</v>
+        <v>167.92</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>151.17</v>
+        <v>183.59</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>117.92</v>
+        <v>187.72</v>
       </c>
     </row>
     <row r="230">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>167.67</v>
+        <v>200.09</v>
       </c>
     </row>
     <row r="233">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>147.87</v>
+        <v>180.29</v>
       </c>
     </row>
     <row r="234">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>135.49</v>
+        <v>167.92</v>
       </c>
     </row>
     <row r="235">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>151.17</v>
+        <v>183.59</v>
       </c>
     </row>
     <row r="236">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>117.92</v>
+        <v>187.72</v>
       </c>
     </row>
     <row r="237">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>167.67</v>
+        <v>200.09</v>
       </c>
     </row>
     <row r="240">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>12098.73</v>
+        <v>12556.58</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>23529</v>
+        <v>25782.5</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>13211.74</v>
+        <v>13541.86</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>17566.5</v>
+        <v>17825</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>20662</v>
+        <v>22599</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>21467</v>
+        <v>22828</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>19546.45</v>
+        <v>21667.4</v>
       </c>
     </row>
     <row r="247">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1280.43</v>
+        <v>1360.93</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>83190.73</v>
+        <v>83251.44</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>3598.84</v>
+        <v>3664.92</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>17174.37</v>
+        <v>19969.87</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>3366.56</v>
+        <v>3556.72</v>
       </c>
     </row>
     <row r="273">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>10187.56</v>
+        <v>11258.16</v>
       </c>
     </row>
     <row r="275">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>5482.22</v>
+        <v>5646.8</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>4836.29</v>
+        <v>5050.37</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>4985.62</v>
+        <v>5199.7</v>
       </c>
     </row>
     <row r="285">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>5012.99</v>
+        <v>5243.57</v>
       </c>
     </row>
     <row r="286">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>5985.17</v>
+        <v>6153.87</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6776.27</v>
+        <v>6980.45</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>5925.14</v>
+        <v>6211.82</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>6099.22</v>
+        <v>6385.9</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>6317.44</v>
+        <v>6620.62</v>
       </c>
     </row>
     <row r="293">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>7626.22</v>
+        <v>7834.52</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>5451.67</v>
+        <v>5697.04</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2673.51</v>
+        <v>2705.94</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>504.09</v>
+        <v>507.55</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>37.74</v>
+        <v>41.13</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>676.36</v>
+        <v>682.23</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>307.85</v>
+        <v>323.17</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1217.37</v>
+        <v>1234.41</v>
       </c>
     </row>
     <row r="303">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>7.47</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="305">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>22.63</v>
+        <v>23.71</v>
       </c>
     </row>
     <row r="306">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>30.78</v>
+        <v>45.05</v>
       </c>
     </row>
     <row r="325">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>333.36</v>
+        <v>353.59</v>
       </c>
     </row>
     <row r="328">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>311.68</v>
+        <v>335.58</v>
       </c>
     </row>
     <row r="330">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>70450.50999999999</v>
+        <v>78150.61</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>66568.56</v>
+        <v>71497.81</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>7899.31</v>
+        <v>8224.15</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>53457.2</v>
+        <v>55161.17</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>30876.5</v>
+        <v>33570</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>97876.72</v>
+        <v>101708.89</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>36681.6</v>
+        <v>39220.6</v>
       </c>
     </row>
     <row r="359">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>12.38</v>
+        <v>556.88</v>
       </c>
     </row>
     <row r="370">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>12.38</v>
+        <v>556.88</v>
       </c>
     </row>
     <row r="377">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>3230</v>
+        <v>6984.5</v>
       </c>
     </row>
     <row r="381">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>40222.5</v>
+        <v>45027.5</v>
       </c>
     </row>
     <row r="383">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>75932.5</v>
+        <v>82054</v>
       </c>
     </row>
     <row r="387">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>547.83</v>
       </c>
     </row>
     <row r="392">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>27.56</v>
+        <v>30.76</v>
       </c>
     </row>
     <row r="409">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>140.38</v>
+        <v>143.7</v>
       </c>
     </row>
     <row r="411">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>14.7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>111.64</v>
+        <v>116.19</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>578.59</v>
+        <v>614.22</v>
       </c>
     </row>
     <row r="415">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="447">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4490.9</v>
+        <v>4262.07</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3987.34</v>
+        <v>3758.52</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4846.27</v>
+        <v>4478.45</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5156.28</v>
+        <v>4589.72</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4228.53</v>
+        <v>5577.57</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4291.24</v>
+        <v>4064.06</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4952.94</v>
+        <v>4724.11</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11457.37</v>
+        <v>10304</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9672.67</v>
+        <v>8394.379999999999</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12552.88</v>
+        <v>11611.48</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13008.21</v>
+        <v>12117.56</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10931.83</v>
+        <v>14501.64</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13034.16</v>
+        <v>11882.44</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14318.37</v>
+        <v>13165</v>
       </c>
     </row>
     <row r="16">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>159775.86</v>
+        <v>165008.96</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1427.06</v>
+        <v>3337.8</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>115331.5</v>
+        <v>115509.5</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>74.88</v>
+        <v>82.03</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>97804.66</v>
+        <v>100600.08</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>146616.55</v>
+        <v>158389.6</v>
       </c>
     </row>
     <row r="23">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>11914.02</v>
+        <v>19364.1</v>
       </c>
     </row>
     <row r="27">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10763.03</v>
+        <v>10859.22</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1062.86</v>
+        <v>1087.05</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>23450.64</v>
+        <v>25030.88</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3807.72</v>
+        <v>3898.16</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2287.64</v>
+        <v>2373.45</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2486.96</v>
+        <v>2568.18</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3251.39</v>
+        <v>3482.28</v>
       </c>
     </row>
     <row r="51">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>29.64</v>
+        <v>34.23</v>
       </c>
     </row>
     <row r="54">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>38321.56</v>
+        <v>40328.05</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>44242.06</v>
+        <v>47564.1</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>22021.79</v>
+        <v>23092.07</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9725.139999999999</v>
+        <v>10113.11</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>23838.5</v>
+        <v>25517.18</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6245.17</v>
+        <v>6720.33</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>10898.24</v>
+        <v>11709.44</v>
       </c>
     </row>
     <row r="79">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>78.33</v>
+        <v>78.34999999999999</v>
       </c>
     </row>
     <row r="82">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>16.44</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="84">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>14003.74</v>
+        <v>14144.5</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>21729.04</v>
+        <v>23889.33</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>26104.75</v>
+        <v>28953.98</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2149.99</v>
+        <v>2307.27</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>18455.94</v>
+        <v>19599.2</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1692.67</v>
+        <v>1821.36</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>35710.13</v>
+        <v>35997.29</v>
       </c>
     </row>
     <row r="107">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>27.72</v>
+        <v>31.42</v>
       </c>
     </row>
     <row r="109">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>87.05</v>
+        <v>101.53</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>7.58</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="112">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>45.94</v>
+        <v>49.18</v>
       </c>
     </row>
     <row r="113">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>154.32</v>
+        <v>164.22</v>
       </c>
     </row>
     <row r="115">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>154.32</v>
+        <v>164.22</v>
       </c>
     </row>
     <row r="116">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>156.6</v>
+        <v>166.5</v>
       </c>
     </row>
     <row r="117">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>212.7</v>
+        <v>222.6</v>
       </c>
     </row>
     <row r="118">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>140.92</v>
+        <v>150.82</v>
       </c>
     </row>
     <row r="119">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>520.62</v>
+        <v>530.52</v>
       </c>
     </row>
     <row r="122">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>565.17</v>
+        <v>575.0700000000001</v>
       </c>
     </row>
     <row r="123">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>493.2</v>
+        <v>503.1</v>
       </c>
     </row>
     <row r="124">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>838.05</v>
+        <v>847.95</v>
       </c>
     </row>
     <row r="125">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>721.72</v>
+        <v>731.62</v>
       </c>
     </row>
     <row r="126">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>121.67</v>
+        <v>129.58</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>546.76</v>
+        <v>773.0700000000001</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>860.4</v>
+        <v>899.46</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3383.55</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>527.3200000000001</v>
+        <v>558.14</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1682.5</v>
+        <v>1767.81</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>5789.26</v>
+        <v>6309.21</v>
       </c>
     </row>
     <row r="135">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1893.46</v>
+        <v>1992.76</v>
       </c>
     </row>
     <row r="143">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2685.05</v>
+        <v>2767.72</v>
       </c>
     </row>
     <row r="144">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3045.23</v>
+        <v>3127.9</v>
       </c>
     </row>
     <row r="145">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>3091.33</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="146">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2780.75</v>
+        <v>3138.91</v>
       </c>
     </row>
     <row r="147">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3017.63</v>
+        <v>3060.86</v>
       </c>
     </row>
     <row r="148">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3872.54</v>
+        <v>3971.84</v>
       </c>
     </row>
     <row r="149">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1595.21</v>
+        <v>1571.01</v>
       </c>
     </row>
     <row r="150">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2077.16</v>
+        <v>2036.34</v>
       </c>
     </row>
     <row r="151">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2199.96</v>
+        <v>2159.14</v>
       </c>
     </row>
     <row r="152">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2295.56</v>
+        <v>2254.74</v>
       </c>
     </row>
     <row r="153">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2034.74</v>
+        <v>2269.4</v>
       </c>
     </row>
     <row r="154">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2254.7</v>
+        <v>2240.92</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>3244.66</v>
+        <v>3220.46</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>15808.36</v>
+        <v>15954.2</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>3535.73</v>
+        <v>3756.89</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1771.09</v>
+        <v>1979.59</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>879.04</v>
+        <v>924.83</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>4976.36</v>
+        <v>5540.86</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>8161.53</v>
+        <v>8722.639999999999</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15341.3</v>
+        <v>15345.48</v>
       </c>
     </row>
     <row r="163">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>61.96</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="166">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.9</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="168">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1452.21</v>
+        <v>1557.51</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>795.15</v>
+        <v>831.0599999999999</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2553.09</v>
+        <v>2801.11</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>85.70999999999999</v>
+        <v>94.92</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1647.17</v>
+        <v>1850.1</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2691.99</v>
+        <v>3098.87</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1588.8</v>
+        <v>1717.42</v>
       </c>
     </row>
     <row r="191">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>3.08</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="195">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>34.32</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="197">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>155.69</v>
+        <v>160.34</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1002.52</v>
+        <v>1055.87</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>122.32</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>153.37</v>
+        <v>167.42</v>
       </c>
     </row>
     <row r="216">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>101.53</v>
+        <v>111.96</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1835</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="219">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0.14</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="224">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>180.29</v>
+        <v>173.64</v>
       </c>
     </row>
     <row r="227">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>167.92</v>
+        <v>161.27</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>183.59</v>
+        <v>176.94</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>187.72</v>
+        <v>181.07</v>
       </c>
     </row>
     <row r="230">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>141.35</v>
+        <v>174.6</v>
       </c>
     </row>
     <row r="231">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>200.09</v>
+        <v>193.44</v>
       </c>
     </row>
     <row r="233">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>180.29</v>
+        <v>173.64</v>
       </c>
     </row>
     <row r="234">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>167.92</v>
+        <v>161.27</v>
       </c>
     </row>
     <row r="235">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>183.59</v>
+        <v>176.94</v>
       </c>
     </row>
     <row r="236">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>187.72</v>
+        <v>181.07</v>
       </c>
     </row>
     <row r="237">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>141.35</v>
+        <v>174.6</v>
       </c>
     </row>
     <row r="238">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>200.09</v>
+        <v>193.44</v>
       </c>
     </row>
     <row r="240">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>12556.58</v>
+        <v>13660.84</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>25782.5</v>
+        <v>26484.5</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>13541.86</v>
+        <v>15516.86</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>17825</v>
+        <v>19930.5</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>22599</v>
+        <v>24242</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>22828</v>
+        <v>24120</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>21667.4</v>
+        <v>22923.87</v>
       </c>
     </row>
     <row r="247">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1360.93</v>
+        <v>1475.98</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>83251.44</v>
+        <v>83420.61</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>3664.92</v>
+        <v>4289.75</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>19969.87</v>
+        <v>23049.92</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>3556.72</v>
+        <v>3734.83</v>
       </c>
     </row>
     <row r="273">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>11258.16</v>
+        <v>11333.13</v>
       </c>
     </row>
     <row r="275">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>5646.8</v>
+        <v>5636.86</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>5050.37</v>
+        <v>5028.06</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>5199.7</v>
+        <v>5177.39</v>
       </c>
     </row>
     <row r="285">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>5243.57</v>
+        <v>5221.26</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>4961.7</v>
+        <v>5048.49</v>
       </c>
     </row>
     <row r="287">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>6153.87</v>
+        <v>6143.93</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6980.45</v>
+        <v>6970.51</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>6211.82</v>
+        <v>6181.26</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>6385.9</v>
+        <v>6355.34</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>6620.62</v>
+        <v>6590.06</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>6236.45</v>
+        <v>6347.99</v>
       </c>
     </row>
     <row r="294">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>7834.52</v>
+        <v>7824.58</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>5697.04</v>
+        <v>6055.6</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2705.94</v>
+        <v>3028.01</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>507.55</v>
+        <v>518.09</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>41.13</v>
+        <v>109.11</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>682.23</v>
+        <v>741.97</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>323.17</v>
+        <v>413.51</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1234.41</v>
+        <v>1290.58</v>
       </c>
     </row>
     <row r="303">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>23.71</v>
+        <v>24.81</v>
       </c>
     </row>
     <row r="306">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>45.05</v>
+        <v>73.39</v>
       </c>
     </row>
     <row r="325">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>9.039999999999999</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>504.72</v>
+        <v>1415.66</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>353.59</v>
+        <v>374.8</v>
       </c>
     </row>
     <row r="328">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>335.58</v>
+        <v>357.3</v>
       </c>
     </row>
     <row r="330">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>78150.61</v>
+        <v>84048.67</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>71497.81</v>
+        <v>71861.64</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>8224.15</v>
+        <v>8525.48</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>55161.17</v>
+        <v>58658.64</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>33570</v>
+        <v>35232.43</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>101708.89</v>
+        <v>104539.39</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>39220.6</v>
+        <v>41871.6</v>
       </c>
     </row>
     <row r="359">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>556.88</v>
+        <v>3808.12</v>
       </c>
     </row>
     <row r="370">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>12.38</v>
+        <v>3758.62</v>
       </c>
     </row>
     <row r="371">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>556.88</v>
+        <v>2608.12</v>
       </c>
     </row>
     <row r="377">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>12.38</v>
+        <v>2459.62</v>
       </c>
     </row>
     <row r="378">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>6984.5</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="381">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>45027.5</v>
+        <v>46481</v>
       </c>
     </row>
     <row r="383">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>82054</v>
+        <v>87297</v>
       </c>
     </row>
     <row r="387">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>547.83</v>
+        <v>1276.12</v>
       </c>
     </row>
     <row r="392">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>30.76</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>125.18</v>
+        <v>133.56</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>143.7</v>
+        <v>152.56</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>36.41</v>
+        <v>38.54</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>94</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>116.19</v>
+        <v>127.1</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>614.22</v>
+        <v>634.13</v>
       </c>
     </row>
     <row r="415">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>2059.69</v>
+        <v>2123.63</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>4260.58</v>
+        <v>4495.61</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>4288.52</v>
+        <v>4325.08</v>
       </c>
     </row>
     <row r="439">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>169.15</v>
+        <v>181.98</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>236.44</v>
+        <v>258.69</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>5591.91</v>
+        <v>5897.22</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>4705.02</v>
+        <v>5203.02</v>
       </c>
     </row>
     <row r="443">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="447">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4262.07</v>
+        <v>4299.33</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3758.52</v>
+        <v>3801.02</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4478.45</v>
+        <v>4545.7</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4589.72</v>
+        <v>4656.96</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5577.57</v>
+        <v>5500.56</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4064.06</v>
+        <v>4286.56</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4724.11</v>
+        <v>4761.37</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10304</v>
+        <v>10341.26</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8394.379999999999</v>
+        <v>8436.879999999999</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11611.48</v>
+        <v>11662.14</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12117.56</v>
+        <v>12168.22</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14501.64</v>
+        <v>14456.06</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11882.44</v>
+        <v>12601.69</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13165</v>
+        <v>13202.26</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1576817.55</v>
+        <v>1709317.55</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>165008.96</v>
+        <v>251327.96</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3337.8</v>
+        <v>5256.3</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>115509.5</v>
+        <v>133871</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>82.03</v>
+        <v>150.82</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>100600.08</v>
+        <v>116202.58</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>158389.6</v>
+        <v>166164.68</v>
       </c>
     </row>
     <row r="23">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19364.1</v>
+        <v>26070.48</v>
       </c>
     </row>
     <row r="27">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10859.22</v>
+        <v>11513.11</v>
       </c>
     </row>
     <row r="45">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>25030.88</v>
+        <v>25385.31</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3898.16</v>
+        <v>4295.64</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2373.45</v>
+        <v>2589.01</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2568.18</v>
+        <v>2905.77</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3482.28</v>
+        <v>3699.81</v>
       </c>
     </row>
     <row r="51">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>34.23</v>
+        <v>39.18</v>
       </c>
     </row>
     <row r="54">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>40328.05</v>
+        <v>42236.05</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>47564.1</v>
+        <v>49767.08</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>23092.07</v>
+        <v>24559.14</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>10113.11</v>
+        <v>10642.68</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>25517.18</v>
+        <v>28853.96</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6720.33</v>
+        <v>7061.8</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>11709.44</v>
+        <v>12140.4</v>
       </c>
     </row>
     <row r="79">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>78.34999999999999</v>
+        <v>78.37</v>
       </c>
     </row>
     <row r="82">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>16.48</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="84">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.48</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1559.68</v>
+        <v>1559.79</v>
       </c>
     </row>
     <row r="86">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>14144.5</v>
+        <v>15281.64</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>23889.33</v>
+        <v>24685.8</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>28953.98</v>
+        <v>31753.4</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2307.27</v>
+        <v>2572.8</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>19599.2</v>
+        <v>20261.81</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1821.36</v>
+        <v>2149.13</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>35997.29</v>
+        <v>36670.03</v>
       </c>
     </row>
     <row r="107">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>31.42</v>
+        <v>35.08</v>
       </c>
     </row>
     <row r="109">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>101.53</v>
+        <v>116.09</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>7.76</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="112">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>49.18</v>
+        <v>53.42</v>
       </c>
     </row>
     <row r="113">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1576.36</v>
+        <v>1578.45</v>
       </c>
     </row>
     <row r="114">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>164.22</v>
+        <v>189.1</v>
       </c>
     </row>
     <row r="115">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>164.22</v>
+        <v>228.7</v>
       </c>
     </row>
     <row r="116">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>166.5</v>
+        <v>230.97</v>
       </c>
     </row>
     <row r="117">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>222.6</v>
+        <v>287.07</v>
       </c>
     </row>
     <row r="118">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>150.82</v>
+        <v>215.3</v>
       </c>
     </row>
     <row r="119">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>554.17</v>
+        <v>643.52</v>
       </c>
     </row>
     <row r="120">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>458.47</v>
+        <v>483.35</v>
       </c>
     </row>
     <row r="121">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>530.52</v>
+        <v>605.15</v>
       </c>
     </row>
     <row r="122">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>575.0700000000001</v>
+        <v>768.7</v>
       </c>
     </row>
     <row r="123">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>503.1</v>
+        <v>696.72</v>
       </c>
     </row>
     <row r="124">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>847.95</v>
+        <v>1041.57</v>
       </c>
     </row>
     <row r="125">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>731.62</v>
+        <v>925.25</v>
       </c>
     </row>
     <row r="126">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1506.22</v>
+        <v>1774.47</v>
       </c>
     </row>
     <row r="127">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1443.52</v>
+        <v>1518.15</v>
       </c>
     </row>
     <row r="128">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>129.58</v>
+        <v>137.68</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>773.0700000000001</v>
+        <v>856.46</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>899.46</v>
+        <v>938.2</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3688</v>
+        <v>3771.9</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>558.14</v>
+        <v>569.28</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1767.81</v>
+        <v>1931.9</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>6309.21</v>
+        <v>6891.93</v>
       </c>
     </row>
     <row r="135">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>15954.2</v>
+        <v>16855.49</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>3756.89</v>
+        <v>4023.18</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1979.59</v>
+        <v>2107.46</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>924.83</v>
+        <v>967.6</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>5540.86</v>
+        <v>5687.86</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>8722.639999999999</v>
+        <v>10106.15</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15345.48</v>
+        <v>15577.98</v>
       </c>
     </row>
     <row r="163">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>63.3</v>
+        <v>64.63</v>
       </c>
     </row>
     <row r="166">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="168">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1557.51</v>
+        <v>1657.97</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>831.0599999999999</v>
+        <v>850.46</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2801.11</v>
+        <v>2995.25</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>94.92</v>
+        <v>104.05</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1850.1</v>
+        <v>1977.29</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>3098.87</v>
+        <v>3431.82</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1717.42</v>
+        <v>1791.18</v>
       </c>
     </row>
     <row r="191">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>5.43</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="195">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>42.11</v>
+        <v>50.32</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.5600000000000001</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="197">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>236.21</v>
+        <v>236.88</v>
       </c>
     </row>
     <row r="198">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>160.34</v>
+        <v>175.92</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1055.87</v>
+        <v>1107.63</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>139.5</v>
+        <v>144.27</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>167.42</v>
+        <v>181.4</v>
       </c>
     </row>
     <row r="216">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>111.96</v>
+        <v>121.81</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>2024</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="219">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0.64</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="224">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>161.27</v>
+        <v>171.17</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>176.94</v>
+        <v>186.84</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>181.07</v>
+        <v>190.97</v>
       </c>
     </row>
     <row r="230">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>174.6</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="231">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>183.04</v>
+        <v>192.94</v>
       </c>
     </row>
     <row r="232">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>161.27</v>
+        <v>171.17</v>
       </c>
     </row>
     <row r="235">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>176.94</v>
+        <v>186.84</v>
       </c>
     </row>
     <row r="236">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>181.07</v>
+        <v>190.97</v>
       </c>
     </row>
     <row r="237">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>174.6</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="238">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>183.04</v>
+        <v>192.94</v>
       </c>
     </row>
     <row r="239">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>13660.84</v>
+        <v>13875.39</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>26484.5</v>
+        <v>28006.5</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>15516.86</v>
+        <v>15912.02</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>19930.5</v>
+        <v>22646.5</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>24242</v>
+        <v>26479</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>24120</v>
+        <v>26413</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>22923.87</v>
+        <v>24015.37</v>
       </c>
     </row>
     <row r="247">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1475.98</v>
+        <v>1543.74</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>83420.61</v>
+        <v>89097.34</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>4289.75</v>
+        <v>4771.9</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>23049.92</v>
+        <v>25478.71</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>3734.83</v>
+        <v>4181.76</v>
       </c>
     </row>
     <row r="273">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>453</v>
+        <v>501.71</v>
       </c>
     </row>
     <row r="274">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>11333.13</v>
+        <v>12591.19</v>
       </c>
     </row>
     <row r="275">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>5177.39</v>
+        <v>5288.76</v>
       </c>
     </row>
     <row r="285">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>5221.26</v>
+        <v>5398.63</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>5048.49</v>
+        <v>5324.87</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>5541.51</v>
+        <v>5817.88</v>
       </c>
     </row>
     <row r="288">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>6355.34</v>
+        <v>6516.21</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>6590.06</v>
+        <v>6882.93</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>6347.99</v>
+        <v>6789.37</v>
       </c>
     </row>
     <row r="294">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>6847.76</v>
+        <v>7289.13</v>
       </c>
     </row>
     <row r="295">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>6055.6</v>
+        <v>6423.14</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>3028.01</v>
+        <v>3283.08</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>518.09</v>
+        <v>565.4</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>109.11</v>
+        <v>120.53</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>741.97</v>
+        <v>791.8</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>413.51</v>
+        <v>439.47</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1290.58</v>
+        <v>1356.97</v>
       </c>
     </row>
     <row r="303">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>24.81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="306">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>73.39</v>
+        <v>79.65000000000001</v>
       </c>
     </row>
     <row r="325">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1415.66</v>
+        <v>2759.2</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>374.8</v>
+        <v>396.69</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>66.98</v>
+        <v>72.36</v>
       </c>
     </row>
     <row r="329">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="331">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>0</v>
+        <v>22.02</v>
       </c>
     </row>
     <row r="337">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>84048.67</v>
+        <v>86002.42</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>71861.64</v>
+        <v>76324.91</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>8525.48</v>
+        <v>9359.549999999999</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>58658.64</v>
+        <v>61186.78</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>35232.43</v>
+        <v>38155.71</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>104539.39</v>
+        <v>111637.46</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>41871.6</v>
+        <v>42726.48</v>
       </c>
     </row>
     <row r="359">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>3808.12</v>
+        <v>3558.21</v>
       </c>
     </row>
     <row r="370">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>3758.62</v>
+        <v>3508.71</v>
       </c>
     </row>
     <row r="371">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>12.38</v>
+        <v>512.21</v>
       </c>
     </row>
     <row r="372">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2608.12</v>
+        <v>2358.21</v>
       </c>
     </row>
     <row r="377">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>2459.62</v>
+        <v>2209.71</v>
       </c>
     </row>
     <row r="378">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>12.38</v>
+        <v>512.21</v>
       </c>
     </row>
     <row r="379">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>7898</v>
+        <v>8396.5</v>
       </c>
     </row>
     <row r="381">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>46481</v>
+        <v>46565</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>28830</v>
+        <v>29135</v>
       </c>
     </row>
     <row r="384">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>0</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="386">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>87297</v>
+        <v>88381.5</v>
       </c>
     </row>
     <row r="387">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>1276.12</v>
+        <v>1963.02</v>
       </c>
     </row>
     <row r="392">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>36.7</v>
+        <v>39.12</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>133.56</v>
+        <v>137.03</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>152.56</v>
+        <v>162</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>38.54</v>
+        <v>40.37</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>101.7</v>
+        <v>112.63</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>127.1</v>
+        <v>137.12</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>634.13</v>
+        <v>666.54</v>
       </c>
     </row>
     <row r="415">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>217.04</v>
+        <v>373.32</v>
       </c>
     </row>
     <row r="423">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>187.74</v>
+        <v>393.63</v>
       </c>
     </row>
     <row r="424">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>179.4</v>
+        <v>546.41</v>
       </c>
     </row>
     <row r="425">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>224.74</v>
+        <v>657.75</v>
       </c>
     </row>
     <row r="426">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>241.24</v>
+        <v>674.25</v>
       </c>
     </row>
     <row r="427">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>295.41</v>
+        <v>728.42</v>
       </c>
     </row>
     <row r="428">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>295.41</v>
+        <v>451.7</v>
       </c>
     </row>
     <row r="429">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>217.04</v>
+        <v>373.32</v>
       </c>
     </row>
     <row r="430">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>187.74</v>
+        <v>393.63</v>
       </c>
     </row>
     <row r="431">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>179.4</v>
+        <v>546.41</v>
       </c>
     </row>
     <row r="432">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>224.74</v>
+        <v>657.75</v>
       </c>
     </row>
     <row r="433">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>241.24</v>
+        <v>674.25</v>
       </c>
     </row>
     <row r="434">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>295.41</v>
+        <v>728.42</v>
       </c>
     </row>
     <row r="435">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>295.41</v>
+        <v>451.7</v>
       </c>
     </row>
     <row r="436">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>2123.63</v>
+        <v>2313.28</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>4495.61</v>
+        <v>4818.14</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>4325.08</v>
+        <v>4376.72</v>
       </c>
     </row>
     <row r="439">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>181.98</v>
+        <v>193.42</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>258.69</v>
+        <v>300.53</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>5897.22</v>
+        <v>5990.58</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>5203.02</v>
+        <v>5462.3</v>
       </c>
     </row>
     <row r="443">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="447">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4299.33</v>
+        <v>4296.15</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3801.02</v>
+        <v>3797.57</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4545.7</v>
+        <v>4542.25</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4656.96</v>
+        <v>4653.52</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5500.56</v>
+        <v>5497.12</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4286.56</v>
+        <v>4307.86</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4761.37</v>
+        <v>4806.54</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10341.26</v>
+        <v>10338.07</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8436.879999999999</v>
+        <v>8433.43</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11662.14</v>
+        <v>11658.7</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12168.22</v>
+        <v>12164.78</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14456.06</v>
+        <v>14436.11</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12601.69</v>
+        <v>12606.49</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13202.26</v>
+        <v>13280.42</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>26070.48</v>
+        <v>33418.8</v>
       </c>
     </row>
     <row r="27">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>39.18</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="54">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>16.52</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="84">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.53</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1559.79</v>
+        <v>1560.04</v>
       </c>
     </row>
     <row r="86">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>116.09</v>
+        <v>130.95</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>7.92</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="112">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>53.42</v>
+        <v>57.52</v>
       </c>
     </row>
     <row r="113">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1578.45</v>
+        <v>1581.34</v>
       </c>
     </row>
     <row r="114">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>189.1</v>
+        <v>186.33</v>
       </c>
     </row>
     <row r="115">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>228.7</v>
+        <v>219.33</v>
       </c>
     </row>
     <row r="116">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>230.97</v>
+        <v>241.41</v>
       </c>
     </row>
     <row r="117">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>287.07</v>
+        <v>297.51</v>
       </c>
     </row>
     <row r="118">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>215.3</v>
+        <v>225.73</v>
       </c>
     </row>
     <row r="119">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>643.52</v>
+        <v>651.1900000000001</v>
       </c>
     </row>
     <row r="120">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>483.35</v>
+        <v>555.49</v>
       </c>
     </row>
     <row r="121">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>605.15</v>
+        <v>602.38</v>
       </c>
     </row>
     <row r="122">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>768.7</v>
+        <v>752.7</v>
       </c>
     </row>
     <row r="123">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>696.72</v>
+        <v>700.52</v>
       </c>
     </row>
     <row r="124">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1041.57</v>
+        <v>1045.37</v>
       </c>
     </row>
     <row r="125">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>925.25</v>
+        <v>929.05</v>
       </c>
     </row>
     <row r="126">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1774.47</v>
+        <v>1775.51</v>
       </c>
     </row>
     <row r="127">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1518.15</v>
+        <v>1623.46</v>
       </c>
     </row>
     <row r="128">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>64.63</v>
+        <v>65.34999999999999</v>
       </c>
     </row>
     <row r="166">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1.66</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="168">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>209.43</v>
+        <v>210.18</v>
       </c>
     </row>
     <row r="192">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>7.48</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="195">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>50.32</v>
+        <v>59.71</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>3.68</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="197">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>236.88</v>
+        <v>238.37</v>
       </c>
     </row>
     <row r="198">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>1.05</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="224">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>173.64</v>
+        <v>286.02</v>
       </c>
     </row>
     <row r="227">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>171.17</v>
+        <v>308.38</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>186.84</v>
+        <v>324.05</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>190.97</v>
+        <v>340.55</v>
       </c>
     </row>
     <row r="230">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>184.5</v>
+        <v>334.08</v>
       </c>
     </row>
     <row r="231">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>192.94</v>
+        <v>342.52</v>
       </c>
     </row>
     <row r="232">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>193.44</v>
+        <v>455.4</v>
       </c>
     </row>
     <row r="233">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>173.64</v>
+        <v>286.02</v>
       </c>
     </row>
     <row r="234">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>171.17</v>
+        <v>308.38</v>
       </c>
     </row>
     <row r="235">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>186.84</v>
+        <v>324.05</v>
       </c>
     </row>
     <row r="236">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>190.97</v>
+        <v>340.55</v>
       </c>
     </row>
     <row r="237">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>184.5</v>
+        <v>334.08</v>
       </c>
     </row>
     <row r="238">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>192.94</v>
+        <v>342.52</v>
       </c>
     </row>
     <row r="239">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>193.44</v>
+        <v>455.4</v>
       </c>
     </row>
     <row r="240">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>5636.86</v>
+        <v>5660.36</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>5028.06</v>
+        <v>5076.3</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>5288.76</v>
+        <v>5346.91</v>
       </c>
     </row>
     <row r="285">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>5398.63</v>
+        <v>5520.18</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>5324.87</v>
+        <v>5528.91</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>5817.88</v>
+        <v>6120.93</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>6143.93</v>
+        <v>6574.92</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6970.51</v>
+        <v>6994.01</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>6181.26</v>
+        <v>6229.5</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>6516.21</v>
+        <v>6574.36</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>6882.93</v>
+        <v>7004.48</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>6789.37</v>
+        <v>7042.91</v>
       </c>
     </row>
     <row r="294">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>7289.13</v>
+        <v>7889.18</v>
       </c>
     </row>
     <row r="295">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>7824.58</v>
+        <v>8602.07</v>
       </c>
     </row>
     <row r="296">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="332">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>22.02</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="337">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>1963.02</v>
+        <v>2625.8</v>
       </c>
     </row>
     <row r="392">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>373.32</v>
+        <v>353.79</v>
       </c>
     </row>
     <row r="423">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>393.63</v>
+        <v>365.83</v>
       </c>
     </row>
     <row r="424">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>546.41</v>
+        <v>488.86</v>
       </c>
     </row>
     <row r="425">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>657.75</v>
+        <v>583.7</v>
       </c>
     </row>
     <row r="426">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>674.25</v>
+        <v>600.2</v>
       </c>
     </row>
     <row r="427">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>728.42</v>
+        <v>753.37</v>
       </c>
     </row>
     <row r="428">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>451.7</v>
+        <v>976.75</v>
       </c>
     </row>
     <row r="429">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>373.32</v>
+        <v>353.79</v>
       </c>
     </row>
     <row r="430">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>393.63</v>
+        <v>365.83</v>
       </c>
     </row>
     <row r="431">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>546.41</v>
+        <v>488.86</v>
       </c>
     </row>
     <row r="432">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>657.75</v>
+        <v>583.7</v>
       </c>
     </row>
     <row r="433">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>674.25</v>
+        <v>600.2</v>
       </c>
     </row>
     <row r="434">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>728.42</v>
+        <v>654.37</v>
       </c>
     </row>
     <row r="435">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>451.7</v>
+        <v>778.75</v>
       </c>
     </row>
     <row r="436">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="447">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4296.15</v>
+        <v>5388.19</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3797.57</v>
+        <v>3797.02</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4542.25</v>
+        <v>4466.95</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4653.52</v>
+        <v>4423.64</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5497.12</v>
+        <v>5466.65</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4307.86</v>
+        <v>4875.81</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4806.54</v>
+        <v>5529.74</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10338.07</v>
+        <v>13275.78</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8433.43</v>
+        <v>8432.879999999999</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11658.7</v>
+        <v>11167.15</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12164.78</v>
+        <v>11518.65</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14436.11</v>
+        <v>14539.39</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12606.49</v>
+        <v>14173.86</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13280.42</v>
+        <v>15252.29</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1709317.55</v>
+        <v>1827917.96</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>251327.96</v>
+        <v>273156.5</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5256.3</v>
+        <v>7731.04</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>133871</v>
+        <v>135543.5</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>150.82</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>116202.58</v>
+        <v>123706.2</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>166164.68</v>
+        <v>171664.68</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>10727.8</v>
       </c>
     </row>
     <row r="24">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>787.05</v>
+        <v>985.71</v>
       </c>
     </row>
     <row r="31">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1361.85</v>
+        <v>1511.01</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1282.05</v>
+        <v>1480.71</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>949.76</v>
+        <v>1148.43</v>
       </c>
     </row>
     <row r="38">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1439.38</v>
+        <v>1588.55</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1478.93</v>
+        <v>1677.6</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11513.11</v>
+        <v>12247.66</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1087.05</v>
+        <v>1205.06</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>25385.31</v>
+        <v>27136.86</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4295.64</v>
+        <v>5010.2</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2589.01</v>
+        <v>2638.72</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2905.77</v>
+        <v>3033.57</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3699.81</v>
+        <v>6414.79</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.5</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="52">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>42236.05</v>
+        <v>44801.38</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>49767.08</v>
+        <v>53374.3</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>24559.14</v>
+        <v>25822.14</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>10642.68</v>
+        <v>10773.57</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>28853.96</v>
+        <v>32307.6</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>7061.8</v>
+        <v>7489.59</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>12140.4</v>
+        <v>13118.09</v>
       </c>
     </row>
     <row r="79">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>16.56</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="84">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1560.04</v>
+        <v>1560.22</v>
       </c>
     </row>
     <row r="86">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>15281.64</v>
+        <v>16556.36</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>24685.8</v>
+        <v>28986.22</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>31753.4</v>
+        <v>33398.07</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2572.8</v>
+        <v>2999.54</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>20261.81</v>
+        <v>22320.36</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2149.13</v>
+        <v>2538.17</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>36670.03</v>
+        <v>40369.06</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>100.3</v>
+        <v>100.62</v>
       </c>
     </row>
     <row r="108">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>130.95</v>
+        <v>140.27</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>8.119999999999999</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="112">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>57.52</v>
+        <v>61.54</v>
       </c>
     </row>
     <row r="113">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1581.34</v>
+        <v>1584.01</v>
       </c>
     </row>
     <row r="114">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>186.33</v>
+        <v>202.83</v>
       </c>
     </row>
     <row r="115">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>241.41</v>
+        <v>238.11</v>
       </c>
     </row>
     <row r="117">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>297.51</v>
+        <v>294.21</v>
       </c>
     </row>
     <row r="118">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>225.73</v>
+        <v>222.43</v>
       </c>
     </row>
     <row r="119">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>651.1900000000001</v>
+        <v>647.89</v>
       </c>
     </row>
     <row r="120">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>555.49</v>
+        <v>552.1900000000001</v>
       </c>
     </row>
     <row r="121">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>602.38</v>
+        <v>618.88</v>
       </c>
     </row>
     <row r="122">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>700.52</v>
+        <v>697.22</v>
       </c>
     </row>
     <row r="124">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1045.37</v>
+        <v>1042.07</v>
       </c>
     </row>
     <row r="125">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>929.05</v>
+        <v>925.75</v>
       </c>
     </row>
     <row r="126">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1775.51</v>
+        <v>1772.21</v>
       </c>
     </row>
     <row r="127">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1623.46</v>
+        <v>1620.16</v>
       </c>
     </row>
     <row r="128">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>137.68</v>
+        <v>156.54</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>856.46</v>
+        <v>936.46</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>938.2</v>
+        <v>1008.64</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3771.9</v>
+        <v>3982.52</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>569.28</v>
+        <v>753.55</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1931.9</v>
+        <v>1999.28</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>6891.93</v>
+        <v>7480.1</v>
       </c>
     </row>
     <row r="135">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>16855.49</v>
+        <v>17124.75</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>4023.18</v>
+        <v>4264.03</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2107.46</v>
+        <v>2327.04</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>967.6</v>
+        <v>1066.32</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>5687.86</v>
+        <v>6360.18</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10106.15</v>
+        <v>12306.12</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15577.98</v>
+        <v>15890.65</v>
       </c>
     </row>
     <row r="163">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2.07</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="168">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1657.97</v>
+        <v>1767.01</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>850.46</v>
+        <v>897.27</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2995.25</v>
+        <v>3228.34</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>104.05</v>
+        <v>114.64</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1977.29</v>
+        <v>2046.38</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>3431.82</v>
+        <v>3866.3</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1791.18</v>
+        <v>1889.02</v>
       </c>
     </row>
     <row r="191">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>210.18</v>
+        <v>211.23</v>
       </c>
     </row>
     <row r="192">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>59.71</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>6.18</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="197">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>238.37</v>
+        <v>239.78</v>
       </c>
     </row>
     <row r="198">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>175.92</v>
+        <v>183.2</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1107.63</v>
+        <v>1193.04</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>144.27</v>
+        <v>167.34</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>181.4</v>
+        <v>197.59</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>52.22</v>
+        <v>143.64</v>
       </c>
     </row>
     <row r="217">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>121.81</v>
+        <v>133.42</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>2214</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="219">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>1.52</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="224">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>286.02</v>
+        <v>383.32</v>
       </c>
     </row>
     <row r="227">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>308.38</v>
+        <v>295.89</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>324.05</v>
+        <v>311.57</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>340.55</v>
+        <v>325.59</v>
       </c>
     </row>
     <row r="230">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>334.08</v>
+        <v>319.12</v>
       </c>
     </row>
     <row r="231">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>342.52</v>
+        <v>327.56</v>
       </c>
     </row>
     <row r="232">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>455.4</v>
+        <v>427.95</v>
       </c>
     </row>
     <row r="233">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>286.02</v>
+        <v>383.32</v>
       </c>
     </row>
     <row r="234">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>308.38</v>
+        <v>295.89</v>
       </c>
     </row>
     <row r="235">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>324.05</v>
+        <v>311.57</v>
       </c>
     </row>
     <row r="236">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>340.55</v>
+        <v>325.59</v>
       </c>
     </row>
     <row r="237">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>334.08</v>
+        <v>319.12</v>
       </c>
     </row>
     <row r="238">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>342.52</v>
+        <v>327.56</v>
       </c>
     </row>
     <row r="239">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>455.4</v>
+        <v>427.95</v>
       </c>
     </row>
     <row r="240">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>13875.39</v>
+        <v>15563.42</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>28006.5</v>
+        <v>28796</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>15912.02</v>
+        <v>17931.34</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>22646.5</v>
+        <v>23993.5</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>26479</v>
+        <v>28400.5</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>26413</v>
+        <v>28558.5</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>24015.37</v>
+        <v>26266.3</v>
       </c>
     </row>
     <row r="247">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1543.74</v>
+        <v>1708.78</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>89097.34</v>
+        <v>94804.46000000001</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>4771.9</v>
+        <v>5260.51</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>25478.71</v>
+        <v>28677.64</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>4181.76</v>
+        <v>4945.7</v>
       </c>
     </row>
     <row r="273">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>12591.19</v>
+        <v>13715.74</v>
       </c>
     </row>
     <row r="275">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>5660.36</v>
+        <v>5847.15</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>5076.3</v>
+        <v>5082.79</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>5346.91</v>
+        <v>5353.4</v>
       </c>
     </row>
     <row r="285">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>5520.18</v>
+        <v>5536.28</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>5528.91</v>
+        <v>5553.26</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>6120.93</v>
+        <v>6186.69</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>6574.92</v>
+        <v>6665.43</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6994.01</v>
+        <v>7398.6</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>6229.5</v>
+        <v>6235.99</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>6574.36</v>
+        <v>6580.85</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>7004.48</v>
+        <v>7040.38</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>7042.91</v>
+        <v>7087.06</v>
       </c>
     </row>
     <row r="294">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>7889.18</v>
+        <v>8024.24</v>
       </c>
     </row>
     <row r="295">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>8602.07</v>
+        <v>8860.879999999999</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>6423.14</v>
+        <v>6426.85</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>3283.08</v>
+        <v>3383.18</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>565.4</v>
+        <v>606.98</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>120.53</v>
+        <v>127.46</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>791.8</v>
+        <v>794.8</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>439.47</v>
+        <v>598.61</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1356.97</v>
+        <v>1599.8</v>
       </c>
     </row>
     <row r="303">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>8.640000000000001</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="305">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>79.65000000000001</v>
+        <v>115.28</v>
       </c>
     </row>
     <row r="325">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>17.13</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>2759.2</v>
+        <v>6036.61</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>396.69</v>
+        <v>420.64</v>
       </c>
     </row>
     <row r="328">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>357.3</v>
+        <v>385.13</v>
       </c>
     </row>
     <row r="330">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>2.98</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="331">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>5.74</v>
+        <v>44.26</v>
       </c>
     </row>
     <row r="332">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>35.73</v>
+        <v>50.48</v>
       </c>
     </row>
     <row r="337">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>86002.42</v>
+        <v>95562.62</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>76324.91</v>
+        <v>81548.38</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>9359.549999999999</v>
+        <v>10614.9</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>61186.78</v>
+        <v>67416.32000000001</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>38155.71</v>
+        <v>40177.2</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>111637.46</v>
+        <v>115306.05</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>42726.48</v>
+        <v>44643.28</v>
       </c>
     </row>
     <row r="359">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>0</v>
+        <v>224.65</v>
       </c>
     </row>
     <row r="367">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>3558.21</v>
+        <v>4045.02</v>
       </c>
     </row>
     <row r="370">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>3508.71</v>
+        <v>4120.27</v>
       </c>
     </row>
     <row r="371">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>512.21</v>
+        <v>1123.78</v>
       </c>
     </row>
     <row r="372">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>12.38</v>
+        <v>424.28</v>
       </c>
     </row>
     <row r="373">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>0</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="374">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2358.21</v>
+        <v>2645.36</v>
       </c>
     </row>
     <row r="377">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>2209.71</v>
+        <v>2496.86</v>
       </c>
     </row>
     <row r="378">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>512.21</v>
+        <v>799.36</v>
       </c>
     </row>
     <row r="379">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>12.38</v>
+        <v>299.52</v>
       </c>
     </row>
     <row r="380">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>8396.5</v>
+        <v>9706</v>
       </c>
     </row>
     <row r="381">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>46565</v>
+        <v>51760</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>29135</v>
+        <v>37928.5</v>
       </c>
     </row>
     <row r="384">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>4548</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="386">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>88381.5</v>
+        <v>98562</v>
       </c>
     </row>
     <row r="387">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>2625.8</v>
+        <v>3285.95</v>
       </c>
     </row>
     <row r="392">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>39.12</v>
+        <v>43.33</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>137.03</v>
+        <v>148.7</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>162</v>
+        <v>184.24</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>40.37</v>
+        <v>42.72</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>112.63</v>
+        <v>134.48</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>137.12</v>
+        <v>151.69</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>666.54</v>
+        <v>727.51</v>
       </c>
     </row>
     <row r="415">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>353.79</v>
+        <v>469.29</v>
       </c>
     </row>
     <row r="423">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>753.37</v>
+        <v>720.37</v>
       </c>
     </row>
     <row r="428">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>976.75</v>
+        <v>894.25</v>
       </c>
     </row>
     <row r="429">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>2313.28</v>
+        <v>2406.94</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>4818.14</v>
+        <v>5138.71</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>4376.72</v>
+        <v>4839.1</v>
       </c>
     </row>
     <row r="439">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>193.42</v>
+        <v>206.2</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>300.53</v>
+        <v>312.48</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>5990.58</v>
+        <v>6380.06</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>5462.3</v>
+        <v>5851.08</v>
       </c>
     </row>
     <row r="443">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5388.19</v>
+        <v>6574.84</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3797.02</v>
+        <v>5908.88</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4466.95</v>
+        <v>4558.3</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4423.64</v>
+        <v>4511.69</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5466.65</v>
+        <v>5726.95</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4875.81</v>
+        <v>5220.71</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5529.74</v>
+        <v>5891.13</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13275.78</v>
+        <v>16521.55</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8432.879999999999</v>
+        <v>14173.79</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11167.15</v>
+        <v>11608.5</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11518.65</v>
+        <v>11956.7</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14539.39</v>
+        <v>15519.27</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14173.86</v>
+        <v>15543.88</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15252.29</v>
+        <v>16671.81</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1827917.96</v>
+        <v>1948488.04</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>273156.5</v>
+        <v>284912.29</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7731.04</v>
+        <v>9958.5</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>135543.5</v>
+        <v>155462</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>247.5</v>
+        <v>336.66</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>123706.2</v>
+        <v>130826.58</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>171664.68</v>
+        <v>190381.8</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10727.8</v>
+        <v>16958.73</v>
       </c>
     </row>
     <row r="24">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>985.71</v>
+        <v>940.17</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1173.75</v>
+        <v>1302.12</v>
       </c>
     </row>
     <row r="32">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1511.01</v>
+        <v>1473.72</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1480.71</v>
+        <v>1435.17</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1148.43</v>
+        <v>1102.89</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1722.43</v>
+        <v>1850.8</v>
       </c>
     </row>
     <row r="39">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1588.55</v>
+        <v>1551.25</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1677.6</v>
+        <v>1632.05</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>12247.66</v>
+        <v>12948.28</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1205.06</v>
+        <v>1419.67</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>27136.86</v>
+        <v>28939.31</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5010.2</v>
+        <v>5469.34</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2638.72</v>
+        <v>2871.57</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3033.57</v>
+        <v>3468.51</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6414.79</v>
+        <v>6852.72</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.76</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="52">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>44801.38</v>
+        <v>47462.8</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>53374.3</v>
+        <v>58684.82</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>25822.14</v>
+        <v>27648.68</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>10773.57</v>
+        <v>11423.66</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>32307.6</v>
+        <v>35699.16</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>7489.59</v>
+        <v>8253.66</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>13118.09</v>
+        <v>14206.7</v>
       </c>
     </row>
     <row r="79">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>16.6</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="84">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1560.22</v>
+        <v>1560.4</v>
       </c>
     </row>
     <row r="86">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>16556.36</v>
+        <v>18308.25</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>28986.22</v>
+        <v>32900.77</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>33398.07</v>
+        <v>37087.62</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2999.54</v>
+        <v>3355.45</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>22320.36</v>
+        <v>23947.59</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2538.17</v>
+        <v>3132.5</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>40369.06</v>
+        <v>46024.85</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>100.62</v>
+        <v>100.96</v>
       </c>
     </row>
     <row r="108">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>35.08</v>
+        <v>40.06</v>
       </c>
     </row>
     <row r="109">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1984.63</v>
+        <v>1986.88</v>
       </c>
     </row>
     <row r="110">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>140.27</v>
+        <v>149.81</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>8.289999999999999</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="112">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>61.54</v>
+        <v>65.59</v>
       </c>
     </row>
     <row r="113">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1584.01</v>
+        <v>1586.72</v>
       </c>
     </row>
     <row r="114">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>156.54</v>
+        <v>205.89</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>936.46</v>
+        <v>1021.91</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1008.64</v>
+        <v>1230.7</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3982.52</v>
+        <v>4258.41</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>753.55</v>
+        <v>811.72</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1999.28</v>
+        <v>2223.34</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7480.1</v>
+        <v>8083.57</v>
       </c>
     </row>
     <row r="135">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>17124.75</v>
+        <v>19009.06</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>4264.03</v>
+        <v>4784.54</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2327.04</v>
+        <v>2628.14</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1066.32</v>
+        <v>1190.97</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>6360.18</v>
+        <v>6960.32</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>12306.12</v>
+        <v>14160.09</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15890.65</v>
+        <v>16931.44</v>
       </c>
     </row>
     <row r="163">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="168">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1767.01</v>
+        <v>1924.61</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>897.27</v>
+        <v>956.05</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>3228.34</v>
+        <v>3422.66</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>114.64</v>
+        <v>124.29</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2046.38</v>
+        <v>2232.44</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>3866.3</v>
+        <v>4370.03</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1889.02</v>
+        <v>2097.92</v>
       </c>
     </row>
     <row r="191">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>211.23</v>
+        <v>218.89</v>
       </c>
     </row>
     <row r="192">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>28.5</v>
+        <v>29.04</v>
       </c>
     </row>
     <row r="194">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>68.7</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>8.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="197">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>239.78</v>
+        <v>241.17</v>
       </c>
     </row>
     <row r="198">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>183.2</v>
+        <v>198.76</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1193.04</v>
+        <v>1262.52</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>167.34</v>
+        <v>196.51</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>197.59</v>
+        <v>212.16</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>143.64</v>
+        <v>163.53</v>
       </c>
     </row>
     <row r="217">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>2405</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="219">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>1.95</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="224">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>15563.42</v>
+        <v>16884.92</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>28796</v>
+        <v>30901.5</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>17931.34</v>
+        <v>19950.9</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>23993.5</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>28400.5</v>
+        <v>29197.5</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>28558.5</v>
+        <v>30836</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>26266.3</v>
+        <v>28858.7</v>
       </c>
     </row>
     <row r="247">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>1388.82</v>
       </c>
     </row>
     <row r="249">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1708.78</v>
+        <v>1837.77</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>94804.46000000001</v>
+        <v>100492.68</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>5260.51</v>
+        <v>6112.4</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>28677.64</v>
+        <v>31687.81</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>4945.7</v>
+        <v>5580.22</v>
       </c>
     </row>
     <row r="273">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>501.71</v>
+        <v>577</v>
       </c>
     </row>
     <row r="274">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>13715.74</v>
+        <v>14949.89</v>
       </c>
     </row>
     <row r="275">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>5847.15</v>
+        <v>6454.08</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>5082.79</v>
+        <v>5990.6</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>5353.4</v>
+        <v>5380.23</v>
       </c>
     </row>
     <row r="285">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>5536.28</v>
+        <v>5561.46</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>5553.26</v>
+        <v>5605.87</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>6186.69</v>
+        <v>6414.13</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>6665.43</v>
+        <v>6950.61</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>7398.6</v>
+        <v>8481.92</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>6235.99</v>
+        <v>7771.99</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>6580.85</v>
+        <v>6607.68</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>7040.38</v>
+        <v>7062.26</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>7087.06</v>
+        <v>7235.97</v>
       </c>
     </row>
     <row r="294">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>8024.24</v>
+        <v>8414.23</v>
       </c>
     </row>
     <row r="295">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>8860.879999999999</v>
+        <v>9374.950000000001</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>6426.85</v>
+        <v>6804.51</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>3383.18</v>
+        <v>3682.79</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>606.98</v>
+        <v>646.42</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>127.46</v>
+        <v>250.95</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>794.8</v>
+        <v>854.1799999999999</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>598.61</v>
+        <v>734.21</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1599.8</v>
+        <v>1844.91</v>
       </c>
     </row>
     <row r="303">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>10.04</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="305">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>115.28</v>
+        <v>142.09</v>
       </c>
     </row>
     <row r="325">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>26.88</v>
+        <v>38.51</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>6036.61</v>
+        <v>8725.35</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>420.64</v>
+        <v>443.9</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>72.36</v>
+        <v>77.52</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>385.13</v>
+        <v>406</v>
       </c>
     </row>
     <row r="330">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>14.22</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="331">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>44.26</v>
+        <v>71.48999999999999</v>
       </c>
     </row>
     <row r="332">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>50.48</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="337">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>95562.62</v>
+        <v>103813.59</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>81548.38</v>
+        <v>86745.67999999999</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>10614.9</v>
+        <v>11880.17</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>67416.32000000001</v>
+        <v>72053.38</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>40177.2</v>
+        <v>43467.98</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>115306.05</v>
+        <v>122984.3</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>44643.28</v>
+        <v>48696.1</v>
       </c>
     </row>
     <row r="359">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>224.65</v>
+        <v>249.2</v>
       </c>
     </row>
     <row r="367">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>0</v>
+        <v>149.3</v>
       </c>
     </row>
     <row r="368">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>4120.27</v>
+        <v>4095.32</v>
       </c>
     </row>
     <row r="371">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1123.78</v>
+        <v>1098.82</v>
       </c>
     </row>
     <row r="372">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>424.28</v>
+        <v>399.32</v>
       </c>
     </row>
     <row r="373">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>99.90000000000001</v>
+        <v>149.4</v>
       </c>
     </row>
     <row r="374">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>0</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="375">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>9706</v>
+        <v>10707</v>
       </c>
     </row>
     <row r="381">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>51760</v>
+        <v>58286.5</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>37928.5</v>
+        <v>44220</v>
       </c>
     </row>
     <row r="384">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="386">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>98562</v>
+        <v>105100</v>
       </c>
     </row>
     <row r="387">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>3285.95</v>
+        <v>3945.66</v>
       </c>
     </row>
     <row r="392">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>43.33</v>
+        <v>55.98</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>148.7</v>
+        <v>164.2</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>184.24</v>
+        <v>204.12</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>42.72</v>
+        <v>47.31</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>134.48</v>
+        <v>156.42</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>151.69</v>
+        <v>177.91</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>727.51</v>
+        <v>796.28</v>
       </c>
     </row>
     <row r="415">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>469.29</v>
+        <v>365.7</v>
       </c>
     </row>
     <row r="423">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>365.83</v>
+        <v>262.24</v>
       </c>
     </row>
     <row r="424">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>488.86</v>
+        <v>220.74</v>
       </c>
     </row>
     <row r="425">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>583.7</v>
+        <v>266.08</v>
       </c>
     </row>
     <row r="426">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>600.2</v>
+        <v>282.58</v>
       </c>
     </row>
     <row r="427">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>720.37</v>
+        <v>402.75</v>
       </c>
     </row>
     <row r="428">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>894.25</v>
+        <v>485.41</v>
       </c>
     </row>
     <row r="429">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>353.79</v>
+        <v>250.2</v>
       </c>
     </row>
     <row r="430">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>365.83</v>
+        <v>262.24</v>
       </c>
     </row>
     <row r="431">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>488.86</v>
+        <v>220.74</v>
       </c>
     </row>
     <row r="432">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>583.7</v>
+        <v>266.08</v>
       </c>
     </row>
     <row r="433">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>600.2</v>
+        <v>282.58</v>
       </c>
     </row>
     <row r="434">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>654.37</v>
+        <v>336.75</v>
       </c>
     </row>
     <row r="435">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>778.75</v>
+        <v>369.91</v>
       </c>
     </row>
     <row r="436">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>2406.94</v>
+        <v>2629.58</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>5138.71</v>
+        <v>5445.77</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>4839.1</v>
+        <v>4873.69</v>
       </c>
     </row>
     <row r="439">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>206.2</v>
+        <v>216.93</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>312.48</v>
+        <v>372.07</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>6380.06</v>
+        <v>6833.02</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>5851.08</v>
+        <v>6523.06</v>
       </c>
     </row>
     <row r="443">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6574.84</v>
+        <v>6501.28</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5908.88</v>
+        <v>5810.83</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4558.3</v>
+        <v>7563.17</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4511.69</v>
+        <v>4479.51</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5726.95</v>
+        <v>5668.83</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5220.71</v>
+        <v>5146.98</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5891.13</v>
+        <v>5817.41</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16521.55</v>
+        <v>16331.24</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14173.79</v>
+        <v>13909.47</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11608.5</v>
+        <v>18363.75</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11956.7</v>
+        <v>11923.27</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15519.27</v>
+        <v>15459.89</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15543.88</v>
+        <v>15436.23</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16671.81</v>
+        <v>16564.16</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1948488.04</v>
+        <v>1949347.74</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>284912.29</v>
+        <v>290412.29</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9958.5</v>
+        <v>9977.16</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>155462</v>
+        <v>159626.35</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>336.66</v>
+        <v>344.7</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>130826.58</v>
+        <v>130911.09</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>190381.8</v>
+        <v>200502.32</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>16958.73</v>
+        <v>22964.72</v>
       </c>
     </row>
     <row r="24">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>940.17</v>
+        <v>965.05</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1302.12</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1363.62</v>
+        <v>1388.5</v>
       </c>
     </row>
     <row r="33">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1435.17</v>
+        <v>1460.05</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1102.89</v>
+        <v>1127.76</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1850.8</v>
+        <v>1875.68</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2128.45</v>
+        <v>2153.33</v>
       </c>
     </row>
     <row r="40">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1632.05</v>
+        <v>1656.93</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>12948.28</v>
+        <v>13571.82</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1419.67</v>
+        <v>1578.22</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>28939.31</v>
+        <v>30551.5</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5469.34</v>
+        <v>5928.77</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2871.57</v>
+        <v>3033.08</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3468.51</v>
+        <v>3852.5</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6852.72</v>
+        <v>7200.72</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3.04</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="52">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>47462.8</v>
+        <v>49129.3</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>58684.82</v>
+        <v>62617.31</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>27648.68</v>
+        <v>29071.94</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>11423.66</v>
+        <v>11781.7</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>35699.16</v>
+        <v>39170.16</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>8253.66</v>
+        <v>8773.66</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>14206.7</v>
+        <v>14746.94</v>
       </c>
     </row>
     <row r="79">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2300.93</v>
+        <v>2661.75</v>
       </c>
     </row>
     <row r="81">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2.44</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="83">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.68</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1560.4</v>
+        <v>1560.58</v>
       </c>
     </row>
     <row r="86">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>18308.25</v>
+        <v>19924.51</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>32900.77</v>
+        <v>36206.98</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>37087.62</v>
+        <v>37857.39</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3355.45</v>
+        <v>3601.19</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>23947.59</v>
+        <v>25662.55</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3132.5</v>
+        <v>3570.99</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>46024.85</v>
+        <v>48590.33</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>100.96</v>
+        <v>101.32</v>
       </c>
     </row>
     <row r="108">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>40.06</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="109">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1986.88</v>
+        <v>1990.43</v>
       </c>
     </row>
     <row r="110">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>149.81</v>
+        <v>150.48</v>
       </c>
     </row>
     <row r="111">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>65.59</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="113">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1586.72</v>
+        <v>1589.46</v>
       </c>
     </row>
     <row r="114">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>205.89</v>
+        <v>243.32</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1021.91</v>
+        <v>1282.88</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1230.7</v>
+        <v>1282.54</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4258.41</v>
+        <v>4358.37</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>811.72</v>
+        <v>866.79</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2223.34</v>
+        <v>2384.15</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>8083.57</v>
+        <v>8181.79</v>
       </c>
     </row>
     <row r="135">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>19009.06</v>
+        <v>20143.47</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>4784.54</v>
+        <v>5358.04</v>
       </c>
     </row>
     <row r="158">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1190.97</v>
+        <v>1240.41</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>6960.32</v>
+        <v>7489.24</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>14160.09</v>
+        <v>14484.73</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>16931.44</v>
+        <v>17229.28</v>
       </c>
     </row>
     <row r="163">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="168">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1924.61</v>
+        <v>2049.47</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>956.05</v>
+        <v>998.71</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>3422.66</v>
+        <v>3598.77</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>124.29</v>
+        <v>134.9</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2232.44</v>
+        <v>2278.77</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>4370.03</v>
+        <v>4734.05</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2097.92</v>
+        <v>2220.85</v>
       </c>
     </row>
     <row r="191">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>218.89</v>
+        <v>223.89</v>
       </c>
     </row>
     <row r="192">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>29.04</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>77.8</v>
+        <v>84.23999999999999</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>11.1</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="197">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>241.17</v>
+        <v>242.76</v>
       </c>
     </row>
     <row r="198">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>198.76</v>
+        <v>204.02</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1262.52</v>
+        <v>1301.85</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>196.51</v>
+        <v>225.72</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>212.16</v>
+        <v>216.24</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>163.53</v>
+        <v>182.94</v>
       </c>
     </row>
     <row r="217">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>133.42</v>
+        <v>145.95</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>2625</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="219">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="223">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>383.32</v>
+        <v>399.82</v>
       </c>
     </row>
     <row r="227">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>295.89</v>
+        <v>312.39</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>311.57</v>
+        <v>328.07</v>
       </c>
     </row>
     <row r="229">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>383.32</v>
+        <v>399.82</v>
       </c>
     </row>
     <row r="234">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>295.89</v>
+        <v>312.39</v>
       </c>
     </row>
     <row r="235">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>311.57</v>
+        <v>328.07</v>
       </c>
     </row>
     <row r="236">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>16884.92</v>
+        <v>17083.23</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>30901.5</v>
+        <v>32768</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>19950.9</v>
+        <v>22613.9</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>26800</v>
+        <v>27181.5</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>29197.5</v>
+        <v>31206</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>30836</v>
+        <v>31163</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>28858.7</v>
+        <v>30277.56</v>
       </c>
     </row>
     <row r="247">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1388.82</v>
+        <v>3258.99</v>
       </c>
     </row>
     <row r="249">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1837.77</v>
+        <v>1904.77</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>100492.68</v>
+        <v>100548.3</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>6112.4</v>
+        <v>6940.36</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>31687.81</v>
+        <v>31847.97</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5580.22</v>
+        <v>6178.25</v>
       </c>
     </row>
     <row r="273">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>577</v>
+        <v>643.5</v>
       </c>
     </row>
     <row r="274">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>14949.89</v>
+        <v>16131.38</v>
       </c>
     </row>
     <row r="275">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>6454.08</v>
+        <v>6600.39</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>5990.6</v>
+        <v>6385.17</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>5380.23</v>
+        <v>6209.41</v>
       </c>
     </row>
     <row r="285">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>5561.46</v>
+        <v>5560.01</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>5605.87</v>
+        <v>5612.66</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>6414.13</v>
+        <v>6420.19</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>6950.61</v>
+        <v>6956.67</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>8481.92</v>
+        <v>8710.639999999999</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>7771.99</v>
+        <v>8447.469999999999</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>6607.68</v>
+        <v>7883.11</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>7062.26</v>
+        <v>7060.81</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>7235.97</v>
+        <v>7242.76</v>
       </c>
     </row>
     <row r="294">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>8414.23</v>
+        <v>8420.290000000001</v>
       </c>
     </row>
     <row r="295">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>9374.950000000001</v>
+        <v>9364.42</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>6804.51</v>
+        <v>7181.57</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>3682.79</v>
+        <v>3980.85</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>646.42</v>
+        <v>687.52</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>250.95</v>
+        <v>340.84</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>854.1799999999999</v>
+        <v>910.13</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>734.21</v>
+        <v>863.55</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1844.91</v>
+        <v>1942.67</v>
       </c>
     </row>
     <row r="303">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>15.52</v>
+        <v>19.74</v>
       </c>
     </row>
     <row r="305">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>142.09</v>
+        <v>157.38</v>
       </c>
     </row>
     <row r="325">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>38.51</v>
+        <v>50.56</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>8725.35</v>
+        <v>11153.45</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>443.9</v>
+        <v>466.8</v>
       </c>
     </row>
     <row r="328">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>406</v>
+        <v>427.98</v>
       </c>
     </row>
     <row r="330">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>71.48999999999999</v>
+        <v>98.84</v>
       </c>
     </row>
     <row r="332">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>64.40000000000001</v>
+        <v>78.36</v>
       </c>
     </row>
     <row r="337">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>103813.59</v>
+        <v>110822.78</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>86745.67999999999</v>
+        <v>87954.23</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>11880.17</v>
+        <v>12646.14</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>72053.38</v>
+        <v>75398.05</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>43467.98</v>
+        <v>45483.64</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>122984.3</v>
+        <v>126741.66</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>48696.1</v>
+        <v>51934.46</v>
       </c>
     </row>
     <row r="359">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>249.2</v>
+        <v>1788.62</v>
       </c>
     </row>
     <row r="367">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>149.3</v>
+        <v>1738.22</v>
       </c>
     </row>
     <row r="368">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>0</v>
+        <v>1687.92</v>
       </c>
     </row>
     <row r="369">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>4095.32</v>
+        <v>5634.74</v>
       </c>
     </row>
     <row r="371">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1098.82</v>
+        <v>2638.24</v>
       </c>
     </row>
     <row r="372">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>399.32</v>
+        <v>1938.74</v>
       </c>
     </row>
     <row r="373">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>149.4</v>
+        <v>1921.82</v>
       </c>
     </row>
     <row r="374">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>49.5</v>
+        <v>1821.92</v>
       </c>
     </row>
     <row r="375">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>0</v>
+        <v>1772.42</v>
       </c>
     </row>
     <row r="376">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>2496.86</v>
+        <v>4269.27</v>
       </c>
     </row>
     <row r="378">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>799.36</v>
+        <v>2571.78</v>
       </c>
     </row>
     <row r="379">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>299.52</v>
+        <v>2071.94</v>
       </c>
     </row>
     <row r="380">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>10707</v>
+        <v>11871.5</v>
       </c>
     </row>
     <row r="381">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>58286.5</v>
+        <v>65009</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>44220</v>
+        <v>54601</v>
       </c>
     </row>
     <row r="384">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="386">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>105100</v>
+        <v>112383</v>
       </c>
     </row>
     <row r="387">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>365.7</v>
+        <v>729.38</v>
       </c>
     </row>
     <row r="423">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>262.24</v>
+        <v>650.66</v>
       </c>
     </row>
     <row r="424">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>220.74</v>
+        <v>741.64</v>
       </c>
     </row>
     <row r="425">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>266.08</v>
+        <v>515.86</v>
       </c>
     </row>
     <row r="426">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>282.58</v>
+        <v>532.36</v>
       </c>
     </row>
     <row r="427">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>402.75</v>
+        <v>652.53</v>
       </c>
     </row>
     <row r="428">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>485.41</v>
+        <v>849.08</v>
       </c>
     </row>
     <row r="429">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>250.2</v>
+        <v>613.88</v>
       </c>
     </row>
     <row r="430">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>262.24</v>
+        <v>650.66</v>
       </c>
     </row>
     <row r="431">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>220.74</v>
+        <v>741.64</v>
       </c>
     </row>
     <row r="432">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>266.08</v>
+        <v>515.86</v>
       </c>
     </row>
     <row r="433">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>282.58</v>
+        <v>532.36</v>
       </c>
     </row>
     <row r="434">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>336.75</v>
+        <v>586.53</v>
       </c>
     </row>
     <row r="435">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>369.91</v>
+        <v>733.58</v>
       </c>
     </row>
     <row r="436">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6501.28</v>
+        <v>6559.4</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5810.83</v>
+        <v>5893.61</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7563.17</v>
+        <v>7136.22</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4479.51</v>
+        <v>7294.68</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5668.83</v>
+        <v>5809.67</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5146.98</v>
+        <v>5309.34</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5817.41</v>
+        <v>6009.57</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16331.24</v>
+        <v>16035.7</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13909.47</v>
+        <v>13622.09</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18363.75</v>
+        <v>16629.27</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11923.27</v>
+        <v>16404.64</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15459.89</v>
+        <v>15561.87</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15436.23</v>
+        <v>15553.09</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16564.16</v>
+        <v>16710.83</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1949347.74</v>
+        <v>2081898.32</v>
       </c>
     </row>
     <row r="17">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9977.16</v>
+        <v>9985.360000000001</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>159626.35</v>
+        <v>159959</v>
       </c>
     </row>
     <row r="20">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>130911.09</v>
+        <v>136853.9</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>200502.32</v>
+        <v>399323.62</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>22964.72</v>
+        <v>28914.9</v>
       </c>
     </row>
     <row r="24">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>965.05</v>
+        <v>1007.32</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1327</v>
+        <v>1468.44</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1388.5</v>
+        <v>1529.94</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1164.3</v>
+        <v>1305.74</v>
       </c>
     </row>
     <row r="34">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1460.05</v>
+        <v>1489.95</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1127.76</v>
+        <v>1170.04</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1875.68</v>
+        <v>2017.12</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2153.33</v>
+        <v>2294.77</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1784.08</v>
+        <v>1925.52</v>
       </c>
     </row>
     <row r="41">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1656.93</v>
+        <v>1686.83</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>13571.82</v>
+        <v>14115.5</v>
       </c>
     </row>
     <row r="45">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>30551.5</v>
+        <v>31998.2</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5928.77</v>
+        <v>6282.1</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3033.08</v>
+        <v>3111.8</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3852.5</v>
+        <v>4010.2</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>7200.72</v>
+        <v>7304.68</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.31</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="52">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>49129.3</v>
+        <v>50210.8</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>62617.31</v>
+        <v>65501</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>29071.94</v>
+        <v>30187.17</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>11781.7</v>
+        <v>12162.87</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>39170.16</v>
+        <v>40944.84</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>8773.66</v>
+        <v>9535.16</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>14746.94</v>
+        <v>15499.54</v>
       </c>
     </row>
     <row r="79">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2661.75</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="81">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2.63</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="83">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1560.58</v>
+        <v>1560.76</v>
       </c>
     </row>
     <row r="86">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>19924.51</v>
+        <v>20288.5</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>36206.98</v>
+        <v>37203.98</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>37857.39</v>
+        <v>38036.54</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3601.19</v>
+        <v>4042.43</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>25662.55</v>
+        <v>26423.41</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3570.99</v>
+        <v>3658.81</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48590.33</v>
+        <v>52452.93</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>101.32</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="108">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>45.3</v>
+        <v>50.59</v>
       </c>
     </row>
     <row r="109">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1990.43</v>
+        <v>1993.72</v>
       </c>
     </row>
     <row r="110">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>150.48</v>
+        <v>151.23</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>8.460000000000001</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="112">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1589.46</v>
+        <v>1592.14</v>
       </c>
     </row>
     <row r="114">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>238.11</v>
+        <v>262.86</v>
       </c>
     </row>
     <row r="117">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>294.21</v>
+        <v>318.96</v>
       </c>
     </row>
     <row r="118">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>697.22</v>
+        <v>721.97</v>
       </c>
     </row>
     <row r="124">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1042.07</v>
+        <v>1066.82</v>
       </c>
     </row>
     <row r="125">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>243.32</v>
+        <v>267.35</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1282.88</v>
+        <v>1397.34</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1282.54</v>
+        <v>1340.46</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4358.37</v>
+        <v>4434.51</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>866.79</v>
+        <v>870.25</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2384.15</v>
+        <v>2515.72</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>8181.79</v>
+        <v>8696.24</v>
       </c>
     </row>
     <row r="135">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1992.76</v>
+        <v>2356.57</v>
       </c>
     </row>
     <row r="143">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2767.72</v>
+        <v>3131.53</v>
       </c>
     </row>
     <row r="144">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3127.9</v>
+        <v>3491.71</v>
       </c>
     </row>
     <row r="145">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>3174</v>
+        <v>3537.81</v>
       </c>
     </row>
     <row r="146">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>3138.91</v>
+        <v>3303.05</v>
       </c>
     </row>
     <row r="147">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3060.86</v>
+        <v>3424.67</v>
       </c>
     </row>
     <row r="148">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3971.84</v>
+        <v>4335.65</v>
       </c>
     </row>
     <row r="149">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1571.01</v>
+        <v>2051.39</v>
       </c>
     </row>
     <row r="150">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2036.34</v>
+        <v>2666.61</v>
       </c>
     </row>
     <row r="151">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2159.14</v>
+        <v>2789.41</v>
       </c>
     </row>
     <row r="152">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2254.74</v>
+        <v>2885.01</v>
       </c>
     </row>
     <row r="153">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2269.4</v>
+        <v>2583.44</v>
       </c>
     </row>
     <row r="154">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2240.92</v>
+        <v>2721.3</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>3220.46</v>
+        <v>3700.83</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>20143.47</v>
+        <v>21250.33</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>5358.04</v>
+        <v>5772.54</v>
       </c>
     </row>
     <row r="158">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1240.41</v>
+        <v>1290.48</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>7489.24</v>
+        <v>7922.24</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>14484.73</v>
+        <v>14859.66</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>17229.28</v>
+        <v>18229.1</v>
       </c>
     </row>
     <row r="163">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2049.47</v>
+        <v>2148.66</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>998.71</v>
+        <v>1001.78</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>3598.77</v>
+        <v>3605.47</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>134.9</v>
+        <v>143.32</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2278.77</v>
+        <v>2385.03</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>4734.05</v>
+        <v>5440.45</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2220.85</v>
+        <v>2315.96</v>
       </c>
     </row>
     <row r="191">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>223.89</v>
+        <v>228.84</v>
       </c>
     </row>
     <row r="192">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>30</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="194">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>84.23999999999999</v>
+        <v>84.45</v>
       </c>
     </row>
     <row r="196">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>242.76</v>
+        <v>244.19</v>
       </c>
     </row>
     <row r="198">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>204.02</v>
+        <v>207.75</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1301.85</v>
+        <v>1607.42</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>225.72</v>
+        <v>264.54</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>216.24</v>
+        <v>232.65</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>182.94</v>
+        <v>203.05</v>
       </c>
     </row>
     <row r="217">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>2850</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="219">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="223">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>399.82</v>
+        <v>395.7</v>
       </c>
     </row>
     <row r="227">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>312.39</v>
+        <v>324.77</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>328.07</v>
+        <v>340.44</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>325.59</v>
+        <v>354.47</v>
       </c>
     </row>
     <row r="230">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>399.82</v>
+        <v>395.7</v>
       </c>
     </row>
     <row r="234">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>312.39</v>
+        <v>324.77</v>
       </c>
     </row>
     <row r="235">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>328.07</v>
+        <v>340.44</v>
       </c>
     </row>
     <row r="236">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>325.59</v>
+        <v>354.47</v>
       </c>
     </row>
     <row r="237">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>17083.23</v>
+        <v>17216.98</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>32768</v>
+        <v>34442</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>22613.9</v>
+        <v>25434.8</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>27181.5</v>
+        <v>29725.5</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>31206</v>
+        <v>31974</v>
       </c>
     </row>
     <row r="245">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>30277.56</v>
+        <v>31532.56</v>
       </c>
     </row>
     <row r="247">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>3258.99</v>
+        <v>4628.4</v>
       </c>
     </row>
     <row r="249">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1904.77</v>
+        <v>2012.16</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>100548.3</v>
+        <v>100570.16</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>6940.36</v>
+        <v>7524.14</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>31847.97</v>
+        <v>35818</v>
       </c>
     </row>
     <row r="272">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>16131.38</v>
+        <v>17125.22</v>
       </c>
     </row>
     <row r="275">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>6600.39</v>
+        <v>6592.28</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>6385.17</v>
+        <v>6787.95</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>6209.41</v>
+        <v>7280.44</v>
       </c>
     </row>
     <row r="285">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>5560.01</v>
+        <v>6680.54</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>5612.66</v>
+        <v>5627.56</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>6420.19</v>
+        <v>6451.67</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>6956.67</v>
+        <v>6998.06</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>8710.639999999999</v>
+        <v>8653.030000000001</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>8447.469999999999</v>
+        <v>9015.25</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>7883.11</v>
+        <v>9366.639999999999</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>7060.81</v>
+        <v>8643.34</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>7242.76</v>
+        <v>7257.66</v>
       </c>
     </row>
     <row r="294">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>8420.290000000001</v>
+        <v>8451.77</v>
       </c>
     </row>
     <row r="295">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>9364.42</v>
+        <v>9405.809999999999</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>7181.57</v>
+        <v>7336.49</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>3980.85</v>
+        <v>4245.62</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>687.52</v>
+        <v>698.6799999999999</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>340.84</v>
+        <v>426.77</v>
       </c>
     </row>
     <row r="300">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>863.55</v>
+        <v>1002.73</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1942.67</v>
+        <v>1986.7</v>
       </c>
     </row>
     <row r="303">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>19.74</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="305">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>157.38</v>
+        <v>172.22</v>
       </c>
     </row>
     <row r="325">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>50.56</v>
+        <v>72.03</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>11153.45</v>
+        <v>11160.49</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>466.8</v>
+        <v>489.75</v>
       </c>
     </row>
     <row r="328">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>427.98</v>
+        <v>449.46</v>
       </c>
     </row>
     <row r="330">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>23.43</v>
+        <v>32.36</v>
       </c>
     </row>
     <row r="331">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>98.84</v>
+        <v>126.9</v>
       </c>
     </row>
     <row r="332">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>110822.78</v>
+        <v>112717.55</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>87954.23</v>
+        <v>89842.48</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>12646.14</v>
+        <v>13021.22</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>75398.05</v>
+        <v>77307.16</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>45483.64</v>
+        <v>47111.42</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>126741.66</v>
+        <v>127704.16</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>51934.46</v>
+        <v>54571.96</v>
       </c>
     </row>
     <row r="359">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>1788.62</v>
+        <v>3606.92</v>
       </c>
     </row>
     <row r="367">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>1738.22</v>
+        <v>3919.52</v>
       </c>
     </row>
     <row r="368">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1687.92</v>
+        <v>3869.22</v>
       </c>
     </row>
     <row r="369">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>4045.02</v>
+        <v>5995.32</v>
       </c>
     </row>
     <row r="370">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>1938.74</v>
+        <v>3476.54</v>
       </c>
     </row>
     <row r="373">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>1921.82</v>
+        <v>3876.62</v>
       </c>
     </row>
     <row r="374">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>1821.92</v>
+        <v>4123.22</v>
       </c>
     </row>
     <row r="375">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1772.42</v>
+        <v>4172.72</v>
       </c>
     </row>
     <row r="376">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2645.36</v>
+        <v>4501.16</v>
       </c>
     </row>
     <row r="377">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>2071.94</v>
+        <v>3529.74</v>
       </c>
     </row>
     <row r="380">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>11871.5</v>
+        <v>12420</v>
       </c>
     </row>
     <row r="381">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>65009</v>
+        <v>72382.5</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>54601</v>
+        <v>61700</v>
       </c>
     </row>
     <row r="384">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>112383</v>
+        <v>112974.5</v>
       </c>
     </row>
     <row r="387">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>55.98</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>164.2</v>
+        <v>178.66</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>204.12</v>
+        <v>208.3</v>
       </c>
     </row>
     <row r="411">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>177.91</v>
+        <v>193.75</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>796.28</v>
+        <v>829.91</v>
       </c>
     </row>
     <row r="415">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>729.38</v>
+        <v>714.34</v>
       </c>
     </row>
     <row r="423">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>650.66</v>
+        <v>710.38</v>
       </c>
     </row>
     <row r="424">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>741.64</v>
+        <v>815.0700000000001</v>
       </c>
     </row>
     <row r="425">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>515.86</v>
+        <v>860.28</v>
       </c>
     </row>
     <row r="426">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>532.36</v>
+        <v>507.61</v>
       </c>
     </row>
     <row r="427">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>652.53</v>
+        <v>627.77</v>
       </c>
     </row>
     <row r="428">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>849.08</v>
+        <v>834.05</v>
       </c>
     </row>
     <row r="429">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>613.88</v>
+        <v>598.84</v>
       </c>
     </row>
     <row r="430">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>650.66</v>
+        <v>710.38</v>
       </c>
     </row>
     <row r="431">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>741.64</v>
+        <v>815.0700000000001</v>
       </c>
     </row>
     <row r="432">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>515.86</v>
+        <v>860.28</v>
       </c>
     </row>
     <row r="433">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>532.36</v>
+        <v>507.61</v>
       </c>
     </row>
     <row r="434">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>586.53</v>
+        <v>561.77</v>
       </c>
     </row>
     <row r="435">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>733.58</v>
+        <v>718.55</v>
       </c>
     </row>
     <row r="436">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>2629.58</v>
+        <v>2789.82</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>5445.77</v>
+        <v>5662.77</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>4873.69</v>
+        <v>5187.69</v>
       </c>
     </row>
     <row r="439">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>372.07</v>
+        <v>413.31</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>6833.02</v>
+        <v>7212.62</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>6523.06</v>
+        <v>6926.56</v>
       </c>
     </row>
     <row r="443">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="448">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6559.4</v>
+        <v>6539.22</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5893.61</v>
+        <v>5861.06</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7136.22</v>
+        <v>7966</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7294.68</v>
+        <v>9322.959999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5809.67</v>
+        <v>9252.25</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5309.34</v>
+        <v>5302.29</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6009.57</v>
+        <v>6014.22</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16035.7</v>
+        <v>16015.52</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13622.09</v>
+        <v>13589.54</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16629.27</v>
+        <v>19024.72</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>16404.64</v>
+        <v>21446.08</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15561.87</v>
+        <v>22419.62</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15553.09</v>
+        <v>15546.04</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16710.83</v>
+        <v>16715.48</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2081898.32</v>
+        <v>2196486.5</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>290412.29</v>
+        <v>305951.62</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9985.360000000001</v>
+        <v>13229.78</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>159959</v>
+        <v>192970</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>344.7</v>
+        <v>8051.14</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>136853.9</v>
+        <v>156313.85</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>399323.62</v>
+        <v>410024.62</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28914.9</v>
+        <v>34914.36</v>
       </c>
     </row>
     <row r="24">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1007.32</v>
+        <v>999.86</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1468.44</v>
+        <v>1436.19</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1529.94</v>
+        <v>1497.69</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1305.74</v>
+        <v>1273.49</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>855.9</v>
+        <v>965.09</v>
       </c>
     </row>
     <row r="35">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1489.95</v>
+        <v>1484.96</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1170.04</v>
+        <v>1162.58</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2017.12</v>
+        <v>1984.87</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2294.77</v>
+        <v>2262.52</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1925.52</v>
+        <v>1893.27</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>867.46</v>
+        <v>976.65</v>
       </c>
     </row>
     <row r="42">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1686.83</v>
+        <v>1681.85</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>14115.5</v>
+        <v>14222.24</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1578.22</v>
+        <v>1730.52</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>31998.2</v>
+        <v>33476.69</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6282.1</v>
+        <v>6480.04</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3111.8</v>
+        <v>3306.01</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4010.2</v>
+        <v>4030.1</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>7304.68</v>
+        <v>7971.28</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5.58</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="52">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>50210.8</v>
+        <v>52421.3</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>65501</v>
+        <v>71187.58</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>30187.17</v>
+        <v>31721.79</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>12162.87</v>
+        <v>13141.46</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>40944.84</v>
+        <v>43203.91</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>9535.16</v>
+        <v>10175.66</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>15499.54</v>
+        <v>16433.42</v>
       </c>
     </row>
     <row r="79">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2855</v>
+        <v>3052.21</v>
       </c>
     </row>
     <row r="81">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2.94</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="83">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>20288.5</v>
+        <v>21728.85</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>37203.98</v>
+        <v>40612.21</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>38036.54</v>
+        <v>40671.28</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4042.43</v>
+        <v>4229.39</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>26423.41</v>
+        <v>27758.09</v>
       </c>
     </row>
     <row r="105">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3658.81</v>
+        <v>3995.8</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>52452.93</v>
+        <v>56789.14</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>101.7</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="108">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>50.59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1993.72</v>
+        <v>1997.63</v>
       </c>
     </row>
     <row r="110">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>151.23</v>
+        <v>152.09</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>10.46</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="112">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>202.83</v>
+        <v>224.19</v>
       </c>
     </row>
     <row r="115">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>219.33</v>
+        <v>240.69</v>
       </c>
     </row>
     <row r="116">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>262.86</v>
+        <v>292.46</v>
       </c>
     </row>
     <row r="117">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>318.96</v>
+        <v>447.56</v>
       </c>
     </row>
     <row r="118">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>222.43</v>
+        <v>375.79</v>
       </c>
     </row>
     <row r="119">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>647.89</v>
+        <v>669.25</v>
       </c>
     </row>
     <row r="120">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>552.1900000000001</v>
+        <v>573.55</v>
       </c>
     </row>
     <row r="121">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>618.88</v>
+        <v>682.95</v>
       </c>
     </row>
     <row r="122">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>752.7</v>
+        <v>816.77</v>
       </c>
     </row>
     <row r="123">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>721.97</v>
+        <v>794.3</v>
       </c>
     </row>
     <row r="124">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1066.82</v>
+        <v>1238.15</v>
       </c>
     </row>
     <row r="125">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>925.75</v>
+        <v>1121.82</v>
       </c>
     </row>
     <row r="126">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1772.21</v>
+        <v>1836.28</v>
       </c>
     </row>
     <row r="127">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1620.16</v>
+        <v>1684.23</v>
       </c>
     </row>
     <row r="128">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>267.35</v>
+        <v>329.44</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1397.34</v>
+        <v>1487.15</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1340.46</v>
+        <v>1399.94</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4434.51</v>
+        <v>4686.77</v>
       </c>
     </row>
     <row r="132">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>870.25</v>
+        <v>920.95</v>
       </c>
     </row>
     <row r="133">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2515.72</v>
+        <v>2690.16</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>8696.24</v>
+        <v>8858.610000000001</v>
       </c>
     </row>
     <row r="135">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>21250.33</v>
+        <v>22278.35</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>5772.54</v>
+        <v>6170.19</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2628.14</v>
+        <v>2754.64</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1290.48</v>
+        <v>1433.4</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>7922.24</v>
+        <v>8702.299999999999</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>14859.66</v>
+        <v>16901.77</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>18229.1</v>
+        <v>19006.2</v>
       </c>
     </row>
     <row r="163">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>3.3</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="168">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>5.7</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="169">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2148.66</v>
+        <v>2285.95</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1001.78</v>
+        <v>1049.79</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>3605.47</v>
+        <v>3806.12</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>143.32</v>
+        <v>149.06</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2385.03</v>
+        <v>2447.85</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>5440.45</v>
+        <v>6096.16</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2315.96</v>
+        <v>2467.76</v>
       </c>
     </row>
     <row r="191">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>228.84</v>
+        <v>233.71</v>
       </c>
     </row>
     <row r="192">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>30.87</v>
+        <v>31.78</v>
       </c>
     </row>
     <row r="194">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>84.45</v>
+        <v>84.68000000000001</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>13.8</v>
+        <v>15.09</v>
       </c>
     </row>
     <row r="197">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>207.75</v>
+        <v>216.58</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1607.42</v>
+        <v>1699.52</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>264.54</v>
+        <v>401.45</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>232.65</v>
+        <v>246.58</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>203.05</v>
+        <v>229.36</v>
       </c>
     </row>
     <row r="217">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>145.95</v>
+        <v>156.64</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>3048</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="219">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="223">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1.2</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="225">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>395.7</v>
+        <v>435.6</v>
       </c>
     </row>
     <row r="227">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>324.77</v>
+        <v>377.04</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>340.44</v>
+        <v>392.72</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>354.47</v>
+        <v>406.74</v>
       </c>
     </row>
     <row r="230">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>319.12</v>
+        <v>371.4</v>
       </c>
     </row>
     <row r="231">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>395.7</v>
+        <v>435.6</v>
       </c>
     </row>
     <row r="234">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>324.77</v>
+        <v>377.04</v>
       </c>
     </row>
     <row r="235">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>340.44</v>
+        <v>392.72</v>
       </c>
     </row>
     <row r="236">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>354.47</v>
+        <v>406.74</v>
       </c>
     </row>
     <row r="237">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>319.12</v>
+        <v>371.4</v>
       </c>
     </row>
     <row r="238">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>17216.98</v>
+        <v>17755.6</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>34442</v>
+        <v>36385.5</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>25434.8</v>
+        <v>28440.86</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>29725.5</v>
+        <v>32973.5</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>31974</v>
+        <v>33957</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>31163</v>
+        <v>33947</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>31532.56</v>
+        <v>32728.88</v>
       </c>
     </row>
     <row r="247">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>4628.4</v>
+        <v>5791.25</v>
       </c>
     </row>
     <row r="249">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>2012.16</v>
+        <v>2132.71</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>100570.16</v>
+        <v>100792.34</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>7524.14</v>
+        <v>8459.950000000001</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>35818</v>
+        <v>36892.43</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>6178.25</v>
+        <v>6835.17</v>
       </c>
     </row>
     <row r="273">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>643.5</v>
+        <v>717</v>
       </c>
     </row>
     <row r="274">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>17125.22</v>
+        <v>18304.65</v>
       </c>
     </row>
     <row r="275">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>7280.44</v>
+        <v>7074.19</v>
       </c>
     </row>
     <row r="285">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>6680.54</v>
+        <v>7117.79</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>5627.56</v>
+        <v>6683.56</v>
       </c>
     </row>
     <row r="287">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>9015.25</v>
+        <v>9015.08</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>9366.639999999999</v>
+        <v>9143.719999999999</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>8643.34</v>
+        <v>9410.92</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>7257.66</v>
+        <v>8594.16</v>
       </c>
     </row>
     <row r="294">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>7336.49</v>
+        <v>7732.7</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>4245.62</v>
+        <v>4506.65</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>698.6799999999999</v>
+        <v>718.52</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>426.77</v>
+        <v>580.1900000000001</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>910.13</v>
+        <v>968.5599999999999</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1002.73</v>
+        <v>1144.49</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1986.7</v>
+        <v>2261.99</v>
       </c>
     </row>
     <row r="303">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>24.84</v>
+        <v>30.09</v>
       </c>
     </row>
     <row r="305">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>172.22</v>
+        <v>187.34</v>
       </c>
     </row>
     <row r="325">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>72.03</v>
+        <v>81.86</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>11160.49</v>
+        <v>13814.01</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>489.75</v>
+        <v>515.76</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>77.52</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>449.46</v>
+        <v>470.35</v>
       </c>
     </row>
     <row r="330">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>32.36</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="331">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>126.9</v>
+        <v>154.44</v>
       </c>
     </row>
     <row r="332">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>112717.55</v>
+        <v>119744.59</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>89842.48</v>
+        <v>90904.27</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>13021.22</v>
+        <v>14301.89</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>77307.16</v>
+        <v>82974.64999999999</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>47111.42</v>
+        <v>51133.45</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>127704.16</v>
+        <v>132626.17</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>54571.96</v>
+        <v>58530.84</v>
       </c>
     </row>
     <row r="359">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>3606.92</v>
+        <v>3601.97</v>
       </c>
     </row>
     <row r="367">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>3919.52</v>
+        <v>7851.44</v>
       </c>
     </row>
     <row r="368">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>3869.22</v>
+        <v>7801.14</v>
       </c>
     </row>
     <row r="369">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>5995.32</v>
+        <v>10176.75</v>
       </c>
     </row>
     <row r="370">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>5634.74</v>
+        <v>9840.92</v>
       </c>
     </row>
     <row r="371">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>3876.62</v>
+        <v>3843.62</v>
       </c>
     </row>
     <row r="374">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>4123.22</v>
+        <v>8027.09</v>
       </c>
     </row>
     <row r="375">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>4172.72</v>
+        <v>8175.59</v>
       </c>
     </row>
     <row r="376">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>4501.16</v>
+        <v>8438.030000000001</v>
       </c>
     </row>
     <row r="377">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>4269.27</v>
+        <v>8206.15</v>
       </c>
     </row>
     <row r="378">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>12420</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="381">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>72382.5</v>
+        <v>78150</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>61700</v>
+        <v>73652</v>
       </c>
     </row>
     <row r="384">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="386">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>112974.5</v>
+        <v>120954.5</v>
       </c>
     </row>
     <row r="387">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>58.68</v>
+        <v>69.77</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>178.66</v>
+        <v>198.97</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>208.3</v>
+        <v>229.46</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>47.31</v>
+        <v>49.57</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>156.42</v>
+        <v>165.19</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>193.75</v>
+        <v>214.06</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>829.91</v>
+        <v>877.51</v>
       </c>
     </row>
     <row r="415">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>714.34</v>
+        <v>711.02</v>
       </c>
     </row>
     <row r="423">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>710.38</v>
+        <v>723.8099999999999</v>
       </c>
     </row>
     <row r="424">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>815.0700000000001</v>
+        <v>820.25</v>
       </c>
     </row>
     <row r="425">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>860.28</v>
+        <v>865.47</v>
       </c>
     </row>
     <row r="426">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>507.61</v>
+        <v>739.4400000000001</v>
       </c>
     </row>
     <row r="427">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>834.05</v>
+        <v>830.73</v>
       </c>
     </row>
     <row r="429">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>598.84</v>
+        <v>595.52</v>
       </c>
     </row>
     <row r="430">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>710.38</v>
+        <v>723.8099999999999</v>
       </c>
     </row>
     <row r="431">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>815.0700000000001</v>
+        <v>820.25</v>
       </c>
     </row>
     <row r="432">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>860.28</v>
+        <v>865.47</v>
       </c>
     </row>
     <row r="433">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>507.61</v>
+        <v>739.4400000000001</v>
       </c>
     </row>
     <row r="434">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>718.55</v>
+        <v>715.23</v>
       </c>
     </row>
     <row r="436">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>2789.82</v>
+        <v>2991.04</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>5662.77</v>
+        <v>5960.18</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>5187.69</v>
+        <v>5249.78</v>
       </c>
     </row>
     <row r="439">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>216.93</v>
+        <v>229.68</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>413.31</v>
+        <v>465.3</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>7212.62</v>
+        <v>7530.26</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>6926.56</v>
+        <v>6994.56</v>
       </c>
     </row>
     <row r="443">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>0.23</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="448">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6539.22</v>
+        <v>6635.49</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5861.06</v>
+        <v>5954.86</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7966</v>
+        <v>7825.32</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9322.959999999999</v>
+        <v>8796.450000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9252.25</v>
+        <v>8642.49</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5302.29</v>
+        <v>7678.3</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6014.22</v>
+        <v>6224.08</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16015.52</v>
+        <v>16111.79</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13589.54</v>
+        <v>13683.34</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19024.72</v>
+        <v>18492.63</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>21446.08</v>
+        <v>20128.16</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22419.62</v>
+        <v>20918.44</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15546.04</v>
+        <v>20495.3</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16715.48</v>
+        <v>16925.34</v>
       </c>
     </row>
     <row r="16">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>377.04</v>
+        <v>374.57</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>392.72</v>
+        <v>390.24</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>406.74</v>
+        <v>404.27</v>
       </c>
     </row>
     <row r="230">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>371.4</v>
+        <v>368.92</v>
       </c>
     </row>
     <row r="231">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>327.56</v>
+        <v>337.46</v>
       </c>
     </row>
     <row r="232">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>377.04</v>
+        <v>374.57</v>
       </c>
     </row>
     <row r="235">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>392.72</v>
+        <v>390.24</v>
       </c>
     </row>
     <row r="236">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>406.74</v>
+        <v>404.27</v>
       </c>
     </row>
     <row r="237">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>371.4</v>
+        <v>368.92</v>
       </c>
     </row>
     <row r="238">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>327.56</v>
+        <v>337.46</v>
       </c>
     </row>
     <row r="239">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>6592.28</v>
+        <v>6617.03</v>
       </c>
     </row>
     <row r="283">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>7117.79</v>
+        <v>7546.79</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>6683.56</v>
+        <v>7706.56</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>6451.67</v>
+        <v>7573.67</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>6998.06</v>
+        <v>7022.81</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>8653.030000000001</v>
+        <v>8677.780000000001</v>
       </c>
     </row>
     <row r="290">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>9410.92</v>
+        <v>10004.92</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>8594.16</v>
+        <v>10029.66</v>
       </c>
     </row>
     <row r="294">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>8451.77</v>
+        <v>9986.27</v>
       </c>
     </row>
     <row r="295">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>9405.809999999999</v>
+        <v>9430.559999999999</v>
       </c>
     </row>
     <row r="296">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>3601.97</v>
+        <v>4101.92</v>
       </c>
     </row>
     <row r="367">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>7851.44</v>
+        <v>8934.790000000001</v>
       </c>
     </row>
     <row r="368">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>7801.14</v>
+        <v>11933.49</v>
       </c>
     </row>
     <row r="369">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>10176.75</v>
+        <v>15075.05</v>
       </c>
     </row>
     <row r="370">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>9840.92</v>
+        <v>12706.47</v>
       </c>
     </row>
     <row r="371">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>2638.24</v>
+        <v>5753.29</v>
       </c>
     </row>
     <row r="372">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>3476.54</v>
+        <v>3976.49</v>
       </c>
     </row>
     <row r="373">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>3843.62</v>
+        <v>4343.57</v>
       </c>
     </row>
     <row r="374">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>8027.09</v>
+        <v>9126.940000000001</v>
       </c>
     </row>
     <row r="375">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>8175.59</v>
+        <v>13074.19</v>
       </c>
     </row>
     <row r="376">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>8438.030000000001</v>
+        <v>13836.58</v>
       </c>
     </row>
     <row r="377">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>8206.15</v>
+        <v>11604.95</v>
       </c>
     </row>
     <row r="378">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>2571.78</v>
+        <v>5970.58</v>
       </c>
     </row>
     <row r="379">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>3529.74</v>
+        <v>4029.69</v>
       </c>
     </row>
     <row r="380">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>711.02</v>
+        <v>715.8</v>
       </c>
     </row>
     <row r="423">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>723.8099999999999</v>
+        <v>708.64</v>
       </c>
     </row>
     <row r="424">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>820.25</v>
+        <v>800.95</v>
       </c>
     </row>
     <row r="425">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>865.47</v>
+        <v>846.17</v>
       </c>
     </row>
     <row r="426">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>739.4400000000001</v>
+        <v>918.39</v>
       </c>
     </row>
     <row r="427">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>627.77</v>
+        <v>1385.06</v>
       </c>
     </row>
     <row r="428">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>830.73</v>
+        <v>835.51</v>
       </c>
     </row>
     <row r="429">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>595.52</v>
+        <v>600.3</v>
       </c>
     </row>
     <row r="430">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>723.8099999999999</v>
+        <v>708.64</v>
       </c>
     </row>
     <row r="431">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>820.25</v>
+        <v>800.95</v>
       </c>
     </row>
     <row r="432">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>865.47</v>
+        <v>846.17</v>
       </c>
     </row>
     <row r="433">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>739.4400000000001</v>
+        <v>868.89</v>
       </c>
     </row>
     <row r="434">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>561.77</v>
+        <v>1170.56</v>
       </c>
     </row>
     <row r="435">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>715.23</v>
+        <v>720.01</v>
       </c>
     </row>
     <row r="436">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8642.49</v>
+        <v>8318.49</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7678.3</v>
+        <v>7403.8</v>
       </c>
     </row>
     <row r="8">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20918.44</v>
+        <v>19896.44</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20495.3</v>
+        <v>19621.8</v>
       </c>
     </row>
     <row r="15">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8051.14</v>
+        <v>551.14</v>
       </c>
     </row>
     <row r="21">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>43203.91</v>
+        <v>42873.41</v>
       </c>
     </row>
     <row r="77">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>13.9</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="112">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>920.95</v>
+        <v>916.9400000000001</v>
       </c>
     </row>
     <row r="133">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>8702.299999999999</v>
+        <v>8519.799999999999</v>
       </c>
     </row>
     <row r="161">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9.92</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="168">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>6.09</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="169">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2447.85</v>
+        <v>2432.28</v>
       </c>
     </row>
     <row r="189">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>84.68000000000001</v>
+        <v>84.23999999999999</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>15.09</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="197">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>229.36</v>
+        <v>226.24</v>
       </c>
     </row>
     <row r="217">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>2.01</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="225">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>7706.56</v>
+        <v>7112.56</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>7573.67</v>
+        <v>6880.67</v>
       </c>
     </row>
     <row r="288">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>10029.66</v>
+        <v>9188.16</v>
       </c>
     </row>
     <row r="294">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>9986.27</v>
+        <v>9045.77</v>
       </c>
     </row>
     <row r="295">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>51133.45</v>
+        <v>50365.45</v>
       </c>
     </row>
     <row r="357">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>165.19</v>
+        <v>162.21</v>
       </c>
     </row>
     <row r="413">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>918.39</v>
+        <v>621.14</v>
       </c>
     </row>
     <row r="427">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>1385.06</v>
+        <v>741.3099999999999</v>
       </c>
     </row>
     <row r="428">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>868.89</v>
+        <v>621.14</v>
       </c>
     </row>
     <row r="434">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>1170.56</v>
+        <v>675.3099999999999</v>
       </c>
     </row>
     <row r="435">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3354.82</v>
+        <v>10201.63</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4229.67</v>
+        <v>8171.62</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4512.4</v>
+        <v>9401.190000000001</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4637.15</v>
+        <v>9525.940000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3540.63</v>
+        <v>8773.299999999999</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3831.4</v>
+        <v>10185.95</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3070.44</v>
+        <v>9629.360000000001</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3354.82</v>
+        <v>10201.63</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4229.67</v>
+        <v>8171.62</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4512.4</v>
+        <v>9401.190000000001</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4637.15</v>
+        <v>9525.940000000001</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3540.63</v>
+        <v>8773.299999999999</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3831.4</v>
+        <v>10185.95</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,847 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3070.44</v>
+        <v>9629.360000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3068.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>10871.28</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3607.64</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>8597.360000000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>26435.12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>5332.52</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10201.63</v>
+        <v>8967.870000000001</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8171.62</v>
+        <v>6063.01</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9401.190000000001</v>
+        <v>4913.73</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9525.940000000001</v>
+        <v>5038.48</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8773.299999999999</v>
+        <v>5387.35</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10185.95</v>
+        <v>7008.34</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9629.360000000001</v>
+        <v>8854.219999999999</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10201.63</v>
+        <v>17085.87</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8171.62</v>
+        <v>16953.01</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9401.190000000001</v>
+        <v>4913.73</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9525.940000000001</v>
+        <v>5038.48</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8773.299999999999</v>
+        <v>5387.35</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10185.95</v>
+        <v>7008.34</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9629.360000000001</v>
+        <v>12616.22</v>
       </c>
     </row>
     <row r="16">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3725</v>
+        <v>5662.5</v>
       </c>
     </row>
     <row r="23">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3068.8</v>
+        <v>4664.25</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>49.5</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="32">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>49.5</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="39">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>10871.28</v>
+        <v>17414.67</v>
       </c>
     </row>
     <row r="52">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3607.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>8597.360000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>26435.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5332.52</v>
+        <v>8030.28</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8967.870000000001</v>
+        <v>10346.01</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6063.01</v>
+        <v>7640.65</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4913.73</v>
+        <v>8144.99</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5038.48</v>
+        <v>5037.87</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5387.35</v>
+        <v>5386.62</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7008.34</v>
+        <v>7686.99</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8854.219999999999</v>
+        <v>10232.36</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17085.87</v>
+        <v>20592.51</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16953.01</v>
+        <v>16352.65</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4913.73</v>
+        <v>8210.99</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5038.48</v>
+        <v>5037.87</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5387.35</v>
+        <v>5386.62</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7008.34</v>
+        <v>7686.99</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12616.22</v>
+        <v>13977.86</v>
       </c>
     </row>
     <row r="16">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5662.5</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="23">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4664.25</v>
+        <v>6268.4</v>
       </c>
     </row>
     <row r="30">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>17414.67</v>
+        <v>23400.4</v>
       </c>
     </row>
     <row r="52">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>2413.69</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>170.05</v>
       </c>
     </row>
     <row r="55">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>8030.28</v>
+        <v>10726.36</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10346.01</v>
+        <v>11021.97</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7640.65</v>
+        <v>8824.49</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8144.99</v>
+        <v>12108.99</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5037.87</v>
+        <v>15173.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5386.62</v>
+        <v>14364.96</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7686.99</v>
+        <v>7987.27</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10232.36</v>
+        <v>10558.52</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20592.51</v>
+        <v>21268.47</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16352.65</v>
+        <v>17536.49</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8210.99</v>
+        <v>12841.32</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5037.87</v>
+        <v>15839.63</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5386.62</v>
+        <v>15031.3</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7686.99</v>
+        <v>7987.27</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13977.86</v>
+        <v>14304.02</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>24535</v>
       </c>
     </row>
     <row r="17">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6268.4</v>
+        <v>9485.1</v>
       </c>
     </row>
     <row r="30">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23400.4</v>
+        <v>35193.54</v>
       </c>
     </row>
     <row r="52">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2413.69</v>
+        <v>5759.92</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>170.05</v>
+        <v>646.77</v>
       </c>
     </row>
     <row r="55">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>199.44</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>10726.36</v>
+        <v>16117.62</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11021.97</v>
+        <v>11021.65</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8824.49</v>
+        <v>8746.77</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12108.99</v>
+        <v>11373.48</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15173.3</v>
+        <v>13981.96</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14364.96</v>
+        <v>14316.87</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7987.27</v>
+        <v>15203.25</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10558.52</v>
+        <v>10591.52</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21268.47</v>
+        <v>21268.15</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17536.49</v>
+        <v>17458.77</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12841.32</v>
+        <v>11939.23</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15839.63</v>
+        <v>14481.71</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15031.3</v>
+        <v>14816.62</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7987.27</v>
+        <v>16502</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14304.02</v>
+        <v>14337.02</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24535</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="17">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7648</v>
+        <v>9752.5</v>
       </c>
     </row>
     <row r="23">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>6102.15</v>
       </c>
     </row>
     <row r="29">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>66</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="36">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>66</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="43">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>5759.92</v>
+        <v>7308.23</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>646.77</v>
+        <v>868.5599999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>199.44</v>
+        <v>1153.94</v>
       </c>
     </row>
     <row r="57">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8746.77</v>
+        <v>8733.450000000001</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11373.48</v>
+        <v>11210.19</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13981.96</v>
+        <v>12519.92</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14316.87</v>
+        <v>12047.75</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15203.25</v>
+        <v>13158.37</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10591.52</v>
+        <v>13243.67</v>
       </c>
     </row>
     <row r="9">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17458.77</v>
+        <v>17445.45</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11939.23</v>
+        <v>11775.94</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14481.71</v>
+        <v>13019.67</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14816.62</v>
+        <v>12547.5</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16502</v>
+        <v>14407.62</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14337.02</v>
+        <v>17738.67</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="17">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9752.5</v>
+        <v>11769</v>
       </c>
     </row>
     <row r="23">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6102.15</v>
+        <v>16011.82</v>
       </c>
     </row>
     <row r="29">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16.5</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>16.5</v>
+        <v>108.08</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>41.25</v>
+        <v>264.82</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>24.75</v>
+        <v>347.32</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>372.08</v>
       </c>
     </row>
     <row r="37">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>16.5</v>
+        <v>135.3</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>16.5</v>
+        <v>147.68</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>41.25</v>
+        <v>304.42</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>24.75</v>
+        <v>386.92</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>411.68</v>
       </c>
     </row>
     <row r="44">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>7308.23</v>
+        <v>8857.73</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>868.5599999999999</v>
+        <v>1088.25</v>
       </c>
     </row>
     <row r="55">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1153.94</v>
+        <v>2137.03</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>16117.62</v>
+        <v>21852.98</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35000</v>
+        <v>43284.5</v>
       </c>
     </row>
     <row r="17">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11769</v>
+        <v>13776</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4376.78</v>
       </c>
     </row>
     <row r="24">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>16011.82</v>
+        <v>24507.84</v>
       </c>
     </row>
     <row r="29">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>2183.56</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>8857.73</v>
+        <v>9213.299999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1088.25</v>
+        <v>1308.42</v>
       </c>
     </row>
     <row r="55">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2137.03</v>
+        <v>2972.01</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>21852.98</v>
+        <v>24860.34</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11021.65</v>
+        <v>17683.7</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8733.450000000001</v>
+        <v>13874.13</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11210.19</v>
+        <v>11968.77</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12519.92</v>
+        <v>13599.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12047.75</v>
+        <v>14475.68</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13158.37</v>
+        <v>16454.8</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13243.67</v>
+        <v>17690.67</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21268.15</v>
+        <v>30069.3</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17445.45</v>
+        <v>23549.61</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11775.94</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13019.67</v>
+        <v>14963.49</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12547.5</v>
+        <v>15839.91</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14407.62</v>
+        <v>18568.54</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17738.67</v>
+        <v>23050.15</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43284.5</v>
+        <v>51792</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4746.5</v>
       </c>
     </row>
     <row r="18">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13776</v>
+        <v>22195</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4376.78</v>
+        <v>7553.88</v>
       </c>
     </row>
     <row r="24">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24507.84</v>
+        <v>32902.76</v>
       </c>
     </row>
     <row r="29">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>24.75</v>
+        <v>201.42</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>24.75</v>
+        <v>65.29000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>95.7</v>
+        <v>127.99</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>108.08</v>
+        <v>137.89</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>264.82</v>
+        <v>274.02</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>347.32</v>
+        <v>331.77</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>372.08</v>
+        <v>346.62</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>24.75</v>
+        <v>201.42</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24.75</v>
+        <v>65.29000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>135.3</v>
+        <v>167.59</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>147.68</v>
+        <v>177.49</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>304.42</v>
+        <v>313.62</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>386.92</v>
+        <v>371.37</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>411.68</v>
+        <v>386.22</v>
       </c>
     </row>
     <row r="44">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2183.56</v>
+        <v>5332.39</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9213.299999999999</v>
+        <v>9511.9</v>
       </c>
     </row>
     <row r="54">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2972.01</v>
+        <v>3799.04</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>24860.34</v>
+        <v>27792.34</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17683.7</v>
+        <v>17639.34</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13874.13</v>
+        <v>14179.02</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11968.77</v>
+        <v>13333.5</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14475.68</v>
+        <v>14359.04</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16454.8</v>
+        <v>16335.7</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17690.67</v>
+        <v>17546.64</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30069.3</v>
+        <v>29991.94</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>23549.61</v>
+        <v>23821.51</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13399</v>
+        <v>14829.74</v>
       </c>
     </row>
     <row r="12">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15839.91</v>
+        <v>15723.27</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18568.54</v>
+        <v>18449.43</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>23050.15</v>
+        <v>22906.12</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>51792</v>
+        <v>60396.5</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4746.5</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="18">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22195</v>
+        <v>27540</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7553.88</v>
+        <v>10279</v>
       </c>
     </row>
     <row r="24">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32902.76</v>
+        <v>41358.8</v>
       </c>
     </row>
     <row r="29">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>201.42</v>
+        <v>403.54</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>65.29000000000001</v>
+        <v>212.14</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>127.99</v>
+        <v>274.84</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>137.89</v>
+        <v>136.24</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>274.02</v>
+        <v>259.99</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>331.77</v>
+        <v>309.49</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>346.62</v>
+        <v>482.74</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>201.42</v>
+        <v>428.29</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>65.29000000000001</v>
+        <v>236.89</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>167.59</v>
+        <v>339.19</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>177.49</v>
+        <v>175.84</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>313.62</v>
+        <v>299.59</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>371.37</v>
+        <v>349.09</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>386.22</v>
+        <v>547.09</v>
       </c>
     </row>
     <row r="44">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>35193.54</v>
+        <v>35454.1</v>
       </c>
     </row>
     <row r="52">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5332.39</v>
+        <v>8455.6</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9511.9</v>
+        <v>10876.38</v>
       </c>
     </row>
     <row r="54">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3799.04</v>
+        <v>4625.05</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>27792.34</v>
+        <v>30722.97</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17639.34</v>
+        <v>18923.74</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14179.02</v>
+        <v>15463.42</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13333.5</v>
+        <v>14617.9</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13599.25</v>
+        <v>15907.65</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17546.64</v>
+        <v>17566.54</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29991.94</v>
+        <v>31754.84</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>23821.51</v>
+        <v>25584.41</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14829.74</v>
+        <v>16592.64</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14963.49</v>
+        <v>17816.39</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22906.12</v>
+        <v>22926.02</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>60396.5</v>
+        <v>68938</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10000</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>60404</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>14985.5</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>36393</v>
       </c>
     </row>
     <row r="21">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>27540</v>
+        <v>55429</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10279</v>
+        <v>12951.45</v>
       </c>
     </row>
     <row r="24">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41358.8</v>
+        <v>49767.78</v>
       </c>
     </row>
     <row r="29">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>403.54</v>
+        <v>488.52</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>212.14</v>
+        <v>297.12</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>274.84</v>
+        <v>359.82</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>136.24</v>
+        <v>287.22</v>
       </c>
     </row>
     <row r="34">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>482.74</v>
+        <v>472.84</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>428.29</v>
+        <v>602.8200000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>236.89</v>
+        <v>411.42</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>339.19</v>
+        <v>513.72</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>175.84</v>
+        <v>416.37</v>
       </c>
     </row>
     <row r="41">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>547.09</v>
+        <v>576.99</v>
       </c>
     </row>
     <row r="44">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>35454.1</v>
+        <v>35520.94</v>
       </c>
     </row>
     <row r="52">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>8455.6</v>
+        <v>11568.87</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>10876.38</v>
+        <v>11857.77</v>
       </c>
     </row>
     <row r="54">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4625.05</v>
+        <v>4912.38</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>30722.97</v>
+        <v>33650.58</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18923.74</v>
+        <v>18769.01</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15463.42</v>
+        <v>15308.7</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14617.9</v>
+        <v>14479.68</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15907.65</v>
+        <v>16067.68</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14359.04</v>
+        <v>16393.84</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16335.7</v>
+        <v>16378.41</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17566.54</v>
+        <v>17614.19</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31754.84</v>
+        <v>31580.32</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25584.41</v>
+        <v>25409.88</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16592.64</v>
+        <v>16434.61</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17816.39</v>
+        <v>17956.61</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15723.27</v>
+        <v>17837.27</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18449.43</v>
+        <v>18492.14</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22926.02</v>
+        <v>22973.67</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>68938</v>
+        <v>83522.5</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28800</v>
+        <v>38520</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>60404</v>
+        <v>69080</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>14985.5</v>
+        <v>28675.5</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36393</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55429</v>
+        <v>65609.5</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12951.45</v>
+        <v>15651.06</v>
       </c>
     </row>
     <row r="24">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>35520.94</v>
+        <v>35588.16</v>
       </c>
     </row>
     <row r="52">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>11568.87</v>
+        <v>14672.91</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>11857.77</v>
+        <v>12756.3</v>
       </c>
     </row>
     <row r="54">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4912.38</v>
+        <v>5616.03</v>
       </c>
     </row>
     <row r="57">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18769.01</v>
+        <v>19096.26</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15308.7</v>
+        <v>15934.95</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14479.68</v>
+        <v>15450.8</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16067.68</v>
+        <v>17811.55</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16393.84</v>
+        <v>18510.96</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16378.41</v>
+        <v>18973.92</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17614.19</v>
+        <v>17608.56</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31580.32</v>
+        <v>31867.97</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25409.88</v>
+        <v>25996.53</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16434.61</v>
+        <v>17366.13</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17956.61</v>
+        <v>19660.88</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17837.27</v>
+        <v>19914.8</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18492.14</v>
+        <v>21087.65</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22973.67</v>
+        <v>22968.04</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>83522.5</v>
+        <v>98833</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>38520</v>
+        <v>63330</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>69080</v>
+        <v>91500</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>28675.5</v>
+        <v>53750.5</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>44799</v>
+        <v>55143</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2830</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>65609.5</v>
+        <v>82053</v>
       </c>
     </row>
     <row r="23">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>488.52</v>
+        <v>486.04</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>297.12</v>
+        <v>294.64</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>359.82</v>
+        <v>357.34</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>287.22</v>
+        <v>297.12</v>
       </c>
     </row>
     <row r="34">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>472.84</v>
+        <v>470.37</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>602.8200000000001</v>
+        <v>600.34</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>411.42</v>
+        <v>408.94</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>513.72</v>
+        <v>511.24</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>416.37</v>
+        <v>426.27</v>
       </c>
     </row>
     <row r="41">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>576.99</v>
+        <v>574.52</v>
       </c>
     </row>
     <row r="44">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14672.91</v>
+        <v>17778.26</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>12756.3</v>
+        <v>13651.2</v>
       </c>
     </row>
     <row r="54">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5616.03</v>
+        <v>8023.64</v>
       </c>
     </row>
     <row r="57">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19096.26</v>
+        <v>19525.37</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15934.95</v>
+        <v>16622.29</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15450.8</v>
+        <v>16068.35</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17811.55</v>
+        <v>18267.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18510.96</v>
+        <v>19025</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18973.92</v>
+        <v>19563.21</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17608.56</v>
+        <v>20258.73</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31867.97</v>
+        <v>32297.08</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25996.53</v>
+        <v>26683.87</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17366.13</v>
+        <v>17983.68</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19660.88</v>
+        <v>20116.39</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19914.8</v>
+        <v>20428.83</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21087.65</v>
+        <v>21676.94</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22968.04</v>
+        <v>25618.22</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>98833</v>
+        <v>103486.5</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>63330</v>
+        <v>78152</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>91500</v>
+        <v>107500</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>53750.5</v>
+        <v>70805.5</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>55143</v>
+        <v>60848.5</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3402</v>
+        <v>3972.5</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>82053</v>
+        <v>97874.5</v>
       </c>
     </row>
     <row r="23">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>49767.78</v>
+        <v>53731.41</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9485.1</v>
+        <v>9938.389999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>17778.26</v>
+        <v>18589.74</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>13651.2</v>
+        <v>14543.4</v>
       </c>
     </row>
     <row r="54">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8023.64</v>
+        <v>9889.17</v>
       </c>
     </row>
     <row r="57">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19525.37</v>
+        <v>21195.67</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16622.29</v>
+        <v>16163.92</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16068.35</v>
+        <v>15609.97</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18267.05</v>
+        <v>17733.81</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19025</v>
+        <v>18524.59</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19563.21</v>
+        <v>18922.05</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20258.73</v>
+        <v>19507.48</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>32297.08</v>
+        <v>35915.56</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>26683.87</v>
+        <v>27108.6</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17983.68</v>
+        <v>18408.41</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20116.39</v>
+        <v>20783.04</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20428.83</v>
+        <v>21128.33</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21676.94</v>
+        <v>22235.69</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25618.22</v>
+        <v>26066.87</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>103486.5</v>
+        <v>114412.5</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>78152</v>
+        <v>93001.5</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>107500</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>70805.5</v>
+        <v>88877.5</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60848.5</v>
+        <v>73608</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3972.5</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>97874.5</v>
+        <v>123515</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>15651.06</v>
+        <v>16898.07</v>
       </c>
     </row>
     <row r="24">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>53731.41</v>
+        <v>55374.54</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9938.389999999999</v>
+        <v>10553.56</v>
       </c>
     </row>
     <row r="30">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>9889.17</v>
+        <v>11613.58</v>
       </c>
     </row>
     <row r="57">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21195.67</v>
+        <v>42135.55</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16163.92</v>
+        <v>40710.45</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15609.97</v>
+        <v>19880.69</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17733.81</v>
+        <v>25042.16</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18524.59</v>
+        <v>29138.56</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18922.05</v>
+        <v>31405.52</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19507.48</v>
+        <v>36050.57</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35915.56</v>
+        <v>56842.79</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>27108.6</v>
+        <v>51714.26</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18408.41</v>
+        <v>22677.75</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20783.04</v>
+        <v>28080.12</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21128.33</v>
+        <v>31731.02</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22235.69</v>
+        <v>34707.88</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>26066.87</v>
+        <v>42598.68</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>114412.5</v>
+        <v>119912.5</v>
       </c>
     </row>
     <row r="17">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>123515</v>
+        <v>125573.5</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>16898.07</v>
+        <v>18528.22</v>
       </c>
     </row>
     <row r="24">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1226.96</v>
       </c>
     </row>
     <row r="26">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>55374.54</v>
+        <v>56855.23</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10553.56</v>
+        <v>11144.97</v>
       </c>
     </row>
     <row r="30">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>14543.4</v>
+        <v>14880.34</v>
       </c>
     </row>
     <row r="54">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>11613.58</v>
+        <v>13318.33</v>
       </c>
     </row>
     <row r="57">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42135.55</v>
+        <v>51085.97</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>40710.45</v>
+        <v>56860.92</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19880.69</v>
+        <v>64503.78</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25042.16</v>
+        <v>26641.62</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29138.56</v>
+        <v>34237.25</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31405.52</v>
+        <v>36597.34</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36050.57</v>
+        <v>41167.11</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>56842.79</v>
+        <v>64683.28</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>51714.26</v>
+        <v>66754.8</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22677.75</v>
+        <v>66190.91</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28080.12</v>
+        <v>29760.53</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31731.02</v>
+        <v>36910.66</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34707.88</v>
+        <v>39980.64</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42598.68</v>
+        <v>47796.17</v>
       </c>
     </row>
     <row r="16">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>125573.5</v>
+        <v>127664</v>
       </c>
     </row>
     <row r="23">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>486.04</v>
+        <v>2069.17</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>294.64</v>
+        <v>1877.77</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>357.34</v>
+        <v>2940.34</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>297.12</v>
+        <v>1296.99</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>259.99</v>
+        <v>1843.12</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>309.49</v>
+        <v>1892.62</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>470.37</v>
+        <v>2053.49</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>600.34</v>
+        <v>2183.47</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>408.94</v>
+        <v>1992.07</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>511.24</v>
+        <v>3094.24</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>426.27</v>
+        <v>1426.14</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>299.59</v>
+        <v>1882.72</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>349.09</v>
+        <v>1932.22</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>574.52</v>
+        <v>2157.64</v>
       </c>
     </row>
     <row r="44">

--- a/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_semanal_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51085.97</v>
+        <v>6635.49</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56860.92</v>
+        <v>5954.86</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64503.78</v>
+        <v>7825.32</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26641.62</v>
+        <v>8796.450000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34237.25</v>
+        <v>8318.49</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>36597.34</v>
+        <v>7403.8</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41167.11</v>
+        <v>6224.08</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64683.28</v>
+        <v>16111.79</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>66754.8</v>
+        <v>13683.34</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66190.91</v>
+        <v>18492.63</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>29760.53</v>
+        <v>20128.16</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36910.66</v>
+        <v>19896.44</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39980.64</v>
+        <v>19621.8</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47796.17</v>
+        <v>16925.34</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>119912.5</v>
+        <v>2196486.5</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>93001.5</v>
+        <v>305951.62</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>118000</v>
+        <v>13229.78</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>88877.5</v>
+        <v>192970</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>73608</v>
+        <v>551.14</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4548</v>
+        <v>156313.85</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>127664</v>
+        <v>410024.62</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18528.22</v>
+        <v>57776.52</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>44766.79</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1226.96</v>
+        <v>45058.06</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>53011.05</v>
       </c>
     </row>
     <row r="27">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>56855.23</v>
+        <v>11555.4</v>
       </c>
     </row>
     <row r="29">
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11144.97</v>
+        <v>239594.75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2069.17</v>
+        <v>999.86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1052,13 +1052,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1877.77</v>
+        <v>1436.19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2940.34</v>
+        <v>1497.69</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1296.99</v>
+        <v>1273.49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1843.12</v>
+        <v>965.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1892.62</v>
+        <v>1473.72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2053.49</v>
+        <v>1484.96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2183.47</v>
+        <v>1162.58</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1192,13 +1192,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1992.07</v>
+        <v>1984.87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3094.24</v>
+        <v>2262.52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1232,13 +1232,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1426.14</v>
+        <v>1893.27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1882.72</v>
+        <v>976.65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1932.22</v>
+        <v>1551.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2157.64</v>
+        <v>1681.85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>14222.24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1730.52</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1352,13 +1352,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>33476.69</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1372,13 +1372,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>6480.04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>3306.01</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1412,13 +1412,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>4030.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1432,13 +1432,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>152</v>
+        <v>7971.28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>35588.16</v>
+        <v>336.43</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>18589.74</v>
+        <v>133.67</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1492,13 +1492,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>14880.34</v>
+        <v>331.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1308.42</v>
+        <v>447.31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>157.32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1552,27 +1552,7867 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>13318.33</v>
+        <v>491.19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>3166.62</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>52421.3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>71187.58</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>31721.79</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>13141.46</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>42873.41</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>10175.66</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>16433.42</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3551.23</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>5511.01</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1512.57</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>625.36</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2106.17</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1086.35</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>4236.67</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>21728.85</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>40612.21</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>40671.28</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>4229.39</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>27758.09</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>3995.8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>56789.14</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>882.16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>939.95</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2701.08</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>827.11</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>557.14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>467.04</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>3233.69</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>224.19</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>240.69</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>292.46</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>447.56</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>375.79</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>669.25</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>573.55</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>682.95</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>816.77</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>794.3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1238.15</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1121.82</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1836.28</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1684.23</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>329.44</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1487.15</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1399.94</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>4686.77</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>916.9400000000001</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>2690.16</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>8858.610000000001</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>2467.07</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1577.73</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>886.33</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>796.42</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>4842.92</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>589.46</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>18331.46</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>2356.57</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>3131.53</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>3491.71</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>3537.81</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>3303.05</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>3424.67</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>4335.65</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>2051.39</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>2666.61</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>2789.41</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>2885.01</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>2583.44</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>2721.3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>3700.83</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>22278.35</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>6170.19</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>2754.64</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1433.4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>8519.799999999999</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>16901.77</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>19006.2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>325.23</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>68.27</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>143.17</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>116.48</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>62.68</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>99.01000000000001</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>3530.59</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>2285.95</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>1049.79</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>3806.12</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>149.06</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>2432.28</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>6096.16</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>2467.76</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>1296.14</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>336.22</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>139.61</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>45.64</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>287.69</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>48.72</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>655.42</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>216.58</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>1699.52</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>401.45</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>246.58</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>226.24</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>156.64</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>68.55</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>66.56</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>36.14</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>44.46</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>365.9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>435.6</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>374.57</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>390.24</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>404.27</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>368.92</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>337.46</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>427.95</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>435.6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>374.57</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>390.24</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>404.27</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>368.92</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>337.46</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>427.95</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>17755.6</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>36385.5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>28440.86</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>32973.5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>33957</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>33947</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>32728.88</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>143.1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>9203.690000000001</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>619.59</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>2126.58</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>297.54</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>3772.94</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>3122.11</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>2132.71</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>100792.34</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>8459.950000000001</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>36892.43</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>6835.17</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>18304.65</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>58.98</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>120.17</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>179.35</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>6617.03</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>6787.95</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>7074.19</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>7546.79</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>7112.56</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>6880.67</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>7022.81</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>8677.780000000001</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>9015.08</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>9143.719999999999</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>10004.92</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>9188.16</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>9045.77</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>9430.559999999999</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>7732.7</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>4506.65</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>718.52</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>580.1900000000001</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>968.5599999999999</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>1144.49</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>2261.99</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>716.3099999999999</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>210.66</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>85.12</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>133.47</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>581.75</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>86.20999999999999</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>3206.76</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>187.34</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>81.86</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>13814.01</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>515.76</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>470.35</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>1900.95</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>4145.42</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>5141.89</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>3746.81</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>5458.09</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>1192.14</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>1877.27</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>119744.59</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>90904.27</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>14301.89</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>82974.64999999999</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>50365.45</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>132626.17</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>58530.84</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>36484.62</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>673.36</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>12618.85</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>1317.6</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>4488.92</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>13812.34</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
           <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>4101.92</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>8934.790000000001</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>11933.49</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>15075.05</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>12706.47</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>5753.29</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>33650.58</v>
+      <c r="D372" t="n">
+        <v>3976.49</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>4343.57</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>9126.940000000001</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>13074.19</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>13836.58</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>11604.95</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>5970.58</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>4029.69</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>78150</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>73652</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>120954.5</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>39826.97</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>13238.99</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>28593.82</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>26638.32</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>4262.7</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>28608.16</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>58388.52</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>69.77</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>198.97</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>229.46</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>49.57</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>162.21</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>214.06</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>877.51</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>44.15</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>243.93</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>715.8</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>708.64</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>800.95</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>846.17</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>621.14</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>741.3099999999999</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>835.51</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>600.3</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>708.64</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>800.95</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>846.17</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>621.14</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>675.3099999999999</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>720.01</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>2991.04</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>5960.18</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>5249.78</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>229.68</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>465.3</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>7530.26</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>6994.56</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>461.82</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>73.23</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>27.44</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>1353.35</v>
       </c>
     </row>
   </sheetData>
